--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -1268,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,13 +1280,15 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1305,6 +1307,8 @@
       <c r="I1" s="71" t="n"/>
       <c r="J1" s="71" t="n"/>
       <c r="K1" s="71" t="n"/>
+      <c r="L1" s="71" t="n"/>
+      <c r="M1" s="71" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="66" t="inlineStr"/>
@@ -1322,6 +1326,8 @@
       <c r="I2" s="71" t="n"/>
       <c r="J2" s="71" t="n"/>
       <c r="K2" s="71" t="n"/>
+      <c r="L2" s="71" t="n"/>
+      <c r="M2" s="71" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="61" t="inlineStr">
@@ -1331,50 +1337,60 @@
       </c>
       <c r="B3" s="61" t="inlineStr">
         <is>
+          <t>Switch_Name</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="inlineStr">
+        <is>
+          <t>Node_ID</t>
+        </is>
+      </c>
+      <c r="D3" s="61" t="inlineStr">
+        <is>
           <t>Interface_Selector</t>
         </is>
       </c>
-      <c r="C3" s="61" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>Policy_Group</t>
         </is>
       </c>
-      <c r="E3" s="61" t="inlineStr">
+      <c r="G3" s="61" t="inlineStr">
         <is>
           <t>Port_Type</t>
         </is>
       </c>
-      <c r="F3" s="61" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>LACP</t>
         </is>
       </c>
-      <c r="G3" s="61" t="inlineStr">
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>Bundle_ID</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="J3" s="61" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="I3" s="61" t="inlineStr">
+      <c r="K3" s="61" t="inlineStr">
         <is>
           <t>Switchport_Mode</t>
         </is>
       </c>
-      <c r="J3" s="61" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>Access_or_Native</t>
         </is>
       </c>
-      <c r="K3" s="61" t="inlineStr">
+      <c r="M3" s="61" t="inlineStr">
         <is>
           <t>Trunk_Allowed_VLANs</t>
         </is>
@@ -1388,22 +1404,30 @@
       </c>
       <c r="B4" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C4" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D4" s="65" t="inlineStr">
+        <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr"/>
-      <c r="E4" s="65" t="inlineStr"/>
       <c r="F4" s="65" t="inlineStr"/>
       <c r="G4" s="65" t="inlineStr"/>
       <c r="H4" s="65" t="inlineStr"/>
       <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr"/>
+      <c r="K4" s="65" t="inlineStr"/>
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="inlineStr">
@@ -1413,22 +1437,30 @@
       </c>
       <c r="B5" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C5" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" s="64" t="inlineStr">
+        <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr"/>
-      <c r="E5" s="64" t="inlineStr"/>
       <c r="F5" s="64" t="inlineStr"/>
       <c r="G5" s="64" t="inlineStr"/>
       <c r="H5" s="64" t="inlineStr"/>
       <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n"/>
+      <c r="J5" s="64" t="inlineStr"/>
+      <c r="K5" s="64" t="inlineStr"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="inlineStr">
@@ -1438,22 +1470,30 @@
       </c>
       <c r="B6" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C6" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr"/>
-      <c r="E6" s="65" t="inlineStr"/>
       <c r="F6" s="65" t="inlineStr"/>
       <c r="G6" s="65" t="inlineStr"/>
       <c r="H6" s="65" t="inlineStr"/>
       <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n"/>
+      <c r="J6" s="65" t="inlineStr"/>
+      <c r="K6" s="65" t="inlineStr"/>
+      <c r="L6" s="65" t="n"/>
+      <c r="M6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="inlineStr">
@@ -1463,22 +1503,30 @@
       </c>
       <c r="B7" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D7" s="64" t="inlineStr">
+        <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr"/>
-      <c r="E7" s="64" t="inlineStr"/>
       <c r="F7" s="64" t="inlineStr"/>
       <c r="G7" s="64" t="inlineStr"/>
       <c r="H7" s="64" t="inlineStr"/>
       <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n"/>
+      <c r="J7" s="64" t="inlineStr"/>
+      <c r="K7" s="64" t="inlineStr"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="65" t="inlineStr">
@@ -1488,22 +1536,30 @@
       </c>
       <c r="B8" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr"/>
-      <c r="E8" s="65" t="inlineStr"/>
       <c r="F8" s="65" t="inlineStr"/>
       <c r="G8" s="65" t="inlineStr"/>
       <c r="H8" s="65" t="inlineStr"/>
       <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n"/>
+      <c r="J8" s="65" t="inlineStr"/>
+      <c r="K8" s="65" t="inlineStr"/>
+      <c r="L8" s="65" t="n"/>
+      <c r="M8" s="65" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="64" t="inlineStr">
@@ -1513,22 +1569,30 @@
       </c>
       <c r="B9" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C9" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D9" s="64" t="inlineStr">
+        <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr"/>
-      <c r="E9" s="64" t="inlineStr"/>
       <c r="F9" s="64" t="inlineStr"/>
       <c r="G9" s="64" t="inlineStr"/>
       <c r="H9" s="64" t="inlineStr"/>
       <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
+      <c r="J9" s="64" t="inlineStr"/>
+      <c r="K9" s="64" t="inlineStr"/>
+      <c r="L9" s="64" t="n"/>
+      <c r="M9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="65" t="inlineStr">
@@ -1538,22 +1602,30 @@
       </c>
       <c r="B10" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C10" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D10" s="65" t="inlineStr">
+        <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr"/>
-      <c r="E10" s="65" t="inlineStr"/>
       <c r="F10" s="65" t="inlineStr"/>
       <c r="G10" s="65" t="inlineStr"/>
       <c r="H10" s="65" t="inlineStr"/>
       <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n"/>
+      <c r="J10" s="65" t="inlineStr"/>
+      <c r="K10" s="65" t="inlineStr"/>
+      <c r="L10" s="65" t="n"/>
+      <c r="M10" s="65" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="inlineStr">
@@ -1563,22 +1635,30 @@
       </c>
       <c r="B11" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C11" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D11" s="64" t="inlineStr">
+        <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr"/>
-      <c r="E11" s="64" t="inlineStr"/>
       <c r="F11" s="64" t="inlineStr"/>
       <c r="G11" s="64" t="inlineStr"/>
       <c r="H11" s="64" t="inlineStr"/>
       <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n"/>
+      <c r="J11" s="64" t="inlineStr"/>
+      <c r="K11" s="64" t="inlineStr"/>
+      <c r="L11" s="64" t="n"/>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="65" t="inlineStr">
@@ -1588,22 +1668,30 @@
       </c>
       <c r="B12" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C12" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D12" s="65" t="inlineStr">
+        <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr"/>
-      <c r="E12" s="65" t="inlineStr"/>
       <c r="F12" s="65" t="inlineStr"/>
       <c r="G12" s="65" t="inlineStr"/>
       <c r="H12" s="65" t="inlineStr"/>
       <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n"/>
+      <c r="J12" s="65" t="inlineStr"/>
+      <c r="K12" s="65" t="inlineStr"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="64" t="inlineStr">
@@ -1613,22 +1701,30 @@
       </c>
       <c r="B13" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C13" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D13" s="64" t="inlineStr">
+        <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr"/>
-      <c r="E13" s="64" t="inlineStr"/>
       <c r="F13" s="64" t="inlineStr"/>
       <c r="G13" s="64" t="inlineStr"/>
       <c r="H13" s="64" t="inlineStr"/>
       <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="n"/>
-      <c r="K13" s="64" t="n"/>
+      <c r="J13" s="64" t="inlineStr"/>
+      <c r="K13" s="64" t="inlineStr"/>
+      <c r="L13" s="64" t="n"/>
+      <c r="M13" s="64" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="65" t="inlineStr">
@@ -1638,22 +1734,30 @@
       </c>
       <c r="B14" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D14" s="65" t="inlineStr">
+        <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr"/>
-      <c r="E14" s="65" t="inlineStr"/>
       <c r="F14" s="65" t="inlineStr"/>
       <c r="G14" s="65" t="inlineStr"/>
       <c r="H14" s="65" t="inlineStr"/>
       <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="n"/>
-      <c r="K14" s="65" t="n"/>
+      <c r="J14" s="65" t="inlineStr"/>
+      <c r="K14" s="65" t="inlineStr"/>
+      <c r="L14" s="65" t="n"/>
+      <c r="M14" s="65" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="64" t="inlineStr">
@@ -1663,22 +1767,30 @@
       </c>
       <c r="B15" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C15" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D15" s="64" t="inlineStr">
+        <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr"/>
-      <c r="E15" s="64" t="inlineStr"/>
       <c r="F15" s="64" t="inlineStr"/>
       <c r="G15" s="64" t="inlineStr"/>
       <c r="H15" s="64" t="inlineStr"/>
       <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="n"/>
-      <c r="K15" s="64" t="n"/>
+      <c r="J15" s="64" t="inlineStr"/>
+      <c r="K15" s="64" t="inlineStr"/>
+      <c r="L15" s="64" t="n"/>
+      <c r="M15" s="64" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="65" t="inlineStr">
@@ -1688,22 +1800,30 @@
       </c>
       <c r="B16" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C16" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D16" s="65" t="inlineStr">
+        <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="E16" s="65" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr"/>
-      <c r="E16" s="65" t="inlineStr"/>
       <c r="F16" s="65" t="inlineStr"/>
       <c r="G16" s="65" t="inlineStr"/>
       <c r="H16" s="65" t="inlineStr"/>
       <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="n"/>
-      <c r="K16" s="65" t="n"/>
+      <c r="J16" s="65" t="inlineStr"/>
+      <c r="K16" s="65" t="inlineStr"/>
+      <c r="L16" s="65" t="n"/>
+      <c r="M16" s="65" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="64" t="inlineStr">
@@ -1713,22 +1833,30 @@
       </c>
       <c r="B17" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C17" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D17" s="64" t="inlineStr">
+        <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr"/>
-      <c r="E17" s="64" t="inlineStr"/>
       <c r="F17" s="64" t="inlineStr"/>
       <c r="G17" s="64" t="inlineStr"/>
       <c r="H17" s="64" t="inlineStr"/>
       <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="64" t="n"/>
+      <c r="J17" s="64" t="inlineStr"/>
+      <c r="K17" s="64" t="inlineStr"/>
+      <c r="L17" s="64" t="n"/>
+      <c r="M17" s="64" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -1738,22 +1866,30 @@
       </c>
       <c r="B18" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C18" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D18" s="65" t="inlineStr">
+        <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="E18" s="65" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr"/>
-      <c r="E18" s="65" t="inlineStr"/>
       <c r="F18" s="65" t="inlineStr"/>
       <c r="G18" s="65" t="inlineStr"/>
       <c r="H18" s="65" t="inlineStr"/>
       <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
+      <c r="J18" s="65" t="inlineStr"/>
+      <c r="K18" s="65" t="inlineStr"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="64" t="inlineStr">
@@ -1763,22 +1899,30 @@
       </c>
       <c r="B19" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C19" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D19" s="64" t="inlineStr">
+        <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr"/>
-      <c r="E19" s="64" t="inlineStr"/>
       <c r="F19" s="64" t="inlineStr"/>
       <c r="G19" s="64" t="inlineStr"/>
       <c r="H19" s="64" t="inlineStr"/>
       <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="n"/>
-      <c r="K19" s="64" t="n"/>
+      <c r="J19" s="64" t="inlineStr"/>
+      <c r="K19" s="64" t="inlineStr"/>
+      <c r="L19" s="64" t="n"/>
+      <c r="M19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="65" t="inlineStr">
@@ -1788,22 +1932,30 @@
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C20" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D20" s="65" t="inlineStr">
+        <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="E20" s="65" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr"/>
-      <c r="E20" s="65" t="inlineStr"/>
       <c r="F20" s="65" t="inlineStr"/>
       <c r="G20" s="65" t="inlineStr"/>
       <c r="H20" s="65" t="inlineStr"/>
       <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="n"/>
-      <c r="K20" s="65" t="n"/>
+      <c r="J20" s="65" t="inlineStr"/>
+      <c r="K20" s="65" t="inlineStr"/>
+      <c r="L20" s="65" t="n"/>
+      <c r="M20" s="65" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="64" t="inlineStr">
@@ -1813,22 +1965,30 @@
       </c>
       <c r="B21" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C21" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D21" s="64" t="inlineStr">
+        <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="E21" s="64" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr"/>
-      <c r="E21" s="64" t="inlineStr"/>
       <c r="F21" s="64" t="inlineStr"/>
       <c r="G21" s="64" t="inlineStr"/>
       <c r="H21" s="64" t="inlineStr"/>
       <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="n"/>
-      <c r="K21" s="64" t="n"/>
+      <c r="J21" s="64" t="inlineStr"/>
+      <c r="K21" s="64" t="inlineStr"/>
+      <c r="L21" s="64" t="n"/>
+      <c r="M21" s="64" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="65" t="inlineStr">
@@ -1838,22 +1998,30 @@
       </c>
       <c r="B22" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="E22" s="65" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr"/>
-      <c r="E22" s="65" t="inlineStr"/>
       <c r="F22" s="65" t="inlineStr"/>
       <c r="G22" s="65" t="inlineStr"/>
       <c r="H22" s="65" t="inlineStr"/>
       <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
+      <c r="J22" s="65" t="inlineStr"/>
+      <c r="K22" s="65" t="inlineStr"/>
+      <c r="L22" s="65" t="n"/>
+      <c r="M22" s="65" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="64" t="inlineStr">
@@ -1863,22 +2031,30 @@
       </c>
       <c r="B23" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D23" s="64" t="inlineStr">
+        <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="E23" s="64" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr"/>
-      <c r="E23" s="64" t="inlineStr"/>
       <c r="F23" s="64" t="inlineStr"/>
       <c r="G23" s="64" t="inlineStr"/>
       <c r="H23" s="64" t="inlineStr"/>
       <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="n"/>
-      <c r="K23" s="64" t="n"/>
+      <c r="J23" s="64" t="inlineStr"/>
+      <c r="K23" s="64" t="inlineStr"/>
+      <c r="L23" s="64" t="n"/>
+      <c r="M23" s="64" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="65" t="inlineStr">
@@ -1888,22 +2064,30 @@
       </c>
       <c r="B24" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="E24" s="65" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr"/>
-      <c r="E24" s="65" t="inlineStr"/>
       <c r="F24" s="65" t="inlineStr"/>
       <c r="G24" s="65" t="inlineStr"/>
       <c r="H24" s="65" t="inlineStr"/>
       <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
+      <c r="J24" s="65" t="inlineStr"/>
+      <c r="K24" s="65" t="inlineStr"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="64" t="inlineStr">
@@ -1913,22 +2097,30 @@
       </c>
       <c r="B25" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C25" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D25" s="64" t="inlineStr">
+        <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="E25" s="64" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr"/>
-      <c r="E25" s="64" t="inlineStr"/>
       <c r="F25" s="64" t="inlineStr"/>
       <c r="G25" s="64" t="inlineStr"/>
       <c r="H25" s="64" t="inlineStr"/>
       <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="n"/>
-      <c r="K25" s="64" t="n"/>
+      <c r="J25" s="64" t="inlineStr"/>
+      <c r="K25" s="64" t="inlineStr"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="65" t="inlineStr">
@@ -1938,22 +2130,30 @@
       </c>
       <c r="B26" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C26" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D26" s="65" t="inlineStr">
+        <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="E26" s="65" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr"/>
-      <c r="E26" s="65" t="inlineStr"/>
       <c r="F26" s="65" t="inlineStr"/>
       <c r="G26" s="65" t="inlineStr"/>
       <c r="H26" s="65" t="inlineStr"/>
       <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="n"/>
-      <c r="K26" s="65" t="n"/>
+      <c r="J26" s="65" t="inlineStr"/>
+      <c r="K26" s="65" t="inlineStr"/>
+      <c r="L26" s="65" t="n"/>
+      <c r="M26" s="65" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="64" t="inlineStr">
@@ -1963,22 +2163,30 @@
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="E27" s="64" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr"/>
-      <c r="E27" s="64" t="inlineStr"/>
       <c r="F27" s="64" t="inlineStr"/>
       <c r="G27" s="64" t="inlineStr"/>
       <c r="H27" s="64" t="inlineStr"/>
       <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="n"/>
-      <c r="K27" s="64" t="n"/>
+      <c r="J27" s="64" t="inlineStr"/>
+      <c r="K27" s="64" t="inlineStr"/>
+      <c r="L27" s="64" t="n"/>
+      <c r="M27" s="64" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="65" t="inlineStr">
@@ -1988,22 +2196,30 @@
       </c>
       <c r="B28" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C28" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D28" s="65" t="inlineStr">
+        <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr"/>
-      <c r="E28" s="65" t="inlineStr"/>
       <c r="F28" s="65" t="inlineStr"/>
       <c r="G28" s="65" t="inlineStr"/>
       <c r="H28" s="65" t="inlineStr"/>
       <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
+      <c r="J28" s="65" t="inlineStr"/>
+      <c r="K28" s="65" t="inlineStr"/>
+      <c r="L28" s="65" t="n"/>
+      <c r="M28" s="65" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="64" t="inlineStr">
@@ -2013,22 +2229,30 @@
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C29" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="E29" s="64" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr"/>
-      <c r="E29" s="64" t="inlineStr"/>
       <c r="F29" s="64" t="inlineStr"/>
       <c r="G29" s="64" t="inlineStr"/>
       <c r="H29" s="64" t="inlineStr"/>
       <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="n"/>
-      <c r="K29" s="64" t="n"/>
+      <c r="J29" s="64" t="inlineStr"/>
+      <c r="K29" s="64" t="inlineStr"/>
+      <c r="L29" s="64" t="n"/>
+      <c r="M29" s="64" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="65" t="inlineStr">
@@ -2038,22 +2262,30 @@
       </c>
       <c r="B30" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C30" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D30" s="65" t="inlineStr">
+        <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="E30" s="65" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr"/>
-      <c r="E30" s="65" t="inlineStr"/>
       <c r="F30" s="65" t="inlineStr"/>
       <c r="G30" s="65" t="inlineStr"/>
       <c r="H30" s="65" t="inlineStr"/>
       <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="n"/>
-      <c r="K30" s="65" t="n"/>
+      <c r="J30" s="65" t="inlineStr"/>
+      <c r="K30" s="65" t="inlineStr"/>
+      <c r="L30" s="65" t="n"/>
+      <c r="M30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="64" t="inlineStr">
@@ -2063,22 +2295,30 @@
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C31" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D31" s="64" t="inlineStr">
+        <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="E31" s="64" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr"/>
-      <c r="E31" s="64" t="inlineStr"/>
       <c r="F31" s="64" t="inlineStr"/>
       <c r="G31" s="64" t="inlineStr"/>
       <c r="H31" s="64" t="inlineStr"/>
       <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="n"/>
-      <c r="K31" s="64" t="n"/>
+      <c r="J31" s="64" t="inlineStr"/>
+      <c r="K31" s="64" t="inlineStr"/>
+      <c r="L31" s="64" t="n"/>
+      <c r="M31" s="64" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="65" t="inlineStr">
@@ -2088,22 +2328,30 @@
       </c>
       <c r="B32" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C32" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D32" s="65" t="inlineStr">
+        <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr"/>
-      <c r="E32" s="65" t="inlineStr"/>
       <c r="F32" s="65" t="inlineStr"/>
       <c r="G32" s="65" t="inlineStr"/>
       <c r="H32" s="65" t="inlineStr"/>
       <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="65" t="inlineStr"/>
+      <c r="K32" s="65" t="inlineStr"/>
+      <c r="L32" s="65" t="n"/>
+      <c r="M32" s="65" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="64" t="inlineStr">
@@ -2113,22 +2361,30 @@
       </c>
       <c r="B33" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D33" s="64" t="inlineStr">
+        <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="E33" s="64" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr"/>
-      <c r="E33" s="64" t="inlineStr"/>
       <c r="F33" s="64" t="inlineStr"/>
       <c r="G33" s="64" t="inlineStr"/>
       <c r="H33" s="64" t="inlineStr"/>
       <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="n"/>
-      <c r="K33" s="64" t="n"/>
+      <c r="J33" s="64" t="inlineStr"/>
+      <c r="K33" s="64" t="inlineStr"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="inlineStr">
@@ -2138,22 +2394,30 @@
       </c>
       <c r="B34" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D34" s="65" t="inlineStr">
+        <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr"/>
-      <c r="E34" s="65" t="inlineStr"/>
       <c r="F34" s="65" t="inlineStr"/>
       <c r="G34" s="65" t="inlineStr"/>
       <c r="H34" s="65" t="inlineStr"/>
       <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="n"/>
-      <c r="K34" s="65" t="n"/>
+      <c r="J34" s="65" t="inlineStr"/>
+      <c r="K34" s="65" t="inlineStr"/>
+      <c r="L34" s="65" t="n"/>
+      <c r="M34" s="65" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="64" t="inlineStr">
@@ -2163,22 +2427,30 @@
       </c>
       <c r="B35" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C35" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D35" s="64" t="inlineStr">
+        <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="E35" s="64" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr"/>
-      <c r="E35" s="64" t="inlineStr"/>
       <c r="F35" s="64" t="inlineStr"/>
       <c r="G35" s="64" t="inlineStr"/>
       <c r="H35" s="64" t="inlineStr"/>
       <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="n"/>
-      <c r="K35" s="64" t="n"/>
+      <c r="J35" s="64" t="inlineStr"/>
+      <c r="K35" s="64" t="inlineStr"/>
+      <c r="L35" s="64" t="n"/>
+      <c r="M35" s="64" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="65" t="inlineStr">
@@ -2188,22 +2460,30 @@
       </c>
       <c r="B36" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C36" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D36" s="65" t="inlineStr">
+        <is>
           <t>Eth2-01</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="E36" s="65" t="inlineStr">
         <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr"/>
-      <c r="E36" s="65" t="inlineStr"/>
       <c r="F36" s="65" t="inlineStr"/>
       <c r="G36" s="65" t="inlineStr"/>
       <c r="H36" s="65" t="inlineStr"/>
       <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="n"/>
-      <c r="K36" s="65" t="n"/>
+      <c r="J36" s="65" t="inlineStr"/>
+      <c r="K36" s="65" t="inlineStr"/>
+      <c r="L36" s="65" t="n"/>
+      <c r="M36" s="65" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="64" t="inlineStr">
@@ -2213,22 +2493,30 @@
       </c>
       <c r="B37" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D37" s="64" t="inlineStr">
+        <is>
           <t>Eth2-02</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="E37" s="64" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr"/>
-      <c r="E37" s="64" t="inlineStr"/>
       <c r="F37" s="64" t="inlineStr"/>
       <c r="G37" s="64" t="inlineStr"/>
       <c r="H37" s="64" t="inlineStr"/>
       <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="n"/>
-      <c r="K37" s="64" t="n"/>
+      <c r="J37" s="64" t="inlineStr"/>
+      <c r="K37" s="64" t="inlineStr"/>
+      <c r="L37" s="64" t="n"/>
+      <c r="M37" s="64" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="65" t="inlineStr">
@@ -2238,22 +2526,30 @@
       </c>
       <c r="B38" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C38" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D38" s="65" t="inlineStr">
+        <is>
           <t>Eth2-03</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="E38" s="65" t="inlineStr">
         <is>
           <t>2/3</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr"/>
-      <c r="E38" s="65" t="inlineStr"/>
       <c r="F38" s="65" t="inlineStr"/>
       <c r="G38" s="65" t="inlineStr"/>
       <c r="H38" s="65" t="inlineStr"/>
       <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="n"/>
-      <c r="K38" s="65" t="n"/>
+      <c r="J38" s="65" t="inlineStr"/>
+      <c r="K38" s="65" t="inlineStr"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="64" t="inlineStr">
@@ -2263,22 +2559,30 @@
       </c>
       <c r="B39" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D39" s="64" t="inlineStr">
+        <is>
           <t>Eth2-04</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="E39" s="64" t="inlineStr">
         <is>
           <t>2/4</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr"/>
-      <c r="E39" s="64" t="inlineStr"/>
       <c r="F39" s="64" t="inlineStr"/>
       <c r="G39" s="64" t="inlineStr"/>
       <c r="H39" s="64" t="inlineStr"/>
       <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="n"/>
-      <c r="K39" s="64" t="n"/>
+      <c r="J39" s="64" t="inlineStr"/>
+      <c r="K39" s="64" t="inlineStr"/>
+      <c r="L39" s="64" t="n"/>
+      <c r="M39" s="64" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="65" t="inlineStr">
@@ -2288,22 +2592,30 @@
       </c>
       <c r="B40" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C40" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D40" s="65" t="inlineStr">
+        <is>
           <t>Eth2-05</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="E40" s="65" t="inlineStr">
         <is>
           <t>2/5</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr"/>
-      <c r="E40" s="65" t="inlineStr"/>
       <c r="F40" s="65" t="inlineStr"/>
       <c r="G40" s="65" t="inlineStr"/>
       <c r="H40" s="65" t="inlineStr"/>
       <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="n"/>
-      <c r="K40" s="65" t="n"/>
+      <c r="J40" s="65" t="inlineStr"/>
+      <c r="K40" s="65" t="inlineStr"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="64" t="inlineStr">
@@ -2313,22 +2625,30 @@
       </c>
       <c r="B41" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C41" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D41" s="64" t="inlineStr">
+        <is>
           <t>Eth2-06</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="E41" s="64" t="inlineStr">
         <is>
           <t>2/6</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr"/>
-      <c r="E41" s="64" t="inlineStr"/>
       <c r="F41" s="64" t="inlineStr"/>
       <c r="G41" s="64" t="inlineStr"/>
       <c r="H41" s="64" t="inlineStr"/>
       <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="n"/>
-      <c r="K41" s="64" t="n"/>
+      <c r="J41" s="64" t="inlineStr"/>
+      <c r="K41" s="64" t="inlineStr"/>
+      <c r="L41" s="64" t="n"/>
+      <c r="M41" s="64" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="65" t="inlineStr">
@@ -2338,22 +2658,30 @@
       </c>
       <c r="B42" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C42" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D42" s="65" t="inlineStr">
+        <is>
           <t>Eth2-07</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>2/7</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr"/>
-      <c r="E42" s="65" t="inlineStr"/>
       <c r="F42" s="65" t="inlineStr"/>
       <c r="G42" s="65" t="inlineStr"/>
       <c r="H42" s="65" t="inlineStr"/>
       <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="n"/>
-      <c r="K42" s="65" t="n"/>
+      <c r="J42" s="65" t="inlineStr"/>
+      <c r="K42" s="65" t="inlineStr"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="inlineStr">
@@ -2363,22 +2691,30 @@
       </c>
       <c r="B43" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C43" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D43" s="64" t="inlineStr">
+        <is>
           <t>Eth2-08</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="E43" s="64" t="inlineStr">
         <is>
           <t>2/8</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr"/>
-      <c r="E43" s="64" t="inlineStr"/>
       <c r="F43" s="64" t="inlineStr"/>
       <c r="G43" s="64" t="inlineStr"/>
       <c r="H43" s="64" t="inlineStr"/>
       <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="n"/>
-      <c r="K43" s="64" t="n"/>
+      <c r="J43" s="64" t="inlineStr"/>
+      <c r="K43" s="64" t="inlineStr"/>
+      <c r="L43" s="64" t="n"/>
+      <c r="M43" s="64" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="65" t="inlineStr">
@@ -2388,22 +2724,30 @@
       </c>
       <c r="B44" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C44" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D44" s="65" t="inlineStr">
+        <is>
           <t>Eth2-09</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="E44" s="65" t="inlineStr">
         <is>
           <t>2/9</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr"/>
-      <c r="E44" s="65" t="inlineStr"/>
       <c r="F44" s="65" t="inlineStr"/>
       <c r="G44" s="65" t="inlineStr"/>
       <c r="H44" s="65" t="inlineStr"/>
       <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="n"/>
-      <c r="K44" s="65" t="n"/>
+      <c r="J44" s="65" t="inlineStr"/>
+      <c r="K44" s="65" t="inlineStr"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="64" t="inlineStr">
@@ -2413,22 +2757,30 @@
       </c>
       <c r="B45" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D45" s="64" t="inlineStr">
+        <is>
           <t>Eth2-10</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="E45" s="64" t="inlineStr">
         <is>
           <t>2/10</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr"/>
-      <c r="E45" s="64" t="inlineStr"/>
       <c r="F45" s="64" t="inlineStr"/>
       <c r="G45" s="64" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="n"/>
-      <c r="K45" s="64" t="n"/>
+      <c r="J45" s="64" t="inlineStr"/>
+      <c r="K45" s="64" t="inlineStr"/>
+      <c r="L45" s="64" t="n"/>
+      <c r="M45" s="64" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="65" t="inlineStr">
@@ -2438,22 +2790,30 @@
       </c>
       <c r="B46" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C46" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D46" s="65" t="inlineStr">
+        <is>
           <t>Eth2-11</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>2/11</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr"/>
-      <c r="E46" s="65" t="inlineStr"/>
       <c r="F46" s="65" t="inlineStr"/>
       <c r="G46" s="65" t="inlineStr"/>
       <c r="H46" s="65" t="inlineStr"/>
       <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="n"/>
-      <c r="K46" s="65" t="n"/>
+      <c r="J46" s="65" t="inlineStr"/>
+      <c r="K46" s="65" t="inlineStr"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="64" t="inlineStr">
@@ -2463,22 +2823,30 @@
       </c>
       <c r="B47" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C47" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D47" s="64" t="inlineStr">
+        <is>
           <t>Eth2-12</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="E47" s="64" t="inlineStr">
         <is>
           <t>2/12</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr"/>
-      <c r="E47" s="64" t="inlineStr"/>
       <c r="F47" s="64" t="inlineStr"/>
       <c r="G47" s="64" t="inlineStr"/>
       <c r="H47" s="64" t="inlineStr"/>
       <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="n"/>
-      <c r="K47" s="64" t="n"/>
+      <c r="J47" s="64" t="inlineStr"/>
+      <c r="K47" s="64" t="inlineStr"/>
+      <c r="L47" s="64" t="n"/>
+      <c r="M47" s="64" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="65" t="inlineStr">
@@ -2488,22 +2856,30 @@
       </c>
       <c r="B48" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C48" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D48" s="65" t="inlineStr">
+        <is>
           <t>Eth2-13</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>2/13</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr"/>
-      <c r="E48" s="65" t="inlineStr"/>
       <c r="F48" s="65" t="inlineStr"/>
       <c r="G48" s="65" t="inlineStr"/>
       <c r="H48" s="65" t="inlineStr"/>
       <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="n"/>
-      <c r="K48" s="65" t="n"/>
+      <c r="J48" s="65" t="inlineStr"/>
+      <c r="K48" s="65" t="inlineStr"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="64" t="inlineStr">
@@ -2513,22 +2889,30 @@
       </c>
       <c r="B49" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C49" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D49" s="64" t="inlineStr">
+        <is>
           <t>Eth2-14</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="E49" s="64" t="inlineStr">
         <is>
           <t>2/14</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr"/>
-      <c r="E49" s="64" t="inlineStr"/>
       <c r="F49" s="64" t="inlineStr"/>
       <c r="G49" s="64" t="inlineStr"/>
       <c r="H49" s="64" t="inlineStr"/>
       <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
+      <c r="J49" s="64" t="inlineStr"/>
+      <c r="K49" s="64" t="inlineStr"/>
+      <c r="L49" s="64" t="n"/>
+      <c r="M49" s="64" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="65" t="inlineStr">
@@ -2538,22 +2922,30 @@
       </c>
       <c r="B50" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C50" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D50" s="65" t="inlineStr">
+        <is>
           <t>Eth2-15</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>2/15</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr"/>
-      <c r="E50" s="65" t="inlineStr"/>
       <c r="F50" s="65" t="inlineStr"/>
       <c r="G50" s="65" t="inlineStr"/>
       <c r="H50" s="65" t="inlineStr"/>
       <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="n"/>
-      <c r="K50" s="65" t="n"/>
+      <c r="J50" s="65" t="inlineStr"/>
+      <c r="K50" s="65" t="inlineStr"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="64" t="inlineStr">
@@ -2563,22 +2955,30 @@
       </c>
       <c r="B51" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D51" s="64" t="inlineStr">
+        <is>
           <t>Eth2-16</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="E51" s="64" t="inlineStr">
         <is>
           <t>2/16</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr"/>
-      <c r="E51" s="64" t="inlineStr"/>
       <c r="F51" s="64" t="inlineStr"/>
       <c r="G51" s="64" t="inlineStr"/>
       <c r="H51" s="64" t="inlineStr"/>
       <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
+      <c r="J51" s="64" t="inlineStr"/>
+      <c r="K51" s="64" t="inlineStr"/>
+      <c r="L51" s="64" t="n"/>
+      <c r="M51" s="64" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="65" t="inlineStr">
@@ -2588,22 +2988,30 @@
       </c>
       <c r="B52" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C52" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D52" s="65" t="inlineStr">
+        <is>
           <t>Eth2-17</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="E52" s="65" t="inlineStr">
         <is>
           <t>2/17</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr"/>
-      <c r="E52" s="65" t="inlineStr"/>
       <c r="F52" s="65" t="inlineStr"/>
       <c r="G52" s="65" t="inlineStr"/>
       <c r="H52" s="65" t="inlineStr"/>
       <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="n"/>
-      <c r="K52" s="65" t="n"/>
+      <c r="J52" s="65" t="inlineStr"/>
+      <c r="K52" s="65" t="inlineStr"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="64" t="inlineStr">
@@ -2613,22 +3021,30 @@
       </c>
       <c r="B53" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D53" s="64" t="inlineStr">
+        <is>
           <t>Eth2-18</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="E53" s="64" t="inlineStr">
         <is>
           <t>2/18</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr"/>
-      <c r="E53" s="64" t="inlineStr"/>
       <c r="F53" s="64" t="inlineStr"/>
       <c r="G53" s="64" t="inlineStr"/>
       <c r="H53" s="64" t="inlineStr"/>
       <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="n"/>
-      <c r="K53" s="64" t="n"/>
+      <c r="J53" s="64" t="inlineStr"/>
+      <c r="K53" s="64" t="inlineStr"/>
+      <c r="L53" s="64" t="n"/>
+      <c r="M53" s="64" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="65" t="inlineStr">
@@ -2638,22 +3054,30 @@
       </c>
       <c r="B54" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C54" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D54" s="65" t="inlineStr">
+        <is>
           <t>Eth2-19</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="E54" s="65" t="inlineStr">
         <is>
           <t>2/19</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr"/>
-      <c r="E54" s="65" t="inlineStr"/>
       <c r="F54" s="65" t="inlineStr"/>
       <c r="G54" s="65" t="inlineStr"/>
       <c r="H54" s="65" t="inlineStr"/>
       <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="65" t="n"/>
+      <c r="J54" s="65" t="inlineStr"/>
+      <c r="K54" s="65" t="inlineStr"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="64" t="inlineStr">
@@ -2663,22 +3087,30 @@
       </c>
       <c r="B55" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C55" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D55" s="64" t="inlineStr">
+        <is>
           <t>Eth2-20</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="E55" s="64" t="inlineStr">
         <is>
           <t>2/20</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr"/>
-      <c r="E55" s="64" t="inlineStr"/>
       <c r="F55" s="64" t="inlineStr"/>
       <c r="G55" s="64" t="inlineStr"/>
       <c r="H55" s="64" t="inlineStr"/>
       <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="n"/>
-      <c r="K55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr"/>
+      <c r="K55" s="64" t="inlineStr"/>
+      <c r="L55" s="64" t="n"/>
+      <c r="M55" s="64" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="65" t="inlineStr">
@@ -2688,22 +3120,30 @@
       </c>
       <c r="B56" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C56" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D56" s="65" t="inlineStr">
+        <is>
           <t>Eth2-21</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="E56" s="65" t="inlineStr">
         <is>
           <t>2/21</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr"/>
-      <c r="E56" s="65" t="inlineStr"/>
       <c r="F56" s="65" t="inlineStr"/>
       <c r="G56" s="65" t="inlineStr"/>
       <c r="H56" s="65" t="inlineStr"/>
       <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="n"/>
-      <c r="K56" s="65" t="n"/>
+      <c r="J56" s="65" t="inlineStr"/>
+      <c r="K56" s="65" t="inlineStr"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="64" t="inlineStr">
@@ -2713,22 +3153,30 @@
       </c>
       <c r="B57" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D57" s="64" t="inlineStr">
+        <is>
           <t>Eth2-22</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="E57" s="64" t="inlineStr">
         <is>
           <t>2/22</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr"/>
-      <c r="E57" s="64" t="inlineStr"/>
       <c r="F57" s="64" t="inlineStr"/>
       <c r="G57" s="64" t="inlineStr"/>
       <c r="H57" s="64" t="inlineStr"/>
       <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="n"/>
-      <c r="K57" s="64" t="n"/>
+      <c r="J57" s="64" t="inlineStr"/>
+      <c r="K57" s="64" t="inlineStr"/>
+      <c r="L57" s="64" t="n"/>
+      <c r="M57" s="64" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="65" t="inlineStr">
@@ -2738,22 +3186,30 @@
       </c>
       <c r="B58" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C58" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D58" s="65" t="inlineStr">
+        <is>
           <t>Eth2-23</t>
         </is>
       </c>
-      <c r="C58" s="65" t="inlineStr">
+      <c r="E58" s="65" t="inlineStr">
         <is>
           <t>2/23</t>
         </is>
       </c>
-      <c r="D58" s="65" t="inlineStr"/>
-      <c r="E58" s="65" t="inlineStr"/>
       <c r="F58" s="65" t="inlineStr"/>
       <c r="G58" s="65" t="inlineStr"/>
       <c r="H58" s="65" t="inlineStr"/>
       <c r="I58" s="65" t="inlineStr"/>
-      <c r="J58" s="65" t="n"/>
-      <c r="K58" s="65" t="n"/>
+      <c r="J58" s="65" t="inlineStr"/>
+      <c r="K58" s="65" t="inlineStr"/>
+      <c r="L58" s="65" t="n"/>
+      <c r="M58" s="65" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="64" t="inlineStr">
@@ -2763,22 +3219,30 @@
       </c>
       <c r="B59" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C59" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D59" s="64" t="inlineStr">
+        <is>
           <t>Eth2-24</t>
         </is>
       </c>
-      <c r="C59" s="64" t="inlineStr">
+      <c r="E59" s="64" t="inlineStr">
         <is>
           <t>2/24</t>
         </is>
       </c>
-      <c r="D59" s="64" t="inlineStr"/>
-      <c r="E59" s="64" t="inlineStr"/>
       <c r="F59" s="64" t="inlineStr"/>
       <c r="G59" s="64" t="inlineStr"/>
       <c r="H59" s="64" t="inlineStr"/>
       <c r="I59" s="64" t="inlineStr"/>
-      <c r="J59" s="64" t="n"/>
-      <c r="K59" s="64" t="n"/>
+      <c r="J59" s="64" t="inlineStr"/>
+      <c r="K59" s="64" t="inlineStr"/>
+      <c r="L59" s="64" t="n"/>
+      <c r="M59" s="64" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="65" t="inlineStr">
@@ -2788,22 +3252,30 @@
       </c>
       <c r="B60" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C60" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D60" s="65" t="inlineStr">
+        <is>
           <t>Eth2-25</t>
         </is>
       </c>
-      <c r="C60" s="65" t="inlineStr">
+      <c r="E60" s="65" t="inlineStr">
         <is>
           <t>2/25</t>
         </is>
       </c>
-      <c r="D60" s="65" t="inlineStr"/>
-      <c r="E60" s="65" t="inlineStr"/>
       <c r="F60" s="65" t="inlineStr"/>
       <c r="G60" s="65" t="inlineStr"/>
       <c r="H60" s="65" t="inlineStr"/>
       <c r="I60" s="65" t="inlineStr"/>
-      <c r="J60" s="65" t="n"/>
-      <c r="K60" s="65" t="n"/>
+      <c r="J60" s="65" t="inlineStr"/>
+      <c r="K60" s="65" t="inlineStr"/>
+      <c r="L60" s="65" t="n"/>
+      <c r="M60" s="65" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="64" t="inlineStr">
@@ -2813,22 +3285,30 @@
       </c>
       <c r="B61" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C61" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D61" s="64" t="inlineStr">
+        <is>
           <t>Eth2-26</t>
         </is>
       </c>
-      <c r="C61" s="64" t="inlineStr">
+      <c r="E61" s="64" t="inlineStr">
         <is>
           <t>2/26</t>
         </is>
       </c>
-      <c r="D61" s="64" t="inlineStr"/>
-      <c r="E61" s="64" t="inlineStr"/>
       <c r="F61" s="64" t="inlineStr"/>
       <c r="G61" s="64" t="inlineStr"/>
       <c r="H61" s="64" t="inlineStr"/>
       <c r="I61" s="64" t="inlineStr"/>
-      <c r="J61" s="64" t="n"/>
-      <c r="K61" s="64" t="n"/>
+      <c r="J61" s="64" t="inlineStr"/>
+      <c r="K61" s="64" t="inlineStr"/>
+      <c r="L61" s="64" t="n"/>
+      <c r="M61" s="64" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="65" t="inlineStr">
@@ -2838,22 +3318,30 @@
       </c>
       <c r="B62" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C62" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D62" s="65" t="inlineStr">
+        <is>
           <t>Eth2-27</t>
         </is>
       </c>
-      <c r="C62" s="65" t="inlineStr">
+      <c r="E62" s="65" t="inlineStr">
         <is>
           <t>2/27</t>
         </is>
       </c>
-      <c r="D62" s="65" t="inlineStr"/>
-      <c r="E62" s="65" t="inlineStr"/>
       <c r="F62" s="65" t="inlineStr"/>
       <c r="G62" s="65" t="inlineStr"/>
       <c r="H62" s="65" t="inlineStr"/>
       <c r="I62" s="65" t="inlineStr"/>
-      <c r="J62" s="65" t="n"/>
-      <c r="K62" s="65" t="n"/>
+      <c r="J62" s="65" t="inlineStr"/>
+      <c r="K62" s="65" t="inlineStr"/>
+      <c r="L62" s="65" t="n"/>
+      <c r="M62" s="65" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="64" t="inlineStr">
@@ -2863,22 +3351,30 @@
       </c>
       <c r="B63" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C63" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D63" s="64" t="inlineStr">
+        <is>
           <t>Eth2-28</t>
         </is>
       </c>
-      <c r="C63" s="64" t="inlineStr">
+      <c r="E63" s="64" t="inlineStr">
         <is>
           <t>2/28</t>
         </is>
       </c>
-      <c r="D63" s="64" t="inlineStr"/>
-      <c r="E63" s="64" t="inlineStr"/>
       <c r="F63" s="64" t="inlineStr"/>
       <c r="G63" s="64" t="inlineStr"/>
       <c r="H63" s="64" t="inlineStr"/>
       <c r="I63" s="64" t="inlineStr"/>
-      <c r="J63" s="64" t="n"/>
-      <c r="K63" s="64" t="n"/>
+      <c r="J63" s="64" t="inlineStr"/>
+      <c r="K63" s="64" t="inlineStr"/>
+      <c r="L63" s="64" t="n"/>
+      <c r="M63" s="64" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="65" t="inlineStr">
@@ -2888,22 +3384,30 @@
       </c>
       <c r="B64" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C64" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D64" s="65" t="inlineStr">
+        <is>
           <t>Eth2-29</t>
         </is>
       </c>
-      <c r="C64" s="65" t="inlineStr">
+      <c r="E64" s="65" t="inlineStr">
         <is>
           <t>2/29</t>
         </is>
       </c>
-      <c r="D64" s="65" t="inlineStr"/>
-      <c r="E64" s="65" t="inlineStr"/>
       <c r="F64" s="65" t="inlineStr"/>
       <c r="G64" s="65" t="inlineStr"/>
       <c r="H64" s="65" t="inlineStr"/>
       <c r="I64" s="65" t="inlineStr"/>
-      <c r="J64" s="65" t="n"/>
-      <c r="K64" s="65" t="n"/>
+      <c r="J64" s="65" t="inlineStr"/>
+      <c r="K64" s="65" t="inlineStr"/>
+      <c r="L64" s="65" t="n"/>
+      <c r="M64" s="65" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="64" t="inlineStr">
@@ -2913,22 +3417,30 @@
       </c>
       <c r="B65" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C65" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D65" s="64" t="inlineStr">
+        <is>
           <t>Eth2-30</t>
         </is>
       </c>
-      <c r="C65" s="64" t="inlineStr">
+      <c r="E65" s="64" t="inlineStr">
         <is>
           <t>2/30</t>
         </is>
       </c>
-      <c r="D65" s="64" t="inlineStr"/>
-      <c r="E65" s="64" t="inlineStr"/>
       <c r="F65" s="64" t="inlineStr"/>
       <c r="G65" s="64" t="inlineStr"/>
       <c r="H65" s="64" t="inlineStr"/>
       <c r="I65" s="64" t="inlineStr"/>
-      <c r="J65" s="64" t="n"/>
-      <c r="K65" s="64" t="n"/>
+      <c r="J65" s="64" t="inlineStr"/>
+      <c r="K65" s="64" t="inlineStr"/>
+      <c r="L65" s="64" t="n"/>
+      <c r="M65" s="64" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="65" t="inlineStr">
@@ -2938,22 +3450,30 @@
       </c>
       <c r="B66" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C66" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D66" s="65" t="inlineStr">
+        <is>
           <t>Eth2-31</t>
         </is>
       </c>
-      <c r="C66" s="65" t="inlineStr">
+      <c r="E66" s="65" t="inlineStr">
         <is>
           <t>2/31</t>
         </is>
       </c>
-      <c r="D66" s="65" t="inlineStr"/>
-      <c r="E66" s="65" t="inlineStr"/>
       <c r="F66" s="65" t="inlineStr"/>
       <c r="G66" s="65" t="inlineStr"/>
       <c r="H66" s="65" t="inlineStr"/>
       <c r="I66" s="65" t="inlineStr"/>
-      <c r="J66" s="65" t="n"/>
-      <c r="K66" s="65" t="n"/>
+      <c r="J66" s="65" t="inlineStr"/>
+      <c r="K66" s="65" t="inlineStr"/>
+      <c r="L66" s="65" t="n"/>
+      <c r="M66" s="65" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="64" t="inlineStr">
@@ -2963,22 +3483,30 @@
       </c>
       <c r="B67" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C67" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D67" s="64" t="inlineStr">
+        <is>
           <t>Eth2-32</t>
         </is>
       </c>
-      <c r="C67" s="64" t="inlineStr">
+      <c r="E67" s="64" t="inlineStr">
         <is>
           <t>2/32</t>
         </is>
       </c>
-      <c r="D67" s="64" t="inlineStr"/>
-      <c r="E67" s="64" t="inlineStr"/>
       <c r="F67" s="64" t="inlineStr"/>
       <c r="G67" s="64" t="inlineStr"/>
       <c r="H67" s="64" t="inlineStr"/>
       <c r="I67" s="64" t="inlineStr"/>
-      <c r="J67" s="64" t="n"/>
-      <c r="K67" s="64" t="n"/>
+      <c r="J67" s="64" t="inlineStr"/>
+      <c r="K67" s="64" t="inlineStr"/>
+      <c r="L67" s="64" t="n"/>
+      <c r="M67" s="64" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="65" t="inlineStr">
@@ -2988,22 +3516,30 @@
       </c>
       <c r="B68" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C68" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D68" s="65" t="inlineStr">
+        <is>
           <t>Eth2-33</t>
         </is>
       </c>
-      <c r="C68" s="65" t="inlineStr">
+      <c r="E68" s="65" t="inlineStr">
         <is>
           <t>2/33</t>
         </is>
       </c>
-      <c r="D68" s="65" t="inlineStr"/>
-      <c r="E68" s="65" t="inlineStr"/>
       <c r="F68" s="65" t="inlineStr"/>
       <c r="G68" s="65" t="inlineStr"/>
       <c r="H68" s="65" t="inlineStr"/>
       <c r="I68" s="65" t="inlineStr"/>
-      <c r="J68" s="65" t="n"/>
-      <c r="K68" s="65" t="n"/>
+      <c r="J68" s="65" t="inlineStr"/>
+      <c r="K68" s="65" t="inlineStr"/>
+      <c r="L68" s="65" t="n"/>
+      <c r="M68" s="65" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="64" t="inlineStr">
@@ -3013,22 +3549,30 @@
       </c>
       <c r="B69" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C69" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D69" s="64" t="inlineStr">
+        <is>
           <t>Eth2-34</t>
         </is>
       </c>
-      <c r="C69" s="64" t="inlineStr">
+      <c r="E69" s="64" t="inlineStr">
         <is>
           <t>2/34</t>
         </is>
       </c>
-      <c r="D69" s="64" t="inlineStr"/>
-      <c r="E69" s="64" t="inlineStr"/>
       <c r="F69" s="64" t="inlineStr"/>
       <c r="G69" s="64" t="inlineStr"/>
       <c r="H69" s="64" t="inlineStr"/>
       <c r="I69" s="64" t="inlineStr"/>
-      <c r="J69" s="64" t="n"/>
-      <c r="K69" s="64" t="n"/>
+      <c r="J69" s="64" t="inlineStr"/>
+      <c r="K69" s="64" t="inlineStr"/>
+      <c r="L69" s="64" t="n"/>
+      <c r="M69" s="64" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="65" t="inlineStr">
@@ -3038,22 +3582,30 @@
       </c>
       <c r="B70" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C70" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D70" s="65" t="inlineStr">
+        <is>
           <t>Eth2-35</t>
         </is>
       </c>
-      <c r="C70" s="65" t="inlineStr">
+      <c r="E70" s="65" t="inlineStr">
         <is>
           <t>2/35</t>
         </is>
       </c>
-      <c r="D70" s="65" t="inlineStr"/>
-      <c r="E70" s="65" t="inlineStr"/>
       <c r="F70" s="65" t="inlineStr"/>
       <c r="G70" s="65" t="inlineStr"/>
       <c r="H70" s="65" t="inlineStr"/>
       <c r="I70" s="65" t="inlineStr"/>
-      <c r="J70" s="65" t="n"/>
-      <c r="K70" s="65" t="n"/>
+      <c r="J70" s="65" t="inlineStr"/>
+      <c r="K70" s="65" t="inlineStr"/>
+      <c r="L70" s="65" t="n"/>
+      <c r="M70" s="65" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="64" t="inlineStr">
@@ -3063,22 +3615,30 @@
       </c>
       <c r="B71" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C71" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D71" s="64" t="inlineStr">
+        <is>
           <t>Eth2-36</t>
         </is>
       </c>
-      <c r="C71" s="64" t="inlineStr">
+      <c r="E71" s="64" t="inlineStr">
         <is>
           <t>2/36</t>
         </is>
       </c>
-      <c r="D71" s="64" t="inlineStr"/>
-      <c r="E71" s="64" t="inlineStr"/>
       <c r="F71" s="64" t="inlineStr"/>
       <c r="G71" s="64" t="inlineStr"/>
       <c r="H71" s="64" t="inlineStr"/>
       <c r="I71" s="64" t="inlineStr"/>
-      <c r="J71" s="64" t="n"/>
-      <c r="K71" s="64" t="n"/>
+      <c r="J71" s="64" t="inlineStr"/>
+      <c r="K71" s="64" t="inlineStr"/>
+      <c r="L71" s="64" t="n"/>
+      <c r="M71" s="64" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="65" t="inlineStr">
@@ -3088,22 +3648,30 @@
       </c>
       <c r="B72" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C72" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D72" s="65" t="inlineStr">
+        <is>
           <t>Eth7-01</t>
         </is>
       </c>
-      <c r="C72" s="65" t="inlineStr">
+      <c r="E72" s="65" t="inlineStr">
         <is>
           <t>7/1</t>
         </is>
       </c>
-      <c r="D72" s="65" t="inlineStr"/>
-      <c r="E72" s="65" t="inlineStr"/>
       <c r="F72" s="65" t="inlineStr"/>
       <c r="G72" s="65" t="inlineStr"/>
       <c r="H72" s="65" t="inlineStr"/>
       <c r="I72" s="65" t="inlineStr"/>
-      <c r="J72" s="65" t="n"/>
-      <c r="K72" s="65" t="n"/>
+      <c r="J72" s="65" t="inlineStr"/>
+      <c r="K72" s="65" t="inlineStr"/>
+      <c r="L72" s="65" t="n"/>
+      <c r="M72" s="65" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="64" t="inlineStr">
@@ -3113,22 +3681,30 @@
       </c>
       <c r="B73" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C73" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D73" s="64" t="inlineStr">
+        <is>
           <t>Eth7-02</t>
         </is>
       </c>
-      <c r="C73" s="64" t="inlineStr">
+      <c r="E73" s="64" t="inlineStr">
         <is>
           <t>7/2</t>
         </is>
       </c>
-      <c r="D73" s="64" t="inlineStr"/>
-      <c r="E73" s="64" t="inlineStr"/>
       <c r="F73" s="64" t="inlineStr"/>
       <c r="G73" s="64" t="inlineStr"/>
       <c r="H73" s="64" t="inlineStr"/>
       <c r="I73" s="64" t="inlineStr"/>
-      <c r="J73" s="64" t="n"/>
-      <c r="K73" s="64" t="n"/>
+      <c r="J73" s="64" t="inlineStr"/>
+      <c r="K73" s="64" t="inlineStr"/>
+      <c r="L73" s="64" t="n"/>
+      <c r="M73" s="64" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="65" t="inlineStr">
@@ -3138,22 +3714,30 @@
       </c>
       <c r="B74" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C74" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D74" s="65" t="inlineStr">
+        <is>
           <t>Eth7-03</t>
         </is>
       </c>
-      <c r="C74" s="65" t="inlineStr">
+      <c r="E74" s="65" t="inlineStr">
         <is>
           <t>7/3</t>
         </is>
       </c>
-      <c r="D74" s="65" t="inlineStr"/>
-      <c r="E74" s="65" t="inlineStr"/>
       <c r="F74" s="65" t="inlineStr"/>
       <c r="G74" s="65" t="inlineStr"/>
       <c r="H74" s="65" t="inlineStr"/>
       <c r="I74" s="65" t="inlineStr"/>
-      <c r="J74" s="65" t="n"/>
-      <c r="K74" s="65" t="n"/>
+      <c r="J74" s="65" t="inlineStr"/>
+      <c r="K74" s="65" t="inlineStr"/>
+      <c r="L74" s="65" t="n"/>
+      <c r="M74" s="65" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="64" t="inlineStr">
@@ -3163,22 +3747,30 @@
       </c>
       <c r="B75" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C75" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D75" s="64" t="inlineStr">
+        <is>
           <t>Eth7-04</t>
         </is>
       </c>
-      <c r="C75" s="64" t="inlineStr">
+      <c r="E75" s="64" t="inlineStr">
         <is>
           <t>7/4</t>
         </is>
       </c>
-      <c r="D75" s="64" t="inlineStr"/>
-      <c r="E75" s="64" t="inlineStr"/>
       <c r="F75" s="64" t="inlineStr"/>
       <c r="G75" s="64" t="inlineStr"/>
       <c r="H75" s="64" t="inlineStr"/>
       <c r="I75" s="64" t="inlineStr"/>
-      <c r="J75" s="64" t="n"/>
-      <c r="K75" s="64" t="n"/>
+      <c r="J75" s="64" t="inlineStr"/>
+      <c r="K75" s="64" t="inlineStr"/>
+      <c r="L75" s="64" t="n"/>
+      <c r="M75" s="64" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="65" t="inlineStr">
@@ -3188,22 +3780,30 @@
       </c>
       <c r="B76" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C76" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D76" s="65" t="inlineStr">
+        <is>
           <t>Eth7-05</t>
         </is>
       </c>
-      <c r="C76" s="65" t="inlineStr">
+      <c r="E76" s="65" t="inlineStr">
         <is>
           <t>7/5</t>
         </is>
       </c>
-      <c r="D76" s="65" t="inlineStr"/>
-      <c r="E76" s="65" t="inlineStr"/>
       <c r="F76" s="65" t="inlineStr"/>
       <c r="G76" s="65" t="inlineStr"/>
       <c r="H76" s="65" t="inlineStr"/>
       <c r="I76" s="65" t="inlineStr"/>
-      <c r="J76" s="65" t="n"/>
-      <c r="K76" s="65" t="n"/>
+      <c r="J76" s="65" t="inlineStr"/>
+      <c r="K76" s="65" t="inlineStr"/>
+      <c r="L76" s="65" t="n"/>
+      <c r="M76" s="65" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="64" t="inlineStr">
@@ -3213,22 +3813,30 @@
       </c>
       <c r="B77" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C77" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D77" s="64" t="inlineStr">
+        <is>
           <t>Eth7-06</t>
         </is>
       </c>
-      <c r="C77" s="64" t="inlineStr">
+      <c r="E77" s="64" t="inlineStr">
         <is>
           <t>7/6</t>
         </is>
       </c>
-      <c r="D77" s="64" t="inlineStr"/>
-      <c r="E77" s="64" t="inlineStr"/>
       <c r="F77" s="64" t="inlineStr"/>
       <c r="G77" s="64" t="inlineStr"/>
       <c r="H77" s="64" t="inlineStr"/>
       <c r="I77" s="64" t="inlineStr"/>
-      <c r="J77" s="64" t="n"/>
-      <c r="K77" s="64" t="n"/>
+      <c r="J77" s="64" t="inlineStr"/>
+      <c r="K77" s="64" t="inlineStr"/>
+      <c r="L77" s="64" t="n"/>
+      <c r="M77" s="64" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="65" t="inlineStr">
@@ -3238,22 +3846,30 @@
       </c>
       <c r="B78" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C78" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D78" s="65" t="inlineStr">
+        <is>
           <t>Eth7-07</t>
         </is>
       </c>
-      <c r="C78" s="65" t="inlineStr">
+      <c r="E78" s="65" t="inlineStr">
         <is>
           <t>7/7</t>
         </is>
       </c>
-      <c r="D78" s="65" t="inlineStr"/>
-      <c r="E78" s="65" t="inlineStr"/>
       <c r="F78" s="65" t="inlineStr"/>
       <c r="G78" s="65" t="inlineStr"/>
       <c r="H78" s="65" t="inlineStr"/>
       <c r="I78" s="65" t="inlineStr"/>
-      <c r="J78" s="65" t="n"/>
-      <c r="K78" s="65" t="n"/>
+      <c r="J78" s="65" t="inlineStr"/>
+      <c r="K78" s="65" t="inlineStr"/>
+      <c r="L78" s="65" t="n"/>
+      <c r="M78" s="65" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="64" t="inlineStr">
@@ -3263,22 +3879,30 @@
       </c>
       <c r="B79" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C79" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D79" s="64" t="inlineStr">
+        <is>
           <t>Eth7-08</t>
         </is>
       </c>
-      <c r="C79" s="64" t="inlineStr">
+      <c r="E79" s="64" t="inlineStr">
         <is>
           <t>7/8</t>
         </is>
       </c>
-      <c r="D79" s="64" t="inlineStr"/>
-      <c r="E79" s="64" t="inlineStr"/>
       <c r="F79" s="64" t="inlineStr"/>
       <c r="G79" s="64" t="inlineStr"/>
       <c r="H79" s="64" t="inlineStr"/>
       <c r="I79" s="64" t="inlineStr"/>
-      <c r="J79" s="64" t="n"/>
-      <c r="K79" s="64" t="n"/>
+      <c r="J79" s="64" t="inlineStr"/>
+      <c r="K79" s="64" t="inlineStr"/>
+      <c r="L79" s="64" t="n"/>
+      <c r="M79" s="64" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="65" t="inlineStr">
@@ -3288,22 +3912,30 @@
       </c>
       <c r="B80" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C80" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D80" s="65" t="inlineStr">
+        <is>
           <t>Eth7-09</t>
         </is>
       </c>
-      <c r="C80" s="65" t="inlineStr">
+      <c r="E80" s="65" t="inlineStr">
         <is>
           <t>7/9</t>
         </is>
       </c>
-      <c r="D80" s="65" t="inlineStr"/>
-      <c r="E80" s="65" t="inlineStr"/>
       <c r="F80" s="65" t="inlineStr"/>
       <c r="G80" s="65" t="inlineStr"/>
       <c r="H80" s="65" t="inlineStr"/>
       <c r="I80" s="65" t="inlineStr"/>
-      <c r="J80" s="65" t="n"/>
-      <c r="K80" s="65" t="n"/>
+      <c r="J80" s="65" t="inlineStr"/>
+      <c r="K80" s="65" t="inlineStr"/>
+      <c r="L80" s="65" t="n"/>
+      <c r="M80" s="65" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="64" t="inlineStr">
@@ -3313,22 +3945,30 @@
       </c>
       <c r="B81" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C81" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D81" s="64" t="inlineStr">
+        <is>
           <t>Eth7-10</t>
         </is>
       </c>
-      <c r="C81" s="64" t="inlineStr">
+      <c r="E81" s="64" t="inlineStr">
         <is>
           <t>7/10</t>
         </is>
       </c>
-      <c r="D81" s="64" t="inlineStr"/>
-      <c r="E81" s="64" t="inlineStr"/>
       <c r="F81" s="64" t="inlineStr"/>
       <c r="G81" s="64" t="inlineStr"/>
       <c r="H81" s="64" t="inlineStr"/>
       <c r="I81" s="64" t="inlineStr"/>
-      <c r="J81" s="64" t="n"/>
-      <c r="K81" s="64" t="n"/>
+      <c r="J81" s="64" t="inlineStr"/>
+      <c r="K81" s="64" t="inlineStr"/>
+      <c r="L81" s="64" t="n"/>
+      <c r="M81" s="64" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="65" t="inlineStr">
@@ -3338,22 +3978,30 @@
       </c>
       <c r="B82" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C82" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D82" s="65" t="inlineStr">
+        <is>
           <t>Eth7-11</t>
         </is>
       </c>
-      <c r="C82" s="65" t="inlineStr">
+      <c r="E82" s="65" t="inlineStr">
         <is>
           <t>7/11</t>
         </is>
       </c>
-      <c r="D82" s="65" t="inlineStr"/>
-      <c r="E82" s="65" t="inlineStr"/>
       <c r="F82" s="65" t="inlineStr"/>
       <c r="G82" s="65" t="inlineStr"/>
       <c r="H82" s="65" t="inlineStr"/>
       <c r="I82" s="65" t="inlineStr"/>
-      <c r="J82" s="65" t="n"/>
-      <c r="K82" s="65" t="n"/>
+      <c r="J82" s="65" t="inlineStr"/>
+      <c r="K82" s="65" t="inlineStr"/>
+      <c r="L82" s="65" t="n"/>
+      <c r="M82" s="65" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="64" t="inlineStr">
@@ -3363,22 +4011,30 @@
       </c>
       <c r="B83" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C83" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D83" s="64" t="inlineStr">
+        <is>
           <t>Eth7-12</t>
         </is>
       </c>
-      <c r="C83" s="64" t="inlineStr">
+      <c r="E83" s="64" t="inlineStr">
         <is>
           <t>7/12</t>
         </is>
       </c>
-      <c r="D83" s="64" t="inlineStr"/>
-      <c r="E83" s="64" t="inlineStr"/>
       <c r="F83" s="64" t="inlineStr"/>
       <c r="G83" s="64" t="inlineStr"/>
       <c r="H83" s="64" t="inlineStr"/>
       <c r="I83" s="64" t="inlineStr"/>
-      <c r="J83" s="64" t="n"/>
-      <c r="K83" s="64" t="n"/>
+      <c r="J83" s="64" t="inlineStr"/>
+      <c r="K83" s="64" t="inlineStr"/>
+      <c r="L83" s="64" t="n"/>
+      <c r="M83" s="64" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="65" t="inlineStr">
@@ -3388,22 +4044,30 @@
       </c>
       <c r="B84" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C84" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D84" s="65" t="inlineStr">
+        <is>
           <t>Eth7-13</t>
         </is>
       </c>
-      <c r="C84" s="65" t="inlineStr">
+      <c r="E84" s="65" t="inlineStr">
         <is>
           <t>7/13</t>
         </is>
       </c>
-      <c r="D84" s="65" t="inlineStr"/>
-      <c r="E84" s="65" t="inlineStr"/>
       <c r="F84" s="65" t="inlineStr"/>
       <c r="G84" s="65" t="inlineStr"/>
       <c r="H84" s="65" t="inlineStr"/>
       <c r="I84" s="65" t="inlineStr"/>
-      <c r="J84" s="65" t="n"/>
-      <c r="K84" s="65" t="n"/>
+      <c r="J84" s="65" t="inlineStr"/>
+      <c r="K84" s="65" t="inlineStr"/>
+      <c r="L84" s="65" t="n"/>
+      <c r="M84" s="65" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="64" t="inlineStr">
@@ -3413,22 +4077,30 @@
       </c>
       <c r="B85" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C85" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D85" s="64" t="inlineStr">
+        <is>
           <t>Eth7-14</t>
         </is>
       </c>
-      <c r="C85" s="64" t="inlineStr">
+      <c r="E85" s="64" t="inlineStr">
         <is>
           <t>7/14</t>
         </is>
       </c>
-      <c r="D85" s="64" t="inlineStr"/>
-      <c r="E85" s="64" t="inlineStr"/>
       <c r="F85" s="64" t="inlineStr"/>
       <c r="G85" s="64" t="inlineStr"/>
       <c r="H85" s="64" t="inlineStr"/>
       <c r="I85" s="64" t="inlineStr"/>
-      <c r="J85" s="64" t="n"/>
-      <c r="K85" s="64" t="n"/>
+      <c r="J85" s="64" t="inlineStr"/>
+      <c r="K85" s="64" t="inlineStr"/>
+      <c r="L85" s="64" t="n"/>
+      <c r="M85" s="64" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="65" t="inlineStr">
@@ -3438,22 +4110,30 @@
       </c>
       <c r="B86" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C86" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D86" s="65" t="inlineStr">
+        <is>
           <t>Eth7-15</t>
         </is>
       </c>
-      <c r="C86" s="65" t="inlineStr">
+      <c r="E86" s="65" t="inlineStr">
         <is>
           <t>7/15</t>
         </is>
       </c>
-      <c r="D86" s="65" t="inlineStr"/>
-      <c r="E86" s="65" t="inlineStr"/>
       <c r="F86" s="65" t="inlineStr"/>
       <c r="G86" s="65" t="inlineStr"/>
       <c r="H86" s="65" t="inlineStr"/>
       <c r="I86" s="65" t="inlineStr"/>
-      <c r="J86" s="65" t="n"/>
-      <c r="K86" s="65" t="n"/>
+      <c r="J86" s="65" t="inlineStr"/>
+      <c r="K86" s="65" t="inlineStr"/>
+      <c r="L86" s="65" t="n"/>
+      <c r="M86" s="65" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="64" t="inlineStr">
@@ -3463,22 +4143,30 @@
       </c>
       <c r="B87" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C87" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D87" s="64" t="inlineStr">
+        <is>
           <t>Eth7-16</t>
         </is>
       </c>
-      <c r="C87" s="64" t="inlineStr">
+      <c r="E87" s="64" t="inlineStr">
         <is>
           <t>7/16</t>
         </is>
       </c>
-      <c r="D87" s="64" t="inlineStr"/>
-      <c r="E87" s="64" t="inlineStr"/>
       <c r="F87" s="64" t="inlineStr"/>
       <c r="G87" s="64" t="inlineStr"/>
       <c r="H87" s="64" t="inlineStr"/>
       <c r="I87" s="64" t="inlineStr"/>
-      <c r="J87" s="64" t="n"/>
-      <c r="K87" s="64" t="n"/>
+      <c r="J87" s="64" t="inlineStr"/>
+      <c r="K87" s="64" t="inlineStr"/>
+      <c r="L87" s="64" t="n"/>
+      <c r="M87" s="64" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="65" t="inlineStr">
@@ -3488,22 +4176,30 @@
       </c>
       <c r="B88" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C88" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D88" s="65" t="inlineStr">
+        <is>
           <t>Eth7-17</t>
         </is>
       </c>
-      <c r="C88" s="65" t="inlineStr">
+      <c r="E88" s="65" t="inlineStr">
         <is>
           <t>7/17</t>
         </is>
       </c>
-      <c r="D88" s="65" t="inlineStr"/>
-      <c r="E88" s="65" t="inlineStr"/>
       <c r="F88" s="65" t="inlineStr"/>
       <c r="G88" s="65" t="inlineStr"/>
       <c r="H88" s="65" t="inlineStr"/>
       <c r="I88" s="65" t="inlineStr"/>
-      <c r="J88" s="65" t="n"/>
-      <c r="K88" s="65" t="n"/>
+      <c r="J88" s="65" t="inlineStr"/>
+      <c r="K88" s="65" t="inlineStr"/>
+      <c r="L88" s="65" t="n"/>
+      <c r="M88" s="65" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="64" t="inlineStr">
@@ -3513,22 +4209,30 @@
       </c>
       <c r="B89" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C89" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D89" s="64" t="inlineStr">
+        <is>
           <t>Eth7-18</t>
         </is>
       </c>
-      <c r="C89" s="64" t="inlineStr">
+      <c r="E89" s="64" t="inlineStr">
         <is>
           <t>7/18</t>
         </is>
       </c>
-      <c r="D89" s="64" t="inlineStr"/>
-      <c r="E89" s="64" t="inlineStr"/>
       <c r="F89" s="64" t="inlineStr"/>
       <c r="G89" s="64" t="inlineStr"/>
       <c r="H89" s="64" t="inlineStr"/>
       <c r="I89" s="64" t="inlineStr"/>
-      <c r="J89" s="64" t="n"/>
-      <c r="K89" s="64" t="n"/>
+      <c r="J89" s="64" t="inlineStr"/>
+      <c r="K89" s="64" t="inlineStr"/>
+      <c r="L89" s="64" t="n"/>
+      <c r="M89" s="64" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="65" t="inlineStr">
@@ -3538,22 +4242,30 @@
       </c>
       <c r="B90" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C90" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D90" s="65" t="inlineStr">
+        <is>
           <t>Eth7-19</t>
         </is>
       </c>
-      <c r="C90" s="65" t="inlineStr">
+      <c r="E90" s="65" t="inlineStr">
         <is>
           <t>7/19</t>
         </is>
       </c>
-      <c r="D90" s="65" t="inlineStr"/>
-      <c r="E90" s="65" t="inlineStr"/>
       <c r="F90" s="65" t="inlineStr"/>
       <c r="G90" s="65" t="inlineStr"/>
       <c r="H90" s="65" t="inlineStr"/>
       <c r="I90" s="65" t="inlineStr"/>
-      <c r="J90" s="65" t="n"/>
-      <c r="K90" s="65" t="n"/>
+      <c r="J90" s="65" t="inlineStr"/>
+      <c r="K90" s="65" t="inlineStr"/>
+      <c r="L90" s="65" t="n"/>
+      <c r="M90" s="65" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="64" t="inlineStr">
@@ -3563,22 +4275,30 @@
       </c>
       <c r="B91" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C91" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D91" s="64" t="inlineStr">
+        <is>
           <t>Eth7-20</t>
         </is>
       </c>
-      <c r="C91" s="64" t="inlineStr">
+      <c r="E91" s="64" t="inlineStr">
         <is>
           <t>7/20</t>
         </is>
       </c>
-      <c r="D91" s="64" t="inlineStr"/>
-      <c r="E91" s="64" t="inlineStr"/>
       <c r="F91" s="64" t="inlineStr"/>
       <c r="G91" s="64" t="inlineStr"/>
       <c r="H91" s="64" t="inlineStr"/>
       <c r="I91" s="64" t="inlineStr"/>
-      <c r="J91" s="64" t="n"/>
-      <c r="K91" s="64" t="n"/>
+      <c r="J91" s="64" t="inlineStr"/>
+      <c r="K91" s="64" t="inlineStr"/>
+      <c r="L91" s="64" t="n"/>
+      <c r="M91" s="64" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="65" t="inlineStr">
@@ -3588,22 +4308,30 @@
       </c>
       <c r="B92" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C92" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D92" s="65" t="inlineStr">
+        <is>
           <t>Eth7-21</t>
         </is>
       </c>
-      <c r="C92" s="65" t="inlineStr">
+      <c r="E92" s="65" t="inlineStr">
         <is>
           <t>7/21</t>
         </is>
       </c>
-      <c r="D92" s="65" t="inlineStr"/>
-      <c r="E92" s="65" t="inlineStr"/>
       <c r="F92" s="65" t="inlineStr"/>
       <c r="G92" s="65" t="inlineStr"/>
       <c r="H92" s="65" t="inlineStr"/>
       <c r="I92" s="65" t="inlineStr"/>
-      <c r="J92" s="65" t="n"/>
-      <c r="K92" s="65" t="n"/>
+      <c r="J92" s="65" t="inlineStr"/>
+      <c r="K92" s="65" t="inlineStr"/>
+      <c r="L92" s="65" t="n"/>
+      <c r="M92" s="65" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="64" t="inlineStr">
@@ -3613,22 +4341,30 @@
       </c>
       <c r="B93" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C93" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D93" s="64" t="inlineStr">
+        <is>
           <t>Eth7-22</t>
         </is>
       </c>
-      <c r="C93" s="64" t="inlineStr">
+      <c r="E93" s="64" t="inlineStr">
         <is>
           <t>7/22</t>
         </is>
       </c>
-      <c r="D93" s="64" t="inlineStr"/>
-      <c r="E93" s="64" t="inlineStr"/>
       <c r="F93" s="64" t="inlineStr"/>
       <c r="G93" s="64" t="inlineStr"/>
       <c r="H93" s="64" t="inlineStr"/>
       <c r="I93" s="64" t="inlineStr"/>
-      <c r="J93" s="64" t="n"/>
-      <c r="K93" s="64" t="n"/>
+      <c r="J93" s="64" t="inlineStr"/>
+      <c r="K93" s="64" t="inlineStr"/>
+      <c r="L93" s="64" t="n"/>
+      <c r="M93" s="64" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="65" t="inlineStr">
@@ -3638,22 +4374,30 @@
       </c>
       <c r="B94" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C94" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D94" s="65" t="inlineStr">
+        <is>
           <t>Eth7-23</t>
         </is>
       </c>
-      <c r="C94" s="65" t="inlineStr">
+      <c r="E94" s="65" t="inlineStr">
         <is>
           <t>7/23</t>
         </is>
       </c>
-      <c r="D94" s="65" t="inlineStr"/>
-      <c r="E94" s="65" t="inlineStr"/>
       <c r="F94" s="65" t="inlineStr"/>
       <c r="G94" s="65" t="inlineStr"/>
       <c r="H94" s="65" t="inlineStr"/>
       <c r="I94" s="65" t="inlineStr"/>
-      <c r="J94" s="65" t="n"/>
-      <c r="K94" s="65" t="n"/>
+      <c r="J94" s="65" t="inlineStr"/>
+      <c r="K94" s="65" t="inlineStr"/>
+      <c r="L94" s="65" t="n"/>
+      <c r="M94" s="65" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="64" t="inlineStr">
@@ -3663,22 +4407,30 @@
       </c>
       <c r="B95" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C95" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D95" s="64" t="inlineStr">
+        <is>
           <t>Eth7-24</t>
         </is>
       </c>
-      <c r="C95" s="64" t="inlineStr">
+      <c r="E95" s="64" t="inlineStr">
         <is>
           <t>7/24</t>
         </is>
       </c>
-      <c r="D95" s="64" t="inlineStr"/>
-      <c r="E95" s="64" t="inlineStr"/>
       <c r="F95" s="64" t="inlineStr"/>
       <c r="G95" s="64" t="inlineStr"/>
       <c r="H95" s="64" t="inlineStr"/>
       <c r="I95" s="64" t="inlineStr"/>
-      <c r="J95" s="64" t="n"/>
-      <c r="K95" s="64" t="n"/>
+      <c r="J95" s="64" t="inlineStr"/>
+      <c r="K95" s="64" t="inlineStr"/>
+      <c r="L95" s="64" t="n"/>
+      <c r="M95" s="64" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="65" t="inlineStr">
@@ -3688,22 +4440,30 @@
       </c>
       <c r="B96" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C96" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D96" s="65" t="inlineStr">
+        <is>
           <t>Eth7-25</t>
         </is>
       </c>
-      <c r="C96" s="65" t="inlineStr">
+      <c r="E96" s="65" t="inlineStr">
         <is>
           <t>7/25</t>
         </is>
       </c>
-      <c r="D96" s="65" t="inlineStr"/>
-      <c r="E96" s="65" t="inlineStr"/>
       <c r="F96" s="65" t="inlineStr"/>
       <c r="G96" s="65" t="inlineStr"/>
       <c r="H96" s="65" t="inlineStr"/>
       <c r="I96" s="65" t="inlineStr"/>
-      <c r="J96" s="65" t="n"/>
-      <c r="K96" s="65" t="n"/>
+      <c r="J96" s="65" t="inlineStr"/>
+      <c r="K96" s="65" t="inlineStr"/>
+      <c r="L96" s="65" t="n"/>
+      <c r="M96" s="65" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="64" t="inlineStr">
@@ -3713,22 +4473,30 @@
       </c>
       <c r="B97" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C97" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D97" s="64" t="inlineStr">
+        <is>
           <t>Eth7-26</t>
         </is>
       </c>
-      <c r="C97" s="64" t="inlineStr">
+      <c r="E97" s="64" t="inlineStr">
         <is>
           <t>7/26</t>
         </is>
       </c>
-      <c r="D97" s="64" t="inlineStr"/>
-      <c r="E97" s="64" t="inlineStr"/>
       <c r="F97" s="64" t="inlineStr"/>
       <c r="G97" s="64" t="inlineStr"/>
       <c r="H97" s="64" t="inlineStr"/>
       <c r="I97" s="64" t="inlineStr"/>
-      <c r="J97" s="64" t="n"/>
-      <c r="K97" s="64" t="n"/>
+      <c r="J97" s="64" t="inlineStr"/>
+      <c r="K97" s="64" t="inlineStr"/>
+      <c r="L97" s="64" t="n"/>
+      <c r="M97" s="64" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="65" t="inlineStr">
@@ -3738,22 +4506,30 @@
       </c>
       <c r="B98" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C98" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D98" s="65" t="inlineStr">
+        <is>
           <t>Eth7-27</t>
         </is>
       </c>
-      <c r="C98" s="65" t="inlineStr">
+      <c r="E98" s="65" t="inlineStr">
         <is>
           <t>7/27</t>
         </is>
       </c>
-      <c r="D98" s="65" t="inlineStr"/>
-      <c r="E98" s="65" t="inlineStr"/>
       <c r="F98" s="65" t="inlineStr"/>
       <c r="G98" s="65" t="inlineStr"/>
       <c r="H98" s="65" t="inlineStr"/>
       <c r="I98" s="65" t="inlineStr"/>
-      <c r="J98" s="65" t="n"/>
-      <c r="K98" s="65" t="n"/>
+      <c r="J98" s="65" t="inlineStr"/>
+      <c r="K98" s="65" t="inlineStr"/>
+      <c r="L98" s="65" t="n"/>
+      <c r="M98" s="65" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="64" t="inlineStr">
@@ -3763,22 +4539,30 @@
       </c>
       <c r="B99" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C99" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D99" s="64" t="inlineStr">
+        <is>
           <t>Eth7-28</t>
         </is>
       </c>
-      <c r="C99" s="64" t="inlineStr">
+      <c r="E99" s="64" t="inlineStr">
         <is>
           <t>7/28</t>
         </is>
       </c>
-      <c r="D99" s="64" t="inlineStr"/>
-      <c r="E99" s="64" t="inlineStr"/>
       <c r="F99" s="64" t="inlineStr"/>
       <c r="G99" s="64" t="inlineStr"/>
       <c r="H99" s="64" t="inlineStr"/>
       <c r="I99" s="64" t="inlineStr"/>
-      <c r="J99" s="64" t="n"/>
-      <c r="K99" s="64" t="n"/>
+      <c r="J99" s="64" t="inlineStr"/>
+      <c r="K99" s="64" t="inlineStr"/>
+      <c r="L99" s="64" t="n"/>
+      <c r="M99" s="64" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="65" t="inlineStr">
@@ -3788,22 +4572,30 @@
       </c>
       <c r="B100" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C100" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D100" s="65" t="inlineStr">
+        <is>
           <t>Eth7-29</t>
         </is>
       </c>
-      <c r="C100" s="65" t="inlineStr">
+      <c r="E100" s="65" t="inlineStr">
         <is>
           <t>7/29</t>
         </is>
       </c>
-      <c r="D100" s="65" t="inlineStr"/>
-      <c r="E100" s="65" t="inlineStr"/>
       <c r="F100" s="65" t="inlineStr"/>
       <c r="G100" s="65" t="inlineStr"/>
       <c r="H100" s="65" t="inlineStr"/>
       <c r="I100" s="65" t="inlineStr"/>
-      <c r="J100" s="65" t="n"/>
-      <c r="K100" s="65" t="n"/>
+      <c r="J100" s="65" t="inlineStr"/>
+      <c r="K100" s="65" t="inlineStr"/>
+      <c r="L100" s="65" t="n"/>
+      <c r="M100" s="65" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="64" t="inlineStr">
@@ -3813,22 +4605,30 @@
       </c>
       <c r="B101" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C101" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D101" s="64" t="inlineStr">
+        <is>
           <t>Eth7-30</t>
         </is>
       </c>
-      <c r="C101" s="64" t="inlineStr">
+      <c r="E101" s="64" t="inlineStr">
         <is>
           <t>7/30</t>
         </is>
       </c>
-      <c r="D101" s="64" t="inlineStr"/>
-      <c r="E101" s="64" t="inlineStr"/>
       <c r="F101" s="64" t="inlineStr"/>
       <c r="G101" s="64" t="inlineStr"/>
       <c r="H101" s="64" t="inlineStr"/>
       <c r="I101" s="64" t="inlineStr"/>
-      <c r="J101" s="64" t="n"/>
-      <c r="K101" s="64" t="n"/>
+      <c r="J101" s="64" t="inlineStr"/>
+      <c r="K101" s="64" t="inlineStr"/>
+      <c r="L101" s="64" t="n"/>
+      <c r="M101" s="64" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="65" t="inlineStr">
@@ -3838,22 +4638,30 @@
       </c>
       <c r="B102" s="65" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C102" s="65" t="n">
+        <v>101</v>
+      </c>
+      <c r="D102" s="65" t="inlineStr">
+        <is>
           <t>Eth7-31</t>
         </is>
       </c>
-      <c r="C102" s="65" t="inlineStr">
+      <c r="E102" s="65" t="inlineStr">
         <is>
           <t>7/31</t>
         </is>
       </c>
-      <c r="D102" s="65" t="inlineStr"/>
-      <c r="E102" s="65" t="inlineStr"/>
       <c r="F102" s="65" t="inlineStr"/>
       <c r="G102" s="65" t="inlineStr"/>
       <c r="H102" s="65" t="inlineStr"/>
       <c r="I102" s="65" t="inlineStr"/>
-      <c r="J102" s="65" t="n"/>
-      <c r="K102" s="65" t="n"/>
+      <c r="J102" s="65" t="inlineStr"/>
+      <c r="K102" s="65" t="inlineStr"/>
+      <c r="L102" s="65" t="n"/>
+      <c r="M102" s="65" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="64" t="inlineStr">
@@ -3863,36 +4671,44 @@
       </c>
       <c r="B103" s="64" t="inlineStr">
         <is>
+          <t>dc1-spine101</t>
+        </is>
+      </c>
+      <c r="C103" s="64" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" s="64" t="inlineStr">
+        <is>
           <t>Eth7-32</t>
         </is>
       </c>
-      <c r="C103" s="64" t="inlineStr">
+      <c r="E103" s="64" t="inlineStr">
         <is>
           <t>7/32</t>
         </is>
       </c>
-      <c r="D103" s="64" t="inlineStr"/>
-      <c r="E103" s="64" t="inlineStr"/>
       <c r="F103" s="64" t="inlineStr"/>
       <c r="G103" s="64" t="inlineStr"/>
       <c r="H103" s="64" t="inlineStr"/>
       <c r="I103" s="64" t="inlineStr"/>
-      <c r="J103" s="64" t="n"/>
-      <c r="K103" s="64" t="n"/>
+      <c r="J103" s="64" t="inlineStr"/>
+      <c r="K103" s="64" t="inlineStr"/>
+      <c r="L103" s="64" t="n"/>
+      <c r="M103" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69 G70 G71 G72 G73 G74 G75 G76 G77 G78 G79 G80 G81 G82 G83 G84 G85 G86 G87 G88 G89 G90 G91 G92 G93 G94 G95 G96 G97 G98 G99 G100 G101 G102 G103" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57 F58 F59 F60 F61 F62 F63 F64 F65 F66 F67 F68 F69 F70 F71 F72 F73 F74 F75 F76 F77 F78 F79 F80 F81 F82 F83 F84 F85 F86 F87 F88 F89 F90 F91 F92 F93 F94 F95 F96 F97 F98 F99 F100 F101 F102 F103" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3906,7 +4722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3918,13 +4734,15 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3943,6 +4761,8 @@
       <c r="I1" s="71" t="n"/>
       <c r="J1" s="71" t="n"/>
       <c r="K1" s="71" t="n"/>
+      <c r="L1" s="71" t="n"/>
+      <c r="M1" s="71" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="66" t="inlineStr"/>
@@ -3960,6 +4780,8 @@
       <c r="I2" s="71" t="n"/>
       <c r="J2" s="71" t="n"/>
       <c r="K2" s="71" t="n"/>
+      <c r="L2" s="71" t="n"/>
+      <c r="M2" s="71" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="61" t="inlineStr">
@@ -3969,50 +4791,60 @@
       </c>
       <c r="B3" s="61" t="inlineStr">
         <is>
+          <t>Switch_Name</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="inlineStr">
+        <is>
+          <t>Node_ID</t>
+        </is>
+      </c>
+      <c r="D3" s="61" t="inlineStr">
+        <is>
           <t>Interface_Selector</t>
         </is>
       </c>
-      <c r="C3" s="61" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>Policy_Group</t>
         </is>
       </c>
-      <c r="E3" s="61" t="inlineStr">
+      <c r="G3" s="61" t="inlineStr">
         <is>
           <t>Port_Type</t>
         </is>
       </c>
-      <c r="F3" s="61" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>LACP</t>
         </is>
       </c>
-      <c r="G3" s="61" t="inlineStr">
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>Bundle_ID</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="J3" s="61" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="I3" s="61" t="inlineStr">
+      <c r="K3" s="61" t="inlineStr">
         <is>
           <t>Switchport_Mode</t>
         </is>
       </c>
-      <c r="J3" s="61" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>Access_or_Native</t>
         </is>
       </c>
-      <c r="K3" s="61" t="inlineStr">
+      <c r="M3" s="61" t="inlineStr">
         <is>
           <t>Trunk_Allowed_VLANs</t>
         </is>
@@ -4026,22 +4858,30 @@
       </c>
       <c r="B4" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C4" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" s="65" t="inlineStr">
+        <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr"/>
-      <c r="E4" s="65" t="inlineStr"/>
       <c r="F4" s="65" t="inlineStr"/>
       <c r="G4" s="65" t="inlineStr"/>
       <c r="H4" s="65" t="inlineStr"/>
       <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr"/>
+      <c r="K4" s="65" t="inlineStr"/>
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="inlineStr">
@@ -4051,22 +4891,30 @@
       </c>
       <c r="B5" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C5" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D5" s="64" t="inlineStr">
+        <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr"/>
-      <c r="E5" s="64" t="inlineStr"/>
       <c r="F5" s="64" t="inlineStr"/>
       <c r="G5" s="64" t="inlineStr"/>
       <c r="H5" s="64" t="inlineStr"/>
       <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n"/>
+      <c r="J5" s="64" t="inlineStr"/>
+      <c r="K5" s="64" t="inlineStr"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="inlineStr">
@@ -4076,22 +4924,30 @@
       </c>
       <c r="B6" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C6" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr"/>
-      <c r="E6" s="65" t="inlineStr"/>
       <c r="F6" s="65" t="inlineStr"/>
       <c r="G6" s="65" t="inlineStr"/>
       <c r="H6" s="65" t="inlineStr"/>
       <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n"/>
+      <c r="J6" s="65" t="inlineStr"/>
+      <c r="K6" s="65" t="inlineStr"/>
+      <c r="L6" s="65" t="n"/>
+      <c r="M6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="inlineStr">
@@ -4101,22 +4957,30 @@
       </c>
       <c r="B7" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D7" s="64" t="inlineStr">
+        <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr"/>
-      <c r="E7" s="64" t="inlineStr"/>
       <c r="F7" s="64" t="inlineStr"/>
       <c r="G7" s="64" t="inlineStr"/>
       <c r="H7" s="64" t="inlineStr"/>
       <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n"/>
+      <c r="J7" s="64" t="inlineStr"/>
+      <c r="K7" s="64" t="inlineStr"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="65" t="inlineStr">
@@ -4126,22 +4990,30 @@
       </c>
       <c r="B8" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr"/>
-      <c r="E8" s="65" t="inlineStr"/>
       <c r="F8" s="65" t="inlineStr"/>
       <c r="G8" s="65" t="inlineStr"/>
       <c r="H8" s="65" t="inlineStr"/>
       <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n"/>
+      <c r="J8" s="65" t="inlineStr"/>
+      <c r="K8" s="65" t="inlineStr"/>
+      <c r="L8" s="65" t="n"/>
+      <c r="M8" s="65" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="64" t="inlineStr">
@@ -4151,22 +5023,30 @@
       </c>
       <c r="B9" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C9" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D9" s="64" t="inlineStr">
+        <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr"/>
-      <c r="E9" s="64" t="inlineStr"/>
       <c r="F9" s="64" t="inlineStr"/>
       <c r="G9" s="64" t="inlineStr"/>
       <c r="H9" s="64" t="inlineStr"/>
       <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
+      <c r="J9" s="64" t="inlineStr"/>
+      <c r="K9" s="64" t="inlineStr"/>
+      <c r="L9" s="64" t="n"/>
+      <c r="M9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="65" t="inlineStr">
@@ -4176,22 +5056,30 @@
       </c>
       <c r="B10" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C10" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D10" s="65" t="inlineStr">
+        <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr"/>
-      <c r="E10" s="65" t="inlineStr"/>
       <c r="F10" s="65" t="inlineStr"/>
       <c r="G10" s="65" t="inlineStr"/>
       <c r="H10" s="65" t="inlineStr"/>
       <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n"/>
+      <c r="J10" s="65" t="inlineStr"/>
+      <c r="K10" s="65" t="inlineStr"/>
+      <c r="L10" s="65" t="n"/>
+      <c r="M10" s="65" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="inlineStr">
@@ -4201,22 +5089,30 @@
       </c>
       <c r="B11" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C11" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D11" s="64" t="inlineStr">
+        <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr"/>
-      <c r="E11" s="64" t="inlineStr"/>
       <c r="F11" s="64" t="inlineStr"/>
       <c r="G11" s="64" t="inlineStr"/>
       <c r="H11" s="64" t="inlineStr"/>
       <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n"/>
+      <c r="J11" s="64" t="inlineStr"/>
+      <c r="K11" s="64" t="inlineStr"/>
+      <c r="L11" s="64" t="n"/>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="65" t="inlineStr">
@@ -4226,22 +5122,30 @@
       </c>
       <c r="B12" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C12" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D12" s="65" t="inlineStr">
+        <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr"/>
-      <c r="E12" s="65" t="inlineStr"/>
       <c r="F12" s="65" t="inlineStr"/>
       <c r="G12" s="65" t="inlineStr"/>
       <c r="H12" s="65" t="inlineStr"/>
       <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n"/>
+      <c r="J12" s="65" t="inlineStr"/>
+      <c r="K12" s="65" t="inlineStr"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="64" t="inlineStr">
@@ -4251,22 +5155,30 @@
       </c>
       <c r="B13" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C13" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D13" s="64" t="inlineStr">
+        <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr"/>
-      <c r="E13" s="64" t="inlineStr"/>
       <c r="F13" s="64" t="inlineStr"/>
       <c r="G13" s="64" t="inlineStr"/>
       <c r="H13" s="64" t="inlineStr"/>
       <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="n"/>
-      <c r="K13" s="64" t="n"/>
+      <c r="J13" s="64" t="inlineStr"/>
+      <c r="K13" s="64" t="inlineStr"/>
+      <c r="L13" s="64" t="n"/>
+      <c r="M13" s="64" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="65" t="inlineStr">
@@ -4276,22 +5188,30 @@
       </c>
       <c r="B14" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D14" s="65" t="inlineStr">
+        <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr"/>
-      <c r="E14" s="65" t="inlineStr"/>
       <c r="F14" s="65" t="inlineStr"/>
       <c r="G14" s="65" t="inlineStr"/>
       <c r="H14" s="65" t="inlineStr"/>
       <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="n"/>
-      <c r="K14" s="65" t="n"/>
+      <c r="J14" s="65" t="inlineStr"/>
+      <c r="K14" s="65" t="inlineStr"/>
+      <c r="L14" s="65" t="n"/>
+      <c r="M14" s="65" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="64" t="inlineStr">
@@ -4301,22 +5221,30 @@
       </c>
       <c r="B15" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C15" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D15" s="64" t="inlineStr">
+        <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr"/>
-      <c r="E15" s="64" t="inlineStr"/>
       <c r="F15" s="64" t="inlineStr"/>
       <c r="G15" s="64" t="inlineStr"/>
       <c r="H15" s="64" t="inlineStr"/>
       <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="n"/>
-      <c r="K15" s="64" t="n"/>
+      <c r="J15" s="64" t="inlineStr"/>
+      <c r="K15" s="64" t="inlineStr"/>
+      <c r="L15" s="64" t="n"/>
+      <c r="M15" s="64" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="65" t="inlineStr">
@@ -4326,22 +5254,30 @@
       </c>
       <c r="B16" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C16" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D16" s="65" t="inlineStr">
+        <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="E16" s="65" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr"/>
-      <c r="E16" s="65" t="inlineStr"/>
       <c r="F16" s="65" t="inlineStr"/>
       <c r="G16" s="65" t="inlineStr"/>
       <c r="H16" s="65" t="inlineStr"/>
       <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="n"/>
-      <c r="K16" s="65" t="n"/>
+      <c r="J16" s="65" t="inlineStr"/>
+      <c r="K16" s="65" t="inlineStr"/>
+      <c r="L16" s="65" t="n"/>
+      <c r="M16" s="65" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="64" t="inlineStr">
@@ -4351,22 +5287,30 @@
       </c>
       <c r="B17" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C17" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D17" s="64" t="inlineStr">
+        <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr"/>
-      <c r="E17" s="64" t="inlineStr"/>
       <c r="F17" s="64" t="inlineStr"/>
       <c r="G17" s="64" t="inlineStr"/>
       <c r="H17" s="64" t="inlineStr"/>
       <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="64" t="n"/>
+      <c r="J17" s="64" t="inlineStr"/>
+      <c r="K17" s="64" t="inlineStr"/>
+      <c r="L17" s="64" t="n"/>
+      <c r="M17" s="64" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -4376,22 +5320,30 @@
       </c>
       <c r="B18" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C18" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D18" s="65" t="inlineStr">
+        <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="E18" s="65" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr"/>
-      <c r="E18" s="65" t="inlineStr"/>
       <c r="F18" s="65" t="inlineStr"/>
       <c r="G18" s="65" t="inlineStr"/>
       <c r="H18" s="65" t="inlineStr"/>
       <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
+      <c r="J18" s="65" t="inlineStr"/>
+      <c r="K18" s="65" t="inlineStr"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="64" t="inlineStr">
@@ -4401,22 +5353,30 @@
       </c>
       <c r="B19" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C19" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D19" s="64" t="inlineStr">
+        <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr"/>
-      <c r="E19" s="64" t="inlineStr"/>
       <c r="F19" s="64" t="inlineStr"/>
       <c r="G19" s="64" t="inlineStr"/>
       <c r="H19" s="64" t="inlineStr"/>
       <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="n"/>
-      <c r="K19" s="64" t="n"/>
+      <c r="J19" s="64" t="inlineStr"/>
+      <c r="K19" s="64" t="inlineStr"/>
+      <c r="L19" s="64" t="n"/>
+      <c r="M19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="65" t="inlineStr">
@@ -4426,22 +5386,30 @@
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C20" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D20" s="65" t="inlineStr">
+        <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="E20" s="65" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr"/>
-      <c r="E20" s="65" t="inlineStr"/>
       <c r="F20" s="65" t="inlineStr"/>
       <c r="G20" s="65" t="inlineStr"/>
       <c r="H20" s="65" t="inlineStr"/>
       <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="n"/>
-      <c r="K20" s="65" t="n"/>
+      <c r="J20" s="65" t="inlineStr"/>
+      <c r="K20" s="65" t="inlineStr"/>
+      <c r="L20" s="65" t="n"/>
+      <c r="M20" s="65" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="64" t="inlineStr">
@@ -4451,22 +5419,30 @@
       </c>
       <c r="B21" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C21" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D21" s="64" t="inlineStr">
+        <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="E21" s="64" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr"/>
-      <c r="E21" s="64" t="inlineStr"/>
       <c r="F21" s="64" t="inlineStr"/>
       <c r="G21" s="64" t="inlineStr"/>
       <c r="H21" s="64" t="inlineStr"/>
       <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="n"/>
-      <c r="K21" s="64" t="n"/>
+      <c r="J21" s="64" t="inlineStr"/>
+      <c r="K21" s="64" t="inlineStr"/>
+      <c r="L21" s="64" t="n"/>
+      <c r="M21" s="64" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="65" t="inlineStr">
@@ -4476,22 +5452,30 @@
       </c>
       <c r="B22" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="E22" s="65" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr"/>
-      <c r="E22" s="65" t="inlineStr"/>
       <c r="F22" s="65" t="inlineStr"/>
       <c r="G22" s="65" t="inlineStr"/>
       <c r="H22" s="65" t="inlineStr"/>
       <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
+      <c r="J22" s="65" t="inlineStr"/>
+      <c r="K22" s="65" t="inlineStr"/>
+      <c r="L22" s="65" t="n"/>
+      <c r="M22" s="65" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="64" t="inlineStr">
@@ -4501,22 +5485,30 @@
       </c>
       <c r="B23" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D23" s="64" t="inlineStr">
+        <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="E23" s="64" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr"/>
-      <c r="E23" s="64" t="inlineStr"/>
       <c r="F23" s="64" t="inlineStr"/>
       <c r="G23" s="64" t="inlineStr"/>
       <c r="H23" s="64" t="inlineStr"/>
       <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="n"/>
-      <c r="K23" s="64" t="n"/>
+      <c r="J23" s="64" t="inlineStr"/>
+      <c r="K23" s="64" t="inlineStr"/>
+      <c r="L23" s="64" t="n"/>
+      <c r="M23" s="64" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="65" t="inlineStr">
@@ -4526,22 +5518,30 @@
       </c>
       <c r="B24" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="E24" s="65" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr"/>
-      <c r="E24" s="65" t="inlineStr"/>
       <c r="F24" s="65" t="inlineStr"/>
       <c r="G24" s="65" t="inlineStr"/>
       <c r="H24" s="65" t="inlineStr"/>
       <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
+      <c r="J24" s="65" t="inlineStr"/>
+      <c r="K24" s="65" t="inlineStr"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="64" t="inlineStr">
@@ -4551,22 +5551,30 @@
       </c>
       <c r="B25" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C25" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D25" s="64" t="inlineStr">
+        <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="E25" s="64" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr"/>
-      <c r="E25" s="64" t="inlineStr"/>
       <c r="F25" s="64" t="inlineStr"/>
       <c r="G25" s="64" t="inlineStr"/>
       <c r="H25" s="64" t="inlineStr"/>
       <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="n"/>
-      <c r="K25" s="64" t="n"/>
+      <c r="J25" s="64" t="inlineStr"/>
+      <c r="K25" s="64" t="inlineStr"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="65" t="inlineStr">
@@ -4576,22 +5584,30 @@
       </c>
       <c r="B26" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C26" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D26" s="65" t="inlineStr">
+        <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="E26" s="65" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr"/>
-      <c r="E26" s="65" t="inlineStr"/>
       <c r="F26" s="65" t="inlineStr"/>
       <c r="G26" s="65" t="inlineStr"/>
       <c r="H26" s="65" t="inlineStr"/>
       <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="n"/>
-      <c r="K26" s="65" t="n"/>
+      <c r="J26" s="65" t="inlineStr"/>
+      <c r="K26" s="65" t="inlineStr"/>
+      <c r="L26" s="65" t="n"/>
+      <c r="M26" s="65" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="64" t="inlineStr">
@@ -4601,22 +5617,30 @@
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="E27" s="64" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr"/>
-      <c r="E27" s="64" t="inlineStr"/>
       <c r="F27" s="64" t="inlineStr"/>
       <c r="G27" s="64" t="inlineStr"/>
       <c r="H27" s="64" t="inlineStr"/>
       <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="n"/>
-      <c r="K27" s="64" t="n"/>
+      <c r="J27" s="64" t="inlineStr"/>
+      <c r="K27" s="64" t="inlineStr"/>
+      <c r="L27" s="64" t="n"/>
+      <c r="M27" s="64" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="65" t="inlineStr">
@@ -4626,22 +5650,30 @@
       </c>
       <c r="B28" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C28" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D28" s="65" t="inlineStr">
+        <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr"/>
-      <c r="E28" s="65" t="inlineStr"/>
       <c r="F28" s="65" t="inlineStr"/>
       <c r="G28" s="65" t="inlineStr"/>
       <c r="H28" s="65" t="inlineStr"/>
       <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
+      <c r="J28" s="65" t="inlineStr"/>
+      <c r="K28" s="65" t="inlineStr"/>
+      <c r="L28" s="65" t="n"/>
+      <c r="M28" s="65" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="64" t="inlineStr">
@@ -4651,22 +5683,30 @@
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C29" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="E29" s="64" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr"/>
-      <c r="E29" s="64" t="inlineStr"/>
       <c r="F29" s="64" t="inlineStr"/>
       <c r="G29" s="64" t="inlineStr"/>
       <c r="H29" s="64" t="inlineStr"/>
       <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="n"/>
-      <c r="K29" s="64" t="n"/>
+      <c r="J29" s="64" t="inlineStr"/>
+      <c r="K29" s="64" t="inlineStr"/>
+      <c r="L29" s="64" t="n"/>
+      <c r="M29" s="64" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="65" t="inlineStr">
@@ -4676,22 +5716,30 @@
       </c>
       <c r="B30" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C30" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D30" s="65" t="inlineStr">
+        <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="E30" s="65" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr"/>
-      <c r="E30" s="65" t="inlineStr"/>
       <c r="F30" s="65" t="inlineStr"/>
       <c r="G30" s="65" t="inlineStr"/>
       <c r="H30" s="65" t="inlineStr"/>
       <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="n"/>
-      <c r="K30" s="65" t="n"/>
+      <c r="J30" s="65" t="inlineStr"/>
+      <c r="K30" s="65" t="inlineStr"/>
+      <c r="L30" s="65" t="n"/>
+      <c r="M30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="64" t="inlineStr">
@@ -4701,22 +5749,30 @@
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C31" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D31" s="64" t="inlineStr">
+        <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="E31" s="64" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr"/>
-      <c r="E31" s="64" t="inlineStr"/>
       <c r="F31" s="64" t="inlineStr"/>
       <c r="G31" s="64" t="inlineStr"/>
       <c r="H31" s="64" t="inlineStr"/>
       <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="n"/>
-      <c r="K31" s="64" t="n"/>
+      <c r="J31" s="64" t="inlineStr"/>
+      <c r="K31" s="64" t="inlineStr"/>
+      <c r="L31" s="64" t="n"/>
+      <c r="M31" s="64" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="65" t="inlineStr">
@@ -4726,22 +5782,30 @@
       </c>
       <c r="B32" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C32" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D32" s="65" t="inlineStr">
+        <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr"/>
-      <c r="E32" s="65" t="inlineStr"/>
       <c r="F32" s="65" t="inlineStr"/>
       <c r="G32" s="65" t="inlineStr"/>
       <c r="H32" s="65" t="inlineStr"/>
       <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="65" t="inlineStr"/>
+      <c r="K32" s="65" t="inlineStr"/>
+      <c r="L32" s="65" t="n"/>
+      <c r="M32" s="65" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="64" t="inlineStr">
@@ -4751,22 +5815,30 @@
       </c>
       <c r="B33" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D33" s="64" t="inlineStr">
+        <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="E33" s="64" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr"/>
-      <c r="E33" s="64" t="inlineStr"/>
       <c r="F33" s="64" t="inlineStr"/>
       <c r="G33" s="64" t="inlineStr"/>
       <c r="H33" s="64" t="inlineStr"/>
       <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="n"/>
-      <c r="K33" s="64" t="n"/>
+      <c r="J33" s="64" t="inlineStr"/>
+      <c r="K33" s="64" t="inlineStr"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="inlineStr">
@@ -4776,22 +5848,30 @@
       </c>
       <c r="B34" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D34" s="65" t="inlineStr">
+        <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr"/>
-      <c r="E34" s="65" t="inlineStr"/>
       <c r="F34" s="65" t="inlineStr"/>
       <c r="G34" s="65" t="inlineStr"/>
       <c r="H34" s="65" t="inlineStr"/>
       <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="n"/>
-      <c r="K34" s="65" t="n"/>
+      <c r="J34" s="65" t="inlineStr"/>
+      <c r="K34" s="65" t="inlineStr"/>
+      <c r="L34" s="65" t="n"/>
+      <c r="M34" s="65" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="64" t="inlineStr">
@@ -4801,22 +5881,30 @@
       </c>
       <c r="B35" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C35" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D35" s="64" t="inlineStr">
+        <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="E35" s="64" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr"/>
-      <c r="E35" s="64" t="inlineStr"/>
       <c r="F35" s="64" t="inlineStr"/>
       <c r="G35" s="64" t="inlineStr"/>
       <c r="H35" s="64" t="inlineStr"/>
       <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="n"/>
-      <c r="K35" s="64" t="n"/>
+      <c r="J35" s="64" t="inlineStr"/>
+      <c r="K35" s="64" t="inlineStr"/>
+      <c r="L35" s="64" t="n"/>
+      <c r="M35" s="64" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="65" t="inlineStr">
@@ -4826,22 +5914,30 @@
       </c>
       <c r="B36" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C36" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D36" s="65" t="inlineStr">
+        <is>
           <t>Eth1-33</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="E36" s="65" t="inlineStr">
         <is>
           <t>1/33</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr"/>
-      <c r="E36" s="65" t="inlineStr"/>
       <c r="F36" s="65" t="inlineStr"/>
       <c r="G36" s="65" t="inlineStr"/>
       <c r="H36" s="65" t="inlineStr"/>
       <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="n"/>
-      <c r="K36" s="65" t="n"/>
+      <c r="J36" s="65" t="inlineStr"/>
+      <c r="K36" s="65" t="inlineStr"/>
+      <c r="L36" s="65" t="n"/>
+      <c r="M36" s="65" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="64" t="inlineStr">
@@ -4851,22 +5947,30 @@
       </c>
       <c r="B37" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D37" s="64" t="inlineStr">
+        <is>
           <t>Eth1-34</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="E37" s="64" t="inlineStr">
         <is>
           <t>1/34</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr"/>
-      <c r="E37" s="64" t="inlineStr"/>
       <c r="F37" s="64" t="inlineStr"/>
       <c r="G37" s="64" t="inlineStr"/>
       <c r="H37" s="64" t="inlineStr"/>
       <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="n"/>
-      <c r="K37" s="64" t="n"/>
+      <c r="J37" s="64" t="inlineStr"/>
+      <c r="K37" s="64" t="inlineStr"/>
+      <c r="L37" s="64" t="n"/>
+      <c r="M37" s="64" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="65" t="inlineStr">
@@ -4876,22 +5980,30 @@
       </c>
       <c r="B38" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C38" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D38" s="65" t="inlineStr">
+        <is>
           <t>Eth1-35</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="E38" s="65" t="inlineStr">
         <is>
           <t>1/35</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr"/>
-      <c r="E38" s="65" t="inlineStr"/>
       <c r="F38" s="65" t="inlineStr"/>
       <c r="G38" s="65" t="inlineStr"/>
       <c r="H38" s="65" t="inlineStr"/>
       <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="n"/>
-      <c r="K38" s="65" t="n"/>
+      <c r="J38" s="65" t="inlineStr"/>
+      <c r="K38" s="65" t="inlineStr"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="64" t="inlineStr">
@@ -4901,22 +6013,30 @@
       </c>
       <c r="B39" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D39" s="64" t="inlineStr">
+        <is>
           <t>Eth1-36</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="E39" s="64" t="inlineStr">
         <is>
           <t>1/36</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr"/>
-      <c r="E39" s="64" t="inlineStr"/>
       <c r="F39" s="64" t="inlineStr"/>
       <c r="G39" s="64" t="inlineStr"/>
       <c r="H39" s="64" t="inlineStr"/>
       <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="n"/>
-      <c r="K39" s="64" t="n"/>
+      <c r="J39" s="64" t="inlineStr"/>
+      <c r="K39" s="64" t="inlineStr"/>
+      <c r="L39" s="64" t="n"/>
+      <c r="M39" s="64" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="65" t="inlineStr">
@@ -4926,22 +6046,30 @@
       </c>
       <c r="B40" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C40" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D40" s="65" t="inlineStr">
+        <is>
           <t>Eth1-37</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="E40" s="65" t="inlineStr">
         <is>
           <t>1/37</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr"/>
-      <c r="E40" s="65" t="inlineStr"/>
       <c r="F40" s="65" t="inlineStr"/>
       <c r="G40" s="65" t="inlineStr"/>
       <c r="H40" s="65" t="inlineStr"/>
       <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="n"/>
-      <c r="K40" s="65" t="n"/>
+      <c r="J40" s="65" t="inlineStr"/>
+      <c r="K40" s="65" t="inlineStr"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="64" t="inlineStr">
@@ -4951,22 +6079,30 @@
       </c>
       <c r="B41" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C41" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D41" s="64" t="inlineStr">
+        <is>
           <t>Eth1-38</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="E41" s="64" t="inlineStr">
         <is>
           <t>1/38</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr"/>
-      <c r="E41" s="64" t="inlineStr"/>
       <c r="F41" s="64" t="inlineStr"/>
       <c r="G41" s="64" t="inlineStr"/>
       <c r="H41" s="64" t="inlineStr"/>
       <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="n"/>
-      <c r="K41" s="64" t="n"/>
+      <c r="J41" s="64" t="inlineStr"/>
+      <c r="K41" s="64" t="inlineStr"/>
+      <c r="L41" s="64" t="n"/>
+      <c r="M41" s="64" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="65" t="inlineStr">
@@ -4976,22 +6112,30 @@
       </c>
       <c r="B42" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C42" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D42" s="65" t="inlineStr">
+        <is>
           <t>Eth1-39</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>1/39</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr"/>
-      <c r="E42" s="65" t="inlineStr"/>
       <c r="F42" s="65" t="inlineStr"/>
       <c r="G42" s="65" t="inlineStr"/>
       <c r="H42" s="65" t="inlineStr"/>
       <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="n"/>
-      <c r="K42" s="65" t="n"/>
+      <c r="J42" s="65" t="inlineStr"/>
+      <c r="K42" s="65" t="inlineStr"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="inlineStr">
@@ -5001,22 +6145,30 @@
       </c>
       <c r="B43" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C43" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D43" s="64" t="inlineStr">
+        <is>
           <t>Eth1-40</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="E43" s="64" t="inlineStr">
         <is>
           <t>1/40</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr"/>
-      <c r="E43" s="64" t="inlineStr"/>
       <c r="F43" s="64" t="inlineStr"/>
       <c r="G43" s="64" t="inlineStr"/>
       <c r="H43" s="64" t="inlineStr"/>
       <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="n"/>
-      <c r="K43" s="64" t="n"/>
+      <c r="J43" s="64" t="inlineStr"/>
+      <c r="K43" s="64" t="inlineStr"/>
+      <c r="L43" s="64" t="n"/>
+      <c r="M43" s="64" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="65" t="inlineStr">
@@ -5026,22 +6178,30 @@
       </c>
       <c r="B44" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C44" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D44" s="65" t="inlineStr">
+        <is>
           <t>Eth1-41</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="E44" s="65" t="inlineStr">
         <is>
           <t>1/41</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr"/>
-      <c r="E44" s="65" t="inlineStr"/>
       <c r="F44" s="65" t="inlineStr"/>
       <c r="G44" s="65" t="inlineStr"/>
       <c r="H44" s="65" t="inlineStr"/>
       <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="n"/>
-      <c r="K44" s="65" t="n"/>
+      <c r="J44" s="65" t="inlineStr"/>
+      <c r="K44" s="65" t="inlineStr"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="64" t="inlineStr">
@@ -5051,22 +6211,30 @@
       </c>
       <c r="B45" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D45" s="64" t="inlineStr">
+        <is>
           <t>Eth1-42</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="E45" s="64" t="inlineStr">
         <is>
           <t>1/42</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr"/>
-      <c r="E45" s="64" t="inlineStr"/>
       <c r="F45" s="64" t="inlineStr"/>
       <c r="G45" s="64" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="n"/>
-      <c r="K45" s="64" t="n"/>
+      <c r="J45" s="64" t="inlineStr"/>
+      <c r="K45" s="64" t="inlineStr"/>
+      <c r="L45" s="64" t="n"/>
+      <c r="M45" s="64" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="65" t="inlineStr">
@@ -5076,22 +6244,30 @@
       </c>
       <c r="B46" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C46" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D46" s="65" t="inlineStr">
+        <is>
           <t>Eth1-43</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>1/43</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr"/>
-      <c r="E46" s="65" t="inlineStr"/>
       <c r="F46" s="65" t="inlineStr"/>
       <c r="G46" s="65" t="inlineStr"/>
       <c r="H46" s="65" t="inlineStr"/>
       <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="n"/>
-      <c r="K46" s="65" t="n"/>
+      <c r="J46" s="65" t="inlineStr"/>
+      <c r="K46" s="65" t="inlineStr"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="64" t="inlineStr">
@@ -5101,22 +6277,30 @@
       </c>
       <c r="B47" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C47" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D47" s="64" t="inlineStr">
+        <is>
           <t>Eth1-44</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="E47" s="64" t="inlineStr">
         <is>
           <t>1/44</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr"/>
-      <c r="E47" s="64" t="inlineStr"/>
       <c r="F47" s="64" t="inlineStr"/>
       <c r="G47" s="64" t="inlineStr"/>
       <c r="H47" s="64" t="inlineStr"/>
       <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="n"/>
-      <c r="K47" s="64" t="n"/>
+      <c r="J47" s="64" t="inlineStr"/>
+      <c r="K47" s="64" t="inlineStr"/>
+      <c r="L47" s="64" t="n"/>
+      <c r="M47" s="64" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="65" t="inlineStr">
@@ -5126,22 +6310,30 @@
       </c>
       <c r="B48" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C48" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D48" s="65" t="inlineStr">
+        <is>
           <t>Eth1-45</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>1/45</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr"/>
-      <c r="E48" s="65" t="inlineStr"/>
       <c r="F48" s="65" t="inlineStr"/>
       <c r="G48" s="65" t="inlineStr"/>
       <c r="H48" s="65" t="inlineStr"/>
       <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="n"/>
-      <c r="K48" s="65" t="n"/>
+      <c r="J48" s="65" t="inlineStr"/>
+      <c r="K48" s="65" t="inlineStr"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="64" t="inlineStr">
@@ -5151,22 +6343,30 @@
       </c>
       <c r="B49" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C49" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D49" s="64" t="inlineStr">
+        <is>
           <t>Eth1-46</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="E49" s="64" t="inlineStr">
         <is>
           <t>1/46</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr"/>
-      <c r="E49" s="64" t="inlineStr"/>
       <c r="F49" s="64" t="inlineStr"/>
       <c r="G49" s="64" t="inlineStr"/>
       <c r="H49" s="64" t="inlineStr"/>
       <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
+      <c r="J49" s="64" t="inlineStr"/>
+      <c r="K49" s="64" t="inlineStr"/>
+      <c r="L49" s="64" t="n"/>
+      <c r="M49" s="64" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="65" t="inlineStr">
@@ -5176,22 +6376,30 @@
       </c>
       <c r="B50" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C50" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D50" s="65" t="inlineStr">
+        <is>
           <t>Eth1-47</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>1/47</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr"/>
-      <c r="E50" s="65" t="inlineStr"/>
       <c r="F50" s="65" t="inlineStr"/>
       <c r="G50" s="65" t="inlineStr"/>
       <c r="H50" s="65" t="inlineStr"/>
       <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="n"/>
-      <c r="K50" s="65" t="n"/>
+      <c r="J50" s="65" t="inlineStr"/>
+      <c r="K50" s="65" t="inlineStr"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="64" t="inlineStr">
@@ -5201,22 +6409,30 @@
       </c>
       <c r="B51" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D51" s="64" t="inlineStr">
+        <is>
           <t>Eth1-48</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="E51" s="64" t="inlineStr">
         <is>
           <t>1/48</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr"/>
-      <c r="E51" s="64" t="inlineStr"/>
       <c r="F51" s="64" t="inlineStr"/>
       <c r="G51" s="64" t="inlineStr"/>
       <c r="H51" s="64" t="inlineStr"/>
       <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
+      <c r="J51" s="64" t="inlineStr"/>
+      <c r="K51" s="64" t="inlineStr"/>
+      <c r="L51" s="64" t="n"/>
+      <c r="M51" s="64" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="65" t="inlineStr">
@@ -5226,22 +6442,30 @@
       </c>
       <c r="B52" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C52" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D52" s="65" t="inlineStr">
+        <is>
           <t>Eth1-49</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="E52" s="65" t="inlineStr">
         <is>
           <t>1/49</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr"/>
-      <c r="E52" s="65" t="inlineStr"/>
       <c r="F52" s="65" t="inlineStr"/>
       <c r="G52" s="65" t="inlineStr"/>
       <c r="H52" s="65" t="inlineStr"/>
       <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="n"/>
-      <c r="K52" s="65" t="n"/>
+      <c r="J52" s="65" t="inlineStr"/>
+      <c r="K52" s="65" t="inlineStr"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="64" t="inlineStr">
@@ -5251,22 +6475,30 @@
       </c>
       <c r="B53" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D53" s="64" t="inlineStr">
+        <is>
           <t>Eth1-50</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="E53" s="64" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr"/>
-      <c r="E53" s="64" t="inlineStr"/>
       <c r="F53" s="64" t="inlineStr"/>
       <c r="G53" s="64" t="inlineStr"/>
       <c r="H53" s="64" t="inlineStr"/>
       <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="n"/>
-      <c r="K53" s="64" t="n"/>
+      <c r="J53" s="64" t="inlineStr"/>
+      <c r="K53" s="64" t="inlineStr"/>
+      <c r="L53" s="64" t="n"/>
+      <c r="M53" s="64" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="65" t="inlineStr">
@@ -5276,22 +6508,30 @@
       </c>
       <c r="B54" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C54" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D54" s="65" t="inlineStr">
+        <is>
           <t>Eth1-51</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="E54" s="65" t="inlineStr">
         <is>
           <t>1/51</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr"/>
-      <c r="E54" s="65" t="inlineStr"/>
       <c r="F54" s="65" t="inlineStr"/>
       <c r="G54" s="65" t="inlineStr"/>
       <c r="H54" s="65" t="inlineStr"/>
       <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="65" t="n"/>
+      <c r="J54" s="65" t="inlineStr"/>
+      <c r="K54" s="65" t="inlineStr"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="64" t="inlineStr">
@@ -5301,22 +6541,30 @@
       </c>
       <c r="B55" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C55" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D55" s="64" t="inlineStr">
+        <is>
           <t>Eth1-52</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="E55" s="64" t="inlineStr">
         <is>
           <t>1/52</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr"/>
-      <c r="E55" s="64" t="inlineStr"/>
       <c r="F55" s="64" t="inlineStr"/>
       <c r="G55" s="64" t="inlineStr"/>
       <c r="H55" s="64" t="inlineStr"/>
       <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="n"/>
-      <c r="K55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr"/>
+      <c r="K55" s="64" t="inlineStr"/>
+      <c r="L55" s="64" t="n"/>
+      <c r="M55" s="64" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="65" t="inlineStr">
@@ -5326,22 +6574,30 @@
       </c>
       <c r="B56" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C56" s="65" t="n">
+        <v>201</v>
+      </c>
+      <c r="D56" s="65" t="inlineStr">
+        <is>
           <t>Eth1-53</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="E56" s="65" t="inlineStr">
         <is>
           <t>1/53</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr"/>
-      <c r="E56" s="65" t="inlineStr"/>
       <c r="F56" s="65" t="inlineStr"/>
       <c r="G56" s="65" t="inlineStr"/>
       <c r="H56" s="65" t="inlineStr"/>
       <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="n"/>
-      <c r="K56" s="65" t="n"/>
+      <c r="J56" s="65" t="inlineStr"/>
+      <c r="K56" s="65" t="inlineStr"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="64" t="inlineStr">
@@ -5351,36 +6607,44 @@
       </c>
       <c r="B57" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf201</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="n">
+        <v>201</v>
+      </c>
+      <c r="D57" s="64" t="inlineStr">
+        <is>
           <t>Eth1-54</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="E57" s="64" t="inlineStr">
         <is>
           <t>1/54</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr"/>
-      <c r="E57" s="64" t="inlineStr"/>
       <c r="F57" s="64" t="inlineStr"/>
       <c r="G57" s="64" t="inlineStr"/>
       <c r="H57" s="64" t="inlineStr"/>
       <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="n"/>
-      <c r="K57" s="64" t="n"/>
+      <c r="J57" s="64" t="inlineStr"/>
+      <c r="K57" s="64" t="inlineStr"/>
+      <c r="L57" s="64" t="n"/>
+      <c r="M57" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5394,7 +6658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5406,13 +6670,15 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5421,16 +6687,18 @@
           <t>dc1-leaf202 Interface Selectors</t>
         </is>
       </c>
-      <c r="B1" s="71" t="n"/>
-      <c r="C1" s="71" t="n"/>
-      <c r="D1" s="71" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="F1" s="71" t="n"/>
-      <c r="G1" s="71" t="n"/>
-      <c r="H1" s="71" t="n"/>
-      <c r="I1" s="71" t="n"/>
-      <c r="J1" s="71" t="n"/>
-      <c r="K1" s="71" t="n"/>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="F1" s="67" t="n"/>
+      <c r="G1" s="67" t="n"/>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="67" t="n"/>
+      <c r="L1" s="67" t="n"/>
+      <c r="M1" s="67" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="66" t="inlineStr"/>
@@ -5439,15 +6707,17 @@
           <t>Notes: Breakout Policy Group Names are 2x100g_pg, 4x10g_pg, 4x25g_pg, 4x100g_pg, 8x50g_pg.</t>
         </is>
       </c>
-      <c r="C2" s="71" t="n"/>
-      <c r="D2" s="71" t="n"/>
-      <c r="E2" s="71" t="n"/>
-      <c r="F2" s="71" t="n"/>
-      <c r="G2" s="71" t="n"/>
-      <c r="H2" s="71" t="n"/>
-      <c r="I2" s="71" t="n"/>
-      <c r="J2" s="71" t="n"/>
-      <c r="K2" s="71" t="n"/>
+      <c r="C2" s="66" t="n"/>
+      <c r="D2" s="66" t="n"/>
+      <c r="E2" s="66" t="n"/>
+      <c r="F2" s="66" t="n"/>
+      <c r="G2" s="66" t="n"/>
+      <c r="H2" s="66" t="n"/>
+      <c r="I2" s="66" t="n"/>
+      <c r="J2" s="66" t="n"/>
+      <c r="K2" s="66" t="n"/>
+      <c r="L2" s="66" t="n"/>
+      <c r="M2" s="66" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="61" t="inlineStr">
@@ -5457,50 +6727,60 @@
       </c>
       <c r="B3" s="61" t="inlineStr">
         <is>
+          <t>Switch_Name</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="inlineStr">
+        <is>
+          <t>Node_ID</t>
+        </is>
+      </c>
+      <c r="D3" s="61" t="inlineStr">
+        <is>
           <t>Interface_Selector</t>
         </is>
       </c>
-      <c r="C3" s="61" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>Policy_Group</t>
         </is>
       </c>
-      <c r="E3" s="61" t="inlineStr">
+      <c r="G3" s="61" t="inlineStr">
         <is>
           <t>Port_Type</t>
         </is>
       </c>
-      <c r="F3" s="61" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>LACP</t>
         </is>
       </c>
-      <c r="G3" s="61" t="inlineStr">
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>Bundle_ID</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="J3" s="61" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="I3" s="61" t="inlineStr">
+      <c r="K3" s="61" t="inlineStr">
         <is>
           <t>Switchport_Mode</t>
         </is>
       </c>
-      <c r="J3" s="61" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>Access_or_Native</t>
         </is>
       </c>
-      <c r="K3" s="61" t="inlineStr">
+      <c r="M3" s="61" t="inlineStr">
         <is>
           <t>Trunk_Allowed_VLANs</t>
         </is>
@@ -5514,22 +6794,30 @@
       </c>
       <c r="B4" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C4" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D4" s="65" t="inlineStr">
+        <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr"/>
-      <c r="E4" s="65" t="inlineStr"/>
       <c r="F4" s="65" t="inlineStr"/>
       <c r="G4" s="65" t="inlineStr"/>
       <c r="H4" s="65" t="inlineStr"/>
       <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr"/>
+      <c r="K4" s="65" t="inlineStr"/>
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="inlineStr">
@@ -5539,22 +6827,30 @@
       </c>
       <c r="B5" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C5" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D5" s="64" t="inlineStr">
+        <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr"/>
-      <c r="E5" s="64" t="inlineStr"/>
       <c r="F5" s="64" t="inlineStr"/>
       <c r="G5" s="64" t="inlineStr"/>
       <c r="H5" s="64" t="inlineStr"/>
       <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n"/>
+      <c r="J5" s="64" t="inlineStr"/>
+      <c r="K5" s="64" t="inlineStr"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="inlineStr">
@@ -5564,22 +6860,30 @@
       </c>
       <c r="B6" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C6" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr"/>
-      <c r="E6" s="65" t="inlineStr"/>
       <c r="F6" s="65" t="inlineStr"/>
       <c r="G6" s="65" t="inlineStr"/>
       <c r="H6" s="65" t="inlineStr"/>
       <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n"/>
+      <c r="J6" s="65" t="inlineStr"/>
+      <c r="K6" s="65" t="inlineStr"/>
+      <c r="L6" s="65" t="n"/>
+      <c r="M6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="inlineStr">
@@ -5589,22 +6893,30 @@
       </c>
       <c r="B7" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D7" s="64" t="inlineStr">
+        <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr"/>
-      <c r="E7" s="64" t="inlineStr"/>
       <c r="F7" s="64" t="inlineStr"/>
       <c r="G7" s="64" t="inlineStr"/>
       <c r="H7" s="64" t="inlineStr"/>
       <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n"/>
+      <c r="J7" s="64" t="inlineStr"/>
+      <c r="K7" s="64" t="inlineStr"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="65" t="inlineStr">
@@ -5614,22 +6926,30 @@
       </c>
       <c r="B8" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr"/>
-      <c r="E8" s="65" t="inlineStr"/>
       <c r="F8" s="65" t="inlineStr"/>
       <c r="G8" s="65" t="inlineStr"/>
       <c r="H8" s="65" t="inlineStr"/>
       <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n"/>
+      <c r="J8" s="65" t="inlineStr"/>
+      <c r="K8" s="65" t="inlineStr"/>
+      <c r="L8" s="65" t="n"/>
+      <c r="M8" s="65" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="64" t="inlineStr">
@@ -5639,22 +6959,30 @@
       </c>
       <c r="B9" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C9" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D9" s="64" t="inlineStr">
+        <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr"/>
-      <c r="E9" s="64" t="inlineStr"/>
       <c r="F9" s="64" t="inlineStr"/>
       <c r="G9" s="64" t="inlineStr"/>
       <c r="H9" s="64" t="inlineStr"/>
       <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
+      <c r="J9" s="64" t="inlineStr"/>
+      <c r="K9" s="64" t="inlineStr"/>
+      <c r="L9" s="64" t="n"/>
+      <c r="M9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="65" t="inlineStr">
@@ -5664,22 +6992,30 @@
       </c>
       <c r="B10" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C10" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D10" s="65" t="inlineStr">
+        <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr"/>
-      <c r="E10" s="65" t="inlineStr"/>
       <c r="F10" s="65" t="inlineStr"/>
       <c r="G10" s="65" t="inlineStr"/>
       <c r="H10" s="65" t="inlineStr"/>
       <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n"/>
+      <c r="J10" s="65" t="inlineStr"/>
+      <c r="K10" s="65" t="inlineStr"/>
+      <c r="L10" s="65" t="n"/>
+      <c r="M10" s="65" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="inlineStr">
@@ -5689,22 +7025,30 @@
       </c>
       <c r="B11" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C11" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D11" s="64" t="inlineStr">
+        <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr"/>
-      <c r="E11" s="64" t="inlineStr"/>
       <c r="F11" s="64" t="inlineStr"/>
       <c r="G11" s="64" t="inlineStr"/>
       <c r="H11" s="64" t="inlineStr"/>
       <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n"/>
+      <c r="J11" s="64" t="inlineStr"/>
+      <c r="K11" s="64" t="inlineStr"/>
+      <c r="L11" s="64" t="n"/>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="65" t="inlineStr">
@@ -5714,22 +7058,30 @@
       </c>
       <c r="B12" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C12" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D12" s="65" t="inlineStr">
+        <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr"/>
-      <c r="E12" s="65" t="inlineStr"/>
       <c r="F12" s="65" t="inlineStr"/>
       <c r="G12" s="65" t="inlineStr"/>
       <c r="H12" s="65" t="inlineStr"/>
       <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n"/>
+      <c r="J12" s="65" t="inlineStr"/>
+      <c r="K12" s="65" t="inlineStr"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="64" t="inlineStr">
@@ -5739,22 +7091,30 @@
       </c>
       <c r="B13" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C13" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D13" s="64" t="inlineStr">
+        <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr"/>
-      <c r="E13" s="64" t="inlineStr"/>
       <c r="F13" s="64" t="inlineStr"/>
       <c r="G13" s="64" t="inlineStr"/>
       <c r="H13" s="64" t="inlineStr"/>
       <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="n"/>
-      <c r="K13" s="64" t="n"/>
+      <c r="J13" s="64" t="inlineStr"/>
+      <c r="K13" s="64" t="inlineStr"/>
+      <c r="L13" s="64" t="n"/>
+      <c r="M13" s="64" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="65" t="inlineStr">
@@ -5764,22 +7124,30 @@
       </c>
       <c r="B14" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D14" s="65" t="inlineStr">
+        <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr"/>
-      <c r="E14" s="65" t="inlineStr"/>
       <c r="F14" s="65" t="inlineStr"/>
       <c r="G14" s="65" t="inlineStr"/>
       <c r="H14" s="65" t="inlineStr"/>
       <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="n"/>
-      <c r="K14" s="65" t="n"/>
+      <c r="J14" s="65" t="inlineStr"/>
+      <c r="K14" s="65" t="inlineStr"/>
+      <c r="L14" s="65" t="n"/>
+      <c r="M14" s="65" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="64" t="inlineStr">
@@ -5789,22 +7157,30 @@
       </c>
       <c r="B15" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C15" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D15" s="64" t="inlineStr">
+        <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr"/>
-      <c r="E15" s="64" t="inlineStr"/>
       <c r="F15" s="64" t="inlineStr"/>
       <c r="G15" s="64" t="inlineStr"/>
       <c r="H15" s="64" t="inlineStr"/>
       <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="n"/>
-      <c r="K15" s="64" t="n"/>
+      <c r="J15" s="64" t="inlineStr"/>
+      <c r="K15" s="64" t="inlineStr"/>
+      <c r="L15" s="64" t="n"/>
+      <c r="M15" s="64" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="65" t="inlineStr">
@@ -5814,22 +7190,30 @@
       </c>
       <c r="B16" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C16" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D16" s="65" t="inlineStr">
+        <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="E16" s="65" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr"/>
-      <c r="E16" s="65" t="inlineStr"/>
       <c r="F16" s="65" t="inlineStr"/>
       <c r="G16" s="65" t="inlineStr"/>
       <c r="H16" s="65" t="inlineStr"/>
       <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="n"/>
-      <c r="K16" s="65" t="n"/>
+      <c r="J16" s="65" t="inlineStr"/>
+      <c r="K16" s="65" t="inlineStr"/>
+      <c r="L16" s="65" t="n"/>
+      <c r="M16" s="65" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="64" t="inlineStr">
@@ -5839,22 +7223,30 @@
       </c>
       <c r="B17" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C17" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D17" s="64" t="inlineStr">
+        <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr"/>
-      <c r="E17" s="64" t="inlineStr"/>
       <c r="F17" s="64" t="inlineStr"/>
       <c r="G17" s="64" t="inlineStr"/>
       <c r="H17" s="64" t="inlineStr"/>
       <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="64" t="n"/>
+      <c r="J17" s="64" t="inlineStr"/>
+      <c r="K17" s="64" t="inlineStr"/>
+      <c r="L17" s="64" t="n"/>
+      <c r="M17" s="64" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -5864,22 +7256,30 @@
       </c>
       <c r="B18" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C18" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D18" s="65" t="inlineStr">
+        <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="E18" s="65" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr"/>
-      <c r="E18" s="65" t="inlineStr"/>
       <c r="F18" s="65" t="inlineStr"/>
       <c r="G18" s="65" t="inlineStr"/>
       <c r="H18" s="65" t="inlineStr"/>
       <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
+      <c r="J18" s="65" t="inlineStr"/>
+      <c r="K18" s="65" t="inlineStr"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="64" t="inlineStr">
@@ -5889,22 +7289,30 @@
       </c>
       <c r="B19" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C19" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D19" s="64" t="inlineStr">
+        <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr"/>
-      <c r="E19" s="64" t="inlineStr"/>
       <c r="F19" s="64" t="inlineStr"/>
       <c r="G19" s="64" t="inlineStr"/>
       <c r="H19" s="64" t="inlineStr"/>
       <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="n"/>
-      <c r="K19" s="64" t="n"/>
+      <c r="J19" s="64" t="inlineStr"/>
+      <c r="K19" s="64" t="inlineStr"/>
+      <c r="L19" s="64" t="n"/>
+      <c r="M19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="65" t="inlineStr">
@@ -5914,22 +7322,30 @@
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C20" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D20" s="65" t="inlineStr">
+        <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="E20" s="65" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr"/>
-      <c r="E20" s="65" t="inlineStr"/>
       <c r="F20" s="65" t="inlineStr"/>
       <c r="G20" s="65" t="inlineStr"/>
       <c r="H20" s="65" t="inlineStr"/>
       <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="n"/>
-      <c r="K20" s="65" t="n"/>
+      <c r="J20" s="65" t="inlineStr"/>
+      <c r="K20" s="65" t="inlineStr"/>
+      <c r="L20" s="65" t="n"/>
+      <c r="M20" s="65" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="64" t="inlineStr">
@@ -5939,22 +7355,30 @@
       </c>
       <c r="B21" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C21" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D21" s="64" t="inlineStr">
+        <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="E21" s="64" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr"/>
-      <c r="E21" s="64" t="inlineStr"/>
       <c r="F21" s="64" t="inlineStr"/>
       <c r="G21" s="64" t="inlineStr"/>
       <c r="H21" s="64" t="inlineStr"/>
       <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="n"/>
-      <c r="K21" s="64" t="n"/>
+      <c r="J21" s="64" t="inlineStr"/>
+      <c r="K21" s="64" t="inlineStr"/>
+      <c r="L21" s="64" t="n"/>
+      <c r="M21" s="64" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="65" t="inlineStr">
@@ -5964,22 +7388,30 @@
       </c>
       <c r="B22" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="E22" s="65" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr"/>
-      <c r="E22" s="65" t="inlineStr"/>
       <c r="F22" s="65" t="inlineStr"/>
       <c r="G22" s="65" t="inlineStr"/>
       <c r="H22" s="65" t="inlineStr"/>
       <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
+      <c r="J22" s="65" t="inlineStr"/>
+      <c r="K22" s="65" t="inlineStr"/>
+      <c r="L22" s="65" t="n"/>
+      <c r="M22" s="65" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="64" t="inlineStr">
@@ -5989,22 +7421,30 @@
       </c>
       <c r="B23" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D23" s="64" t="inlineStr">
+        <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="E23" s="64" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr"/>
-      <c r="E23" s="64" t="inlineStr"/>
       <c r="F23" s="64" t="inlineStr"/>
       <c r="G23" s="64" t="inlineStr"/>
       <c r="H23" s="64" t="inlineStr"/>
       <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="n"/>
-      <c r="K23" s="64" t="n"/>
+      <c r="J23" s="64" t="inlineStr"/>
+      <c r="K23" s="64" t="inlineStr"/>
+      <c r="L23" s="64" t="n"/>
+      <c r="M23" s="64" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="65" t="inlineStr">
@@ -6014,22 +7454,30 @@
       </c>
       <c r="B24" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="E24" s="65" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr"/>
-      <c r="E24" s="65" t="inlineStr"/>
       <c r="F24" s="65" t="inlineStr"/>
       <c r="G24" s="65" t="inlineStr"/>
       <c r="H24" s="65" t="inlineStr"/>
       <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
+      <c r="J24" s="65" t="inlineStr"/>
+      <c r="K24" s="65" t="inlineStr"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="64" t="inlineStr">
@@ -6039,22 +7487,30 @@
       </c>
       <c r="B25" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C25" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D25" s="64" t="inlineStr">
+        <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="E25" s="64" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr"/>
-      <c r="E25" s="64" t="inlineStr"/>
       <c r="F25" s="64" t="inlineStr"/>
       <c r="G25" s="64" t="inlineStr"/>
       <c r="H25" s="64" t="inlineStr"/>
       <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="n"/>
-      <c r="K25" s="64" t="n"/>
+      <c r="J25" s="64" t="inlineStr"/>
+      <c r="K25" s="64" t="inlineStr"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="65" t="inlineStr">
@@ -6064,22 +7520,30 @@
       </c>
       <c r="B26" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C26" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D26" s="65" t="inlineStr">
+        <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="E26" s="65" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr"/>
-      <c r="E26" s="65" t="inlineStr"/>
       <c r="F26" s="65" t="inlineStr"/>
       <c r="G26" s="65" t="inlineStr"/>
       <c r="H26" s="65" t="inlineStr"/>
       <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="n"/>
-      <c r="K26" s="65" t="n"/>
+      <c r="J26" s="65" t="inlineStr"/>
+      <c r="K26" s="65" t="inlineStr"/>
+      <c r="L26" s="65" t="n"/>
+      <c r="M26" s="65" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="64" t="inlineStr">
@@ -6089,22 +7553,30 @@
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="E27" s="64" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr"/>
-      <c r="E27" s="64" t="inlineStr"/>
       <c r="F27" s="64" t="inlineStr"/>
       <c r="G27" s="64" t="inlineStr"/>
       <c r="H27" s="64" t="inlineStr"/>
       <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="n"/>
-      <c r="K27" s="64" t="n"/>
+      <c r="J27" s="64" t="inlineStr"/>
+      <c r="K27" s="64" t="inlineStr"/>
+      <c r="L27" s="64" t="n"/>
+      <c r="M27" s="64" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="65" t="inlineStr">
@@ -6114,22 +7586,30 @@
       </c>
       <c r="B28" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C28" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D28" s="65" t="inlineStr">
+        <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr"/>
-      <c r="E28" s="65" t="inlineStr"/>
       <c r="F28" s="65" t="inlineStr"/>
       <c r="G28" s="65" t="inlineStr"/>
       <c r="H28" s="65" t="inlineStr"/>
       <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
+      <c r="J28" s="65" t="inlineStr"/>
+      <c r="K28" s="65" t="inlineStr"/>
+      <c r="L28" s="65" t="n"/>
+      <c r="M28" s="65" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="64" t="inlineStr">
@@ -6139,22 +7619,30 @@
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C29" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="E29" s="64" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr"/>
-      <c r="E29" s="64" t="inlineStr"/>
       <c r="F29" s="64" t="inlineStr"/>
       <c r="G29" s="64" t="inlineStr"/>
       <c r="H29" s="64" t="inlineStr"/>
       <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="n"/>
-      <c r="K29" s="64" t="n"/>
+      <c r="J29" s="64" t="inlineStr"/>
+      <c r="K29" s="64" t="inlineStr"/>
+      <c r="L29" s="64" t="n"/>
+      <c r="M29" s="64" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="65" t="inlineStr">
@@ -6164,22 +7652,30 @@
       </c>
       <c r="B30" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C30" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D30" s="65" t="inlineStr">
+        <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="E30" s="65" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr"/>
-      <c r="E30" s="65" t="inlineStr"/>
       <c r="F30" s="65" t="inlineStr"/>
       <c r="G30" s="65" t="inlineStr"/>
       <c r="H30" s="65" t="inlineStr"/>
       <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="n"/>
-      <c r="K30" s="65" t="n"/>
+      <c r="J30" s="65" t="inlineStr"/>
+      <c r="K30" s="65" t="inlineStr"/>
+      <c r="L30" s="65" t="n"/>
+      <c r="M30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="64" t="inlineStr">
@@ -6189,22 +7685,30 @@
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C31" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D31" s="64" t="inlineStr">
+        <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="E31" s="64" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr"/>
-      <c r="E31" s="64" t="inlineStr"/>
       <c r="F31" s="64" t="inlineStr"/>
       <c r="G31" s="64" t="inlineStr"/>
       <c r="H31" s="64" t="inlineStr"/>
       <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="n"/>
-      <c r="K31" s="64" t="n"/>
+      <c r="J31" s="64" t="inlineStr"/>
+      <c r="K31" s="64" t="inlineStr"/>
+      <c r="L31" s="64" t="n"/>
+      <c r="M31" s="64" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="65" t="inlineStr">
@@ -6214,22 +7718,30 @@
       </c>
       <c r="B32" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C32" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D32" s="65" t="inlineStr">
+        <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr"/>
-      <c r="E32" s="65" t="inlineStr"/>
       <c r="F32" s="65" t="inlineStr"/>
       <c r="G32" s="65" t="inlineStr"/>
       <c r="H32" s="65" t="inlineStr"/>
       <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="65" t="inlineStr"/>
+      <c r="K32" s="65" t="inlineStr"/>
+      <c r="L32" s="65" t="n"/>
+      <c r="M32" s="65" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="64" t="inlineStr">
@@ -6239,22 +7751,30 @@
       </c>
       <c r="B33" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D33" s="64" t="inlineStr">
+        <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="E33" s="64" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr"/>
-      <c r="E33" s="64" t="inlineStr"/>
       <c r="F33" s="64" t="inlineStr"/>
       <c r="G33" s="64" t="inlineStr"/>
       <c r="H33" s="64" t="inlineStr"/>
       <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="n"/>
-      <c r="K33" s="64" t="n"/>
+      <c r="J33" s="64" t="inlineStr"/>
+      <c r="K33" s="64" t="inlineStr"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="inlineStr">
@@ -6264,22 +7784,30 @@
       </c>
       <c r="B34" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D34" s="65" t="inlineStr">
+        <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr"/>
-      <c r="E34" s="65" t="inlineStr"/>
       <c r="F34" s="65" t="inlineStr"/>
       <c r="G34" s="65" t="inlineStr"/>
       <c r="H34" s="65" t="inlineStr"/>
       <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="n"/>
-      <c r="K34" s="65" t="n"/>
+      <c r="J34" s="65" t="inlineStr"/>
+      <c r="K34" s="65" t="inlineStr"/>
+      <c r="L34" s="65" t="n"/>
+      <c r="M34" s="65" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="64" t="inlineStr">
@@ -6289,22 +7817,30 @@
       </c>
       <c r="B35" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C35" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D35" s="64" t="inlineStr">
+        <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="E35" s="64" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr"/>
-      <c r="E35" s="64" t="inlineStr"/>
       <c r="F35" s="64" t="inlineStr"/>
       <c r="G35" s="64" t="inlineStr"/>
       <c r="H35" s="64" t="inlineStr"/>
       <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="n"/>
-      <c r="K35" s="64" t="n"/>
+      <c r="J35" s="64" t="inlineStr"/>
+      <c r="K35" s="64" t="inlineStr"/>
+      <c r="L35" s="64" t="n"/>
+      <c r="M35" s="64" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="65" t="inlineStr">
@@ -6314,22 +7850,30 @@
       </c>
       <c r="B36" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C36" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D36" s="65" t="inlineStr">
+        <is>
           <t>Eth1-33</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="E36" s="65" t="inlineStr">
         <is>
           <t>1/33</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr"/>
-      <c r="E36" s="65" t="inlineStr"/>
       <c r="F36" s="65" t="inlineStr"/>
       <c r="G36" s="65" t="inlineStr"/>
       <c r="H36" s="65" t="inlineStr"/>
       <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="n"/>
-      <c r="K36" s="65" t="n"/>
+      <c r="J36" s="65" t="inlineStr"/>
+      <c r="K36" s="65" t="inlineStr"/>
+      <c r="L36" s="65" t="n"/>
+      <c r="M36" s="65" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="64" t="inlineStr">
@@ -6339,22 +7883,30 @@
       </c>
       <c r="B37" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D37" s="64" t="inlineStr">
+        <is>
           <t>Eth1-34</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="E37" s="64" t="inlineStr">
         <is>
           <t>1/34</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr"/>
-      <c r="E37" s="64" t="inlineStr"/>
       <c r="F37" s="64" t="inlineStr"/>
       <c r="G37" s="64" t="inlineStr"/>
       <c r="H37" s="64" t="inlineStr"/>
       <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="n"/>
-      <c r="K37" s="64" t="n"/>
+      <c r="J37" s="64" t="inlineStr"/>
+      <c r="K37" s="64" t="inlineStr"/>
+      <c r="L37" s="64" t="n"/>
+      <c r="M37" s="64" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="65" t="inlineStr">
@@ -6364,22 +7916,30 @@
       </c>
       <c r="B38" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C38" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D38" s="65" t="inlineStr">
+        <is>
           <t>Eth1-35</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="E38" s="65" t="inlineStr">
         <is>
           <t>1/35</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr"/>
-      <c r="E38" s="65" t="inlineStr"/>
       <c r="F38" s="65" t="inlineStr"/>
       <c r="G38" s="65" t="inlineStr"/>
       <c r="H38" s="65" t="inlineStr"/>
       <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="n"/>
-      <c r="K38" s="65" t="n"/>
+      <c r="J38" s="65" t="inlineStr"/>
+      <c r="K38" s="65" t="inlineStr"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="64" t="inlineStr">
@@ -6389,22 +7949,30 @@
       </c>
       <c r="B39" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D39" s="64" t="inlineStr">
+        <is>
           <t>Eth1-36</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="E39" s="64" t="inlineStr">
         <is>
           <t>1/36</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr"/>
-      <c r="E39" s="64" t="inlineStr"/>
       <c r="F39" s="64" t="inlineStr"/>
       <c r="G39" s="64" t="inlineStr"/>
       <c r="H39" s="64" t="inlineStr"/>
       <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="n"/>
-      <c r="K39" s="64" t="n"/>
+      <c r="J39" s="64" t="inlineStr"/>
+      <c r="K39" s="64" t="inlineStr"/>
+      <c r="L39" s="64" t="n"/>
+      <c r="M39" s="64" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="65" t="inlineStr">
@@ -6414,22 +7982,30 @@
       </c>
       <c r="B40" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C40" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D40" s="65" t="inlineStr">
+        <is>
           <t>Eth1-37</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="E40" s="65" t="inlineStr">
         <is>
           <t>1/37</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr"/>
-      <c r="E40" s="65" t="inlineStr"/>
       <c r="F40" s="65" t="inlineStr"/>
       <c r="G40" s="65" t="inlineStr"/>
       <c r="H40" s="65" t="inlineStr"/>
       <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="n"/>
-      <c r="K40" s="65" t="n"/>
+      <c r="J40" s="65" t="inlineStr"/>
+      <c r="K40" s="65" t="inlineStr"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="64" t="inlineStr">
@@ -6439,22 +8015,30 @@
       </c>
       <c r="B41" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C41" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D41" s="64" t="inlineStr">
+        <is>
           <t>Eth1-38</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="E41" s="64" t="inlineStr">
         <is>
           <t>1/38</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr"/>
-      <c r="E41" s="64" t="inlineStr"/>
       <c r="F41" s="64" t="inlineStr"/>
       <c r="G41" s="64" t="inlineStr"/>
       <c r="H41" s="64" t="inlineStr"/>
       <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="n"/>
-      <c r="K41" s="64" t="n"/>
+      <c r="J41" s="64" t="inlineStr"/>
+      <c r="K41" s="64" t="inlineStr"/>
+      <c r="L41" s="64" t="n"/>
+      <c r="M41" s="64" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="65" t="inlineStr">
@@ -6464,22 +8048,30 @@
       </c>
       <c r="B42" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C42" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D42" s="65" t="inlineStr">
+        <is>
           <t>Eth1-39</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>1/39</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr"/>
-      <c r="E42" s="65" t="inlineStr"/>
       <c r="F42" s="65" t="inlineStr"/>
       <c r="G42" s="65" t="inlineStr"/>
       <c r="H42" s="65" t="inlineStr"/>
       <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="n"/>
-      <c r="K42" s="65" t="n"/>
+      <c r="J42" s="65" t="inlineStr"/>
+      <c r="K42" s="65" t="inlineStr"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="inlineStr">
@@ -6489,22 +8081,30 @@
       </c>
       <c r="B43" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C43" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D43" s="64" t="inlineStr">
+        <is>
           <t>Eth1-40</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="E43" s="64" t="inlineStr">
         <is>
           <t>1/40</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr"/>
-      <c r="E43" s="64" t="inlineStr"/>
       <c r="F43" s="64" t="inlineStr"/>
       <c r="G43" s="64" t="inlineStr"/>
       <c r="H43" s="64" t="inlineStr"/>
       <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="n"/>
-      <c r="K43" s="64" t="n"/>
+      <c r="J43" s="64" t="inlineStr"/>
+      <c r="K43" s="64" t="inlineStr"/>
+      <c r="L43" s="64" t="n"/>
+      <c r="M43" s="64" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="65" t="inlineStr">
@@ -6514,22 +8114,30 @@
       </c>
       <c r="B44" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C44" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D44" s="65" t="inlineStr">
+        <is>
           <t>Eth1-41</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="E44" s="65" t="inlineStr">
         <is>
           <t>1/41</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr"/>
-      <c r="E44" s="65" t="inlineStr"/>
       <c r="F44" s="65" t="inlineStr"/>
       <c r="G44" s="65" t="inlineStr"/>
       <c r="H44" s="65" t="inlineStr"/>
       <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="n"/>
-      <c r="K44" s="65" t="n"/>
+      <c r="J44" s="65" t="inlineStr"/>
+      <c r="K44" s="65" t="inlineStr"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="64" t="inlineStr">
@@ -6539,22 +8147,30 @@
       </c>
       <c r="B45" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D45" s="64" t="inlineStr">
+        <is>
           <t>Eth1-42</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="E45" s="64" t="inlineStr">
         <is>
           <t>1/42</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr"/>
-      <c r="E45" s="64" t="inlineStr"/>
       <c r="F45" s="64" t="inlineStr"/>
       <c r="G45" s="64" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="n"/>
-      <c r="K45" s="64" t="n"/>
+      <c r="J45" s="64" t="inlineStr"/>
+      <c r="K45" s="64" t="inlineStr"/>
+      <c r="L45" s="64" t="n"/>
+      <c r="M45" s="64" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="65" t="inlineStr">
@@ -6564,22 +8180,30 @@
       </c>
       <c r="B46" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C46" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D46" s="65" t="inlineStr">
+        <is>
           <t>Eth1-43</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>1/43</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr"/>
-      <c r="E46" s="65" t="inlineStr"/>
       <c r="F46" s="65" t="inlineStr"/>
       <c r="G46" s="65" t="inlineStr"/>
       <c r="H46" s="65" t="inlineStr"/>
       <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="n"/>
-      <c r="K46" s="65" t="n"/>
+      <c r="J46" s="65" t="inlineStr"/>
+      <c r="K46" s="65" t="inlineStr"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="64" t="inlineStr">
@@ -6589,22 +8213,30 @@
       </c>
       <c r="B47" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C47" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D47" s="64" t="inlineStr">
+        <is>
           <t>Eth1-44</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="E47" s="64" t="inlineStr">
         <is>
           <t>1/44</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr"/>
-      <c r="E47" s="64" t="inlineStr"/>
       <c r="F47" s="64" t="inlineStr"/>
       <c r="G47" s="64" t="inlineStr"/>
       <c r="H47" s="64" t="inlineStr"/>
       <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="n"/>
-      <c r="K47" s="64" t="n"/>
+      <c r="J47" s="64" t="inlineStr"/>
+      <c r="K47" s="64" t="inlineStr"/>
+      <c r="L47" s="64" t="n"/>
+      <c r="M47" s="64" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="65" t="inlineStr">
@@ -6614,22 +8246,30 @@
       </c>
       <c r="B48" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C48" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D48" s="65" t="inlineStr">
+        <is>
           <t>Eth1-45</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>1/45</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr"/>
-      <c r="E48" s="65" t="inlineStr"/>
       <c r="F48" s="65" t="inlineStr"/>
       <c r="G48" s="65" t="inlineStr"/>
       <c r="H48" s="65" t="inlineStr"/>
       <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="n"/>
-      <c r="K48" s="65" t="n"/>
+      <c r="J48" s="65" t="inlineStr"/>
+      <c r="K48" s="65" t="inlineStr"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="64" t="inlineStr">
@@ -6639,22 +8279,30 @@
       </c>
       <c r="B49" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C49" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D49" s="64" t="inlineStr">
+        <is>
           <t>Eth1-46</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="E49" s="64" t="inlineStr">
         <is>
           <t>1/46</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr"/>
-      <c r="E49" s="64" t="inlineStr"/>
       <c r="F49" s="64" t="inlineStr"/>
       <c r="G49" s="64" t="inlineStr"/>
       <c r="H49" s="64" t="inlineStr"/>
       <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
+      <c r="J49" s="64" t="inlineStr"/>
+      <c r="K49" s="64" t="inlineStr"/>
+      <c r="L49" s="64" t="n"/>
+      <c r="M49" s="64" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="65" t="inlineStr">
@@ -6664,22 +8312,30 @@
       </c>
       <c r="B50" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C50" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D50" s="65" t="inlineStr">
+        <is>
           <t>Eth1-47</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>1/47</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr"/>
-      <c r="E50" s="65" t="inlineStr"/>
       <c r="F50" s="65" t="inlineStr"/>
       <c r="G50" s="65" t="inlineStr"/>
       <c r="H50" s="65" t="inlineStr"/>
       <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="n"/>
-      <c r="K50" s="65" t="n"/>
+      <c r="J50" s="65" t="inlineStr"/>
+      <c r="K50" s="65" t="inlineStr"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="64" t="inlineStr">
@@ -6689,22 +8345,30 @@
       </c>
       <c r="B51" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D51" s="64" t="inlineStr">
+        <is>
           <t>Eth1-48</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="E51" s="64" t="inlineStr">
         <is>
           <t>1/48</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr"/>
-      <c r="E51" s="64" t="inlineStr"/>
       <c r="F51" s="64" t="inlineStr"/>
       <c r="G51" s="64" t="inlineStr"/>
       <c r="H51" s="64" t="inlineStr"/>
       <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
+      <c r="J51" s="64" t="inlineStr"/>
+      <c r="K51" s="64" t="inlineStr"/>
+      <c r="L51" s="64" t="n"/>
+      <c r="M51" s="64" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="65" t="inlineStr">
@@ -6714,22 +8378,30 @@
       </c>
       <c r="B52" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C52" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D52" s="65" t="inlineStr">
+        <is>
           <t>Eth1-49</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="E52" s="65" t="inlineStr">
         <is>
           <t>1/49</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr"/>
-      <c r="E52" s="65" t="inlineStr"/>
       <c r="F52" s="65" t="inlineStr"/>
       <c r="G52" s="65" t="inlineStr"/>
       <c r="H52" s="65" t="inlineStr"/>
       <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="n"/>
-      <c r="K52" s="65" t="n"/>
+      <c r="J52" s="65" t="inlineStr"/>
+      <c r="K52" s="65" t="inlineStr"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="64" t="inlineStr">
@@ -6739,22 +8411,30 @@
       </c>
       <c r="B53" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D53" s="64" t="inlineStr">
+        <is>
           <t>Eth1-50</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="E53" s="64" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr"/>
-      <c r="E53" s="64" t="inlineStr"/>
       <c r="F53" s="64" t="inlineStr"/>
       <c r="G53" s="64" t="inlineStr"/>
       <c r="H53" s="64" t="inlineStr"/>
       <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="n"/>
-      <c r="K53" s="64" t="n"/>
+      <c r="J53" s="64" t="inlineStr"/>
+      <c r="K53" s="64" t="inlineStr"/>
+      <c r="L53" s="64" t="n"/>
+      <c r="M53" s="64" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="65" t="inlineStr">
@@ -6764,22 +8444,30 @@
       </c>
       <c r="B54" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C54" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D54" s="65" t="inlineStr">
+        <is>
           <t>Eth1-51</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="E54" s="65" t="inlineStr">
         <is>
           <t>1/51</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr"/>
-      <c r="E54" s="65" t="inlineStr"/>
       <c r="F54" s="65" t="inlineStr"/>
       <c r="G54" s="65" t="inlineStr"/>
       <c r="H54" s="65" t="inlineStr"/>
       <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="65" t="n"/>
+      <c r="J54" s="65" t="inlineStr"/>
+      <c r="K54" s="65" t="inlineStr"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="64" t="inlineStr">
@@ -6789,22 +8477,30 @@
       </c>
       <c r="B55" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C55" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D55" s="64" t="inlineStr">
+        <is>
           <t>Eth1-52</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="E55" s="64" t="inlineStr">
         <is>
           <t>1/52</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr"/>
-      <c r="E55" s="64" t="inlineStr"/>
       <c r="F55" s="64" t="inlineStr"/>
       <c r="G55" s="64" t="inlineStr"/>
       <c r="H55" s="64" t="inlineStr"/>
       <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="n"/>
-      <c r="K55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr"/>
+      <c r="K55" s="64" t="inlineStr"/>
+      <c r="L55" s="64" t="n"/>
+      <c r="M55" s="64" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="65" t="inlineStr">
@@ -6814,22 +8510,30 @@
       </c>
       <c r="B56" s="65" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C56" s="65" t="n">
+        <v>202</v>
+      </c>
+      <c r="D56" s="65" t="inlineStr">
+        <is>
           <t>Eth1-53</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="E56" s="65" t="inlineStr">
         <is>
           <t>1/53</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr"/>
-      <c r="E56" s="65" t="inlineStr"/>
       <c r="F56" s="65" t="inlineStr"/>
       <c r="G56" s="65" t="inlineStr"/>
       <c r="H56" s="65" t="inlineStr"/>
       <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="n"/>
-      <c r="K56" s="65" t="n"/>
+      <c r="J56" s="65" t="inlineStr"/>
+      <c r="K56" s="65" t="inlineStr"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="64" t="inlineStr">
@@ -6839,36 +8543,44 @@
       </c>
       <c r="B57" s="64" t="inlineStr">
         <is>
+          <t>dc1-leaf202</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="n">
+        <v>202</v>
+      </c>
+      <c r="D57" s="64" t="inlineStr">
+        <is>
           <t>Eth1-54</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="E57" s="64" t="inlineStr">
         <is>
           <t>1/54</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr"/>
-      <c r="E57" s="64" t="inlineStr"/>
       <c r="F57" s="64" t="inlineStr"/>
       <c r="G57" s="64" t="inlineStr"/>
       <c r="H57" s="64" t="inlineStr"/>
       <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="n"/>
-      <c r="K57" s="64" t="n"/>
+      <c r="J57" s="64" t="inlineStr"/>
+      <c r="K57" s="64" t="inlineStr"/>
+      <c r="L57" s="64" t="n"/>
+      <c r="M57" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402D36B-60E1-4661-A441-73625695D45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0DF584-217A-4FE9-8C0A-6BB1D5D28F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15540" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1-spine101" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="293">
   <si>
     <t>dc1-spine101 Interface Selectors</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>lacp_Active</t>
+  </si>
+  <si>
+    <t>port-channel</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1412,7 @@
       <selection activeCell="F4" sqref="F4:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1423,7 +1426,7 @@
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1443,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1457,7 +1460,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1514,32 +1517,16 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1555,32 +1542,16 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1596,28 +1567,16 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="2">
-        <v>995</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1633,28 +1592,16 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L7" s="3">
-        <v>995</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1670,30 +1617,16 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1709,30 +1642,16 @@
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1748,30 +1667,16 @@
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="2">
-        <v>187</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1787,30 +1692,16 @@
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1826,30 +1717,16 @@
       <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2">
-        <v>9</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1865,30 +1742,16 @@
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1904,30 +1767,16 @@
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>9</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1943,30 +1792,16 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>9</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1982,30 +1817,16 @@
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2021,30 +1842,16 @@
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>13</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2069,7 +1876,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +1901,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -2119,7 +1926,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2144,7 +1951,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +1976,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -2194,7 +2001,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2219,7 +2026,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2244,7 +2051,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2269,7 +2076,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2101,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2319,7 +2126,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2151,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -2369,7 +2176,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2201,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -2419,7 +2226,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -2444,7 +2251,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2469,7 +2276,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2301,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2326,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2544,7 +2351,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2569,7 +2376,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -2594,7 +2401,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -2619,7 +2426,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2451,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -2669,7 +2476,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -2694,7 +2501,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -2719,7 +2526,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +2551,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2576,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -2794,7 +2601,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2626,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -2844,7 +2651,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -2869,7 +2676,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -2894,7 +2701,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -2919,7 +2726,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2944,7 +2751,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
@@ -2969,7 +2776,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -2994,7 +2801,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -3019,7 +2826,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -3044,7 +2851,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>15</v>
       </c>
@@ -3069,7 +2876,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3094,7 +2901,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
@@ -3119,7 +2926,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>15</v>
       </c>
@@ -3144,7 +2951,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
@@ -3169,7 +2976,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3001,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -3219,7 +3026,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -3244,7 +3051,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
@@ -3269,7 +3076,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3294,7 +3101,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -3319,7 +3126,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -3344,7 +3151,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
@@ -3369,7 +3176,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -3394,7 +3201,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -3419,7 +3226,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
@@ -3444,7 +3251,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -3469,7 +3276,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3301,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>15</v>
       </c>
@@ -3519,7 +3326,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>15</v>
       </c>
@@ -3544,7 +3351,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>15</v>
       </c>
@@ -3569,7 +3376,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
@@ -3594,7 +3401,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3426,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3451,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>15</v>
       </c>
@@ -3669,7 +3476,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -3694,7 +3501,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>15</v>
       </c>
@@ -3719,7 +3526,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
@@ -3744,7 +3551,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3576,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
@@ -3794,7 +3601,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -3819,7 +3626,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -3844,7 +3651,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>15</v>
       </c>
@@ -3869,7 +3676,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3701,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +3726,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>15</v>
       </c>
@@ -3944,7 +3751,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
@@ -3969,7 +3776,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -3994,7 +3801,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
@@ -4019,7 +3826,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
@@ -4044,7 +3851,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
@@ -4069,7 +3876,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4094,7 +3901,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>15</v>
       </c>
@@ -4119,7 +3926,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -4144,7 +3951,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>15</v>
       </c>
@@ -4169,7 +3976,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
@@ -4218,11 +4025,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4233,10 +4040,10 @@
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>217</v>
       </c>
@@ -4253,7 +4060,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -4270,7 +4077,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4311,7 +4118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4352,7 +4159,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -4372,7 +4179,7 @@
         <v>265</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>291</v>
@@ -4393,7 +4200,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4430,7 +4237,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -4467,7 +4274,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4508,7 +4315,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -4549,7 +4356,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4590,7 +4397,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -4631,7 +4438,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4672,7 +4479,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4713,7 +4520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -4754,7 +4561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -4795,7 +4602,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4836,7 +4643,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -4877,7 +4684,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -4902,7 +4709,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -4927,7 +4734,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -4952,7 +4759,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4977,7 +4784,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -5002,7 +4809,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -5027,7 +4834,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -5052,7 +4859,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -5077,7 +4884,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5102,7 +4909,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -5127,7 +4934,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -5152,7 +4959,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -5177,7 +4984,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -5202,7 +5009,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5034,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -5252,7 +5059,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -5277,7 +5084,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -5302,7 +5109,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5134,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -5352,7 +5159,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -5377,7 +5184,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -5402,7 +5209,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -5427,7 +5234,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -5452,7 +5259,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -5477,7 +5284,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -5502,7 +5309,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +5334,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -5552,7 +5359,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -5577,7 +5384,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -5602,7 +5409,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -5627,7 +5434,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -5652,7 +5459,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -5677,7 +5484,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -5702,7 +5509,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -5727,7 +5534,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -5752,7 +5559,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -5777,7 +5584,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
@@ -5802,7 +5609,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -5827,7 +5634,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -5852,7 +5659,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -5882,7 +5689,7 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
@@ -5892,6 +5699,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H57" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{F9CB3433-69D4-4769-8123-01A913E9E23A}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5901,11 +5709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -5916,10 +5724,10 @@
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>263</v>
       </c>
@@ -5936,7 +5744,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -5953,7 +5761,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5994,7 +5802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6035,7 +5843,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -6076,7 +5884,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -6113,7 +5921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -6150,7 +5958,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -6191,7 +5999,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -6232,7 +6040,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -6273,7 +6081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -6314,7 +6122,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -6355,7 +6163,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -6396,7 +6204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -6437,7 +6245,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -6478,7 +6286,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -6519,7 +6327,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -6560,7 +6368,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -6585,7 +6393,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +6418,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -6635,7 +6443,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -6660,7 +6468,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -6685,7 +6493,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -6710,7 +6518,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -6735,7 +6543,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -6760,7 +6568,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -6785,7 +6593,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6618,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -6835,7 +6643,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -6860,7 +6668,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -6885,7 +6693,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -6910,7 +6718,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -6935,7 +6743,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -6960,7 +6768,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -6985,7 +6793,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -7010,7 +6818,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -7035,7 +6843,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -7060,7 +6868,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -7085,7 +6893,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -7110,7 +6918,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -7135,7 +6943,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -7160,7 +6968,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -7185,7 +6993,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -7210,7 +7018,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -7235,7 +7043,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -7260,7 +7068,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -7285,7 +7093,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -7310,7 +7118,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -7335,7 +7143,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -7360,7 +7168,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -7385,7 +7193,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -7410,7 +7218,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -7435,7 +7243,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -7460,7 +7268,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
@@ -7485,7 +7293,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -7510,7 +7318,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -7535,7 +7343,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0DF584-217A-4FE9-8C0A-6BB1D5D28F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6AECF-865F-47DD-9A28-40EEC41F75F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15540" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15540" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1-spine101" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,20 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="DSCP">[1]formulas!$J$2:$J$24</definedName>
     <definedName name="leaf">[1]formulas!$B$2:$B$18</definedName>
     <definedName name="spine">[1]formulas!$C$2:$C$12</definedName>
     <definedName name="spine_modules">[1]formulas!$F$2:$F$8</definedName>
     <definedName name="spine_type">[1]formulas!$E$2:$E$5</definedName>
     <definedName name="switch_role">[1]formulas!$A$2:$A$3</definedName>
+    <definedName name="tag">[1]formulas!$I$2:$I$141</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="292">
   <si>
     <t>dc1-spine101 Interface Selectors</t>
   </si>
@@ -43,12 +45,15 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Pod_ID</t>
+  </si>
+  <si>
+    <t>Node_ID</t>
+  </si>
+  <si>
     <t>Switch_Name</t>
   </si>
   <si>
-    <t>Node_ID</t>
-  </si>
-  <si>
     <t>Interface_Selector</t>
   </si>
   <si>
@@ -835,69 +840,69 @@
     <t>vpc</t>
   </si>
   <si>
+    <t>lacp_Active</t>
+  </si>
+  <si>
+    <t>r143b-fp01-Eth1/1</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>998-999</t>
+  </si>
+  <si>
+    <t>r143c-fp01-Eth1/1</t>
+  </si>
+  <si>
     <t>individual</t>
   </si>
   <si>
+    <t>143c-lab-gw1-Te0/0/4</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>143c-lab-gw1-Te0/0/5</t>
+  </si>
+  <si>
     <t>auto_jumbo</t>
   </si>
   <si>
+    <t>r143c-netapp01-ct0-m0</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct0-m1</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct1-m0</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct1-m1</t>
+  </si>
+  <si>
+    <t>1-994,997,999-4094</t>
+  </si>
+  <si>
+    <t>asgard-ucs-a-Eth1/97</t>
+  </si>
+  <si>
+    <t>asgard-ucs-a-Eth1/98</t>
+  </si>
+  <si>
+    <t>asgard-ucs-b-Eth1/97</t>
+  </si>
+  <si>
+    <t>169,811-812,3960,3963,3965-3967</t>
+  </si>
+  <si>
+    <t>asgard-ucs-b-Eth1/98</t>
+  </si>
+  <si>
     <t>auto_network</t>
   </si>
   <si>
-    <t>r143b-fp01-Eth1/1</t>
-  </si>
-  <si>
-    <t>trunk</t>
-  </si>
-  <si>
-    <t>998-999</t>
-  </si>
-  <si>
-    <t>r143c-fp01-Eth1/1</t>
-  </si>
-  <si>
-    <t>143c-lab-gw1-Te0/0/4</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>143c-lab-gw1-Te0/0/5</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct0-m0</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct0-m1</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct1-m0</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct1-m1</t>
-  </si>
-  <si>
-    <t>1-994,997,999-4094</t>
-  </si>
-  <si>
-    <t>asgard-ucs-a-Eth1/97</t>
-  </si>
-  <si>
-    <t>asgard-ucs-a-Eth1/98</t>
-  </si>
-  <si>
-    <t>asgard-ucs-b-Eth1/97</t>
-  </si>
-  <si>
-    <t>169,811-812,3960,3963,3965-3967</t>
-  </si>
-  <si>
-    <t>asgard-ucs-b-Eth1/98</t>
-  </si>
-  <si>
     <t>asgard-leaf101-Eth1/49</t>
   </si>
   <si>
@@ -905,12 +910,6 @@
   </si>
   <si>
     <t>asgard-leaf102-Eth1/50</t>
-  </si>
-  <si>
-    <t>lacp_Active</t>
-  </si>
-  <si>
-    <t>port-channel</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1051,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,6 +1071,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1406,27 +1411,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M17"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1442,8 +1446,9 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.35">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1459,8 +1464,9 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1500,13 +1506,16 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>101</v>
@@ -1517,7 +1526,9 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1525,24 +1536,27 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1550,24 +1564,27 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1575,24 +1592,27 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1600,24 +1620,27 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1625,24 +1648,27 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1650,24 +1676,27 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1675,24 +1704,27 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1700,24 +1732,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1725,24 +1760,27 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1750,24 +1788,27 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1775,24 +1816,27 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1800,24 +1844,27 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1825,24 +1872,27 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1850,24 +1900,27 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1875,24 +1928,27 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1900,24 +1956,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1925,24 +1984,27 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1950,24 +2012,27 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1975,24 +2040,27 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2000,24 +2068,27 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2025,24 +2096,27 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>101</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2050,24 +2124,27 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2075,24 +2152,27 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>101</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2100,24 +2180,27 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2125,24 +2208,27 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>101</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2150,24 +2236,27 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2175,24 +2264,27 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>101</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2200,24 +2292,27 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2225,24 +2320,27 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>101</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2250,24 +2348,27 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2275,24 +2376,27 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
       </c>
       <c r="C35" s="3">
         <v>101</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2300,24 +2404,27 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>101</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2325,24 +2432,27 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>101</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2350,24 +2460,27 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
       <c r="C38" s="2">
         <v>101</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2375,24 +2488,27 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
       </c>
       <c r="C39" s="3">
         <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2400,24 +2516,27 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2425,24 +2544,27 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="3">
         <v>101</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2450,24 +2572,27 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
       </c>
       <c r="C42" s="2">
         <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2475,24 +2600,27 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
       </c>
       <c r="C43" s="3">
         <v>101</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2500,24 +2628,27 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>101</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2525,24 +2656,27 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
       </c>
       <c r="C45" s="3">
         <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2550,24 +2684,27 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2575,24 +2712,27 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
       </c>
       <c r="C47" s="3">
         <v>101</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2600,24 +2740,27 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>101</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2625,24 +2768,27 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
       </c>
       <c r="C49" s="3">
         <v>101</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2650,24 +2796,27 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
       </c>
       <c r="C50" s="2">
         <v>101</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2675,24 +2824,27 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2700,24 +2852,27 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
       </c>
       <c r="C52" s="2">
         <v>101</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2725,24 +2880,27 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
       </c>
       <c r="C53" s="3">
         <v>101</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2750,24 +2908,27 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
       </c>
       <c r="C54" s="2">
         <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2775,24 +2936,27 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
       </c>
       <c r="C55" s="3">
         <v>101</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2800,24 +2964,27 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <v>101</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2825,24 +2992,27 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
       </c>
       <c r="C57" s="3">
         <v>101</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2850,24 +3020,27 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
       </c>
       <c r="C58" s="2">
         <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2875,24 +3048,27 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
       </c>
       <c r="C59" s="3">
         <v>101</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -2900,24 +3076,27 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
       </c>
       <c r="C60" s="2">
         <v>101</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2925,24 +3104,27 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
       </c>
       <c r="C61" s="3">
         <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -2950,24 +3132,27 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
       </c>
       <c r="C62" s="2">
         <v>101</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2975,24 +3160,27 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
       </c>
       <c r="C63" s="3">
         <v>101</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -3000,24 +3188,27 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
       </c>
       <c r="C64" s="2">
         <v>101</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3025,24 +3216,27 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
       </c>
       <c r="C65" s="3">
         <v>101</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -3050,24 +3244,27 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
       </c>
       <c r="C66" s="2">
         <v>101</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3075,24 +3272,27 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
       </c>
       <c r="C67" s="3">
         <v>101</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -3100,24 +3300,27 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
       </c>
       <c r="C68" s="2">
         <v>101</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3125,24 +3328,27 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
       </c>
       <c r="C69" s="3">
         <v>101</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -3150,24 +3356,27 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
       </c>
       <c r="C70" s="2">
         <v>101</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3175,24 +3384,27 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
       </c>
       <c r="C71" s="3">
         <v>101</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -3200,24 +3412,27 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
       </c>
       <c r="C72" s="2">
         <v>101</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3225,24 +3440,27 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
       </c>
       <c r="C73" s="3">
         <v>101</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -3250,24 +3468,27 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
       </c>
       <c r="C74" s="2">
         <v>101</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3275,24 +3496,27 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
       </c>
       <c r="C75" s="3">
         <v>101</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -3300,24 +3524,27 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
       </c>
       <c r="C76" s="2">
         <v>101</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3325,24 +3552,27 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
       </c>
       <c r="C77" s="3">
         <v>101</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -3350,24 +3580,27 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
       </c>
       <c r="C78" s="2">
         <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3375,24 +3608,27 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
       </c>
       <c r="C79" s="3">
         <v>101</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -3400,24 +3636,27 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
       </c>
       <c r="C80" s="2">
         <v>101</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3425,24 +3664,27 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
       </c>
       <c r="C81" s="3">
         <v>101</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -3450,24 +3692,27 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
       </c>
       <c r="C82" s="2">
         <v>101</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3475,24 +3720,27 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
       </c>
       <c r="C83" s="3">
         <v>101</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -3500,24 +3748,27 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
       </c>
       <c r="C84" s="2">
         <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3525,24 +3776,27 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
       </c>
       <c r="C85" s="3">
         <v>101</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -3550,24 +3804,27 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
       </c>
       <c r="C86" s="2">
         <v>101</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -3575,24 +3832,27 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
       </c>
       <c r="C87" s="3">
         <v>101</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -3600,24 +3860,27 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
       </c>
       <c r="C88" s="2">
         <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3625,24 +3888,27 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
       </c>
       <c r="C89" s="3">
         <v>101</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -3650,24 +3916,27 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
       </c>
       <c r="C90" s="2">
         <v>101</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -3675,24 +3944,27 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
       </c>
       <c r="C91" s="3">
         <v>101</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -3700,24 +3972,27 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
       </c>
       <c r="C92" s="2">
         <v>101</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3725,24 +4000,27 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
       </c>
       <c r="C93" s="3">
         <v>101</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -3750,24 +4028,27 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
       </c>
       <c r="C94" s="2">
         <v>101</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3775,24 +4056,27 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
       </c>
       <c r="C95" s="3">
         <v>101</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -3800,24 +4084,27 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
       </c>
       <c r="C96" s="2">
         <v>101</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3825,24 +4112,27 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
       </c>
       <c r="C97" s="3">
         <v>101</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -3850,24 +4140,27 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
       </c>
       <c r="C98" s="2">
         <v>101</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3875,24 +4168,27 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
       </c>
       <c r="C99" s="3">
         <v>101</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -3900,24 +4196,27 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
       </c>
       <c r="C100" s="2">
         <v>101</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3925,24 +4224,27 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
       </c>
       <c r="C101" s="3">
         <v>101</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -3950,24 +4252,27 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
       </c>
       <c r="C102" s="2">
         <v>101</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3975,24 +4280,27 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
       </c>
       <c r="C103" s="3">
         <v>101</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -4000,20 +4308,21 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69 G70 G71 G72 G73 G74 G75 G76 G77 G78 G79 G80 G81 G82 G83 G84 G85 G86 G87 G88 G89 G90 G91 G92 G93 G94 G95 G96 G97 G98 G99 G100 G101 G102 G103" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4023,29 +4332,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4059,8 +4367,9 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.35">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -4076,8 +4385,9 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4117,590 +4427,627 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>201</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="8">
         <v>995</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="9">
         <v>995</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>201</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="9">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="J10" s="8">
         <v>7</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="8">
         <v>187</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>201</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="J11" s="9">
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>201</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="J12" s="8">
         <v>9</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>201</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="9">
         <v>9</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="L13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="J14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>201</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="9">
         <v>9</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I16" s="2">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="8">
         <v>13</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>201</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" s="9">
+        <v>13</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I17" s="3">
-        <v>13</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="L17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>201</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4708,24 +5055,27 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>201</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -4733,24 +5083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>201</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -4758,24 +5111,27 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>201</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4783,24 +5139,27 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>201</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -4808,24 +5167,27 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>201</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -4833,24 +5195,27 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>201</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -4858,24 +5223,27 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>201</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4883,24 +5251,27 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>201</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4908,24 +5279,27 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>201</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -4933,24 +5307,27 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>201</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -4958,24 +5335,27 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>201</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -4983,24 +5363,27 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -5008,24 +5391,27 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>201</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -5033,24 +5419,27 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>201</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -5058,24 +5447,27 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>201</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -5083,24 +5475,27 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -5108,24 +5503,27 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
       </c>
       <c r="C35" s="3">
         <v>201</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -5133,13 +5531,14 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>201</v>
@@ -5150,7 +5549,9 @@
       <c r="E36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -5158,24 +5559,27 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>201</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -5183,24 +5587,27 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
       <c r="C38" s="2">
         <v>201</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -5208,24 +5615,27 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
       </c>
       <c r="C39" s="3">
         <v>201</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -5233,24 +5643,27 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -5258,24 +5671,27 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="3">
         <v>201</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -5283,24 +5699,27 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
       </c>
       <c r="C42" s="2">
         <v>201</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -5308,24 +5727,27 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
       </c>
       <c r="C43" s="3">
         <v>201</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -5333,24 +5755,27 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>201</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -5358,24 +5783,27 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
       </c>
       <c r="C45" s="3">
         <v>201</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -5383,24 +5811,27 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -5408,24 +5839,27 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
       </c>
       <c r="C47" s="3">
         <v>201</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -5433,24 +5867,27 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>201</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -5458,24 +5895,27 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
       </c>
       <c r="C49" s="3">
         <v>201</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -5483,24 +5923,27 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
       </c>
       <c r="C50" s="2">
         <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -5508,24 +5951,27 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>201</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -5533,24 +5979,27 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
       </c>
       <c r="C52" s="2">
         <v>201</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -5558,24 +6007,27 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
       </c>
       <c r="C53" s="3">
         <v>201</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -5583,24 +6035,27 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
       </c>
       <c r="C54" s="2">
         <v>201</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -5608,24 +6063,27 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
       </c>
       <c r="C55" s="3">
         <v>201</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -5633,24 +6091,27 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <v>201</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -5658,24 +6119,27 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
       </c>
       <c r="C57" s="3">
         <v>201</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -5683,23 +6147,23 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4:G57" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H57" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H57" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I57" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{F9CB3433-69D4-4769-8123-01A913E9E23A}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5707,29 +6171,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5743,8 +6206,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.35">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -5760,8 +6224,9 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5801,590 +6266,627 @@
       <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="H5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>202</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="8">
         <v>995</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>202</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="9">
         <v>995</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="9">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="J10" s="8">
         <v>7</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="8">
         <v>187</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>202</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="J11" s="9">
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="J12" s="8">
         <v>9</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="9">
         <v>9</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="L13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="J14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>202</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="9">
         <v>9</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I16" s="2">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="8">
         <v>13</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>202</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" s="9">
+        <v>13</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I17" s="3">
-        <v>13</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="L17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6392,24 +6894,27 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>202</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -6417,24 +6922,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -6442,24 +6950,27 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>202</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -6467,24 +6978,27 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>202</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -6492,24 +7006,27 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>202</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -6517,24 +7034,27 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>202</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -6542,24 +7062,27 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>202</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -6567,24 +7090,27 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>202</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -6592,24 +7118,27 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>202</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -6617,24 +7146,27 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>202</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -6642,24 +7174,27 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>202</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6667,24 +7202,27 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>202</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -6692,24 +7230,27 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>202</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6717,24 +7258,27 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>202</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -6742,24 +7286,27 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>202</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -6767,24 +7314,27 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>202</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -6792,24 +7342,27 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
       </c>
       <c r="C35" s="3">
         <v>202</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -6817,24 +7370,27 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>202</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -6842,24 +7398,27 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>202</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -6867,24 +7426,27 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
       <c r="C38" s="2">
         <v>202</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -6892,24 +7454,27 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
       </c>
       <c r="C39" s="3">
         <v>202</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -6917,24 +7482,27 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>202</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -6942,24 +7510,27 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="3">
         <v>202</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -6967,24 +7538,27 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
       </c>
       <c r="C42" s="2">
         <v>202</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -6992,24 +7566,27 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
       </c>
       <c r="C43" s="3">
         <v>202</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -7017,24 +7594,27 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>202</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -7042,24 +7622,27 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
       </c>
       <c r="C45" s="3">
         <v>202</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -7067,24 +7650,27 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>202</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -7092,24 +7678,27 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
       </c>
       <c r="C47" s="3">
         <v>202</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -7117,24 +7706,27 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>202</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -7142,24 +7734,27 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
       </c>
       <c r="C49" s="3">
         <v>202</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -7167,24 +7762,27 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
       </c>
       <c r="C50" s="2">
         <v>202</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -7192,24 +7790,27 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -7217,24 +7818,27 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
       </c>
       <c r="C52" s="2">
         <v>202</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -7242,24 +7846,27 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
       </c>
       <c r="C53" s="3">
         <v>202</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -7267,24 +7874,27 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
       </c>
       <c r="C54" s="2">
         <v>202</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -7292,24 +7902,27 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
       </c>
       <c r="C55" s="3">
         <v>202</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -7317,24 +7930,27 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <v>202</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -7342,24 +7958,27 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
       </c>
       <c r="C57" s="3">
         <v>202</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -7367,27 +7986,28 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A57" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G57" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H57" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H57" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I57" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H17" xr:uid="{B37C5F73-D7D7-49A1-ADBC-EF9E395F59C0}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H17" xr:uid="{5126C79E-38F3-4749-953C-F6FAB4AB7360}">
+      <formula1>"access,breakout,port-channel,vpc"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I17" xr:uid="{9CA0112F-F5CB-4C3B-814E-311F4A1ACEA0}">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G4:G17" xr:uid="{A61925D6-626C-4A96-92C3-4274A7A37E4F}">
-      <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6AECF-865F-47DD-9A28-40EEC41F75F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FCFA8A-6CDD-4B07-B013-A5A94BD2E193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15540" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1-spine101" sheetId="1" r:id="rId1"/>
@@ -1065,18 +1065,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1431,40 +1431,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4335,7 +4335,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:N17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4348,44 +4348,44 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4450,28 +4450,28 @@
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4494,28 +4494,28 @@
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4538,24 +4538,24 @@
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <v>995</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -4576,24 +4576,24 @@
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <v>995</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -4614,28 +4614,28 @@
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8"/>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4656,28 +4656,28 @@
       <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>5</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="9"/>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -4698,28 +4698,28 @@
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <v>7</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <v>187</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -4740,28 +4740,28 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>7</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="9">
-        <v>1</v>
-      </c>
-      <c r="N11" s="9" t="s">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4784,28 +4784,28 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>9</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4828,28 +4828,28 @@
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>9</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
         <v>64</v>
       </c>
     </row>
@@ -4872,28 +4872,28 @@
       <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <v>9</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4916,28 +4916,28 @@
       <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>9</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4960,28 +4960,28 @@
       <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>13</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5004,28 +5004,28 @@
       <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>13</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M17" s="9">
-        <v>1</v>
-      </c>
-      <c r="N17" s="9" t="s">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:N17"/>
+      <selection activeCell="N4" sqref="N4:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6187,44 +6187,44 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -6289,28 +6289,28 @@
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6333,28 +6333,28 @@
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6377,24 +6377,24 @@
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <v>995</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -6415,24 +6415,24 @@
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <v>995</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -6453,28 +6453,28 @@
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8"/>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -6495,28 +6495,28 @@
       <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>5</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="9"/>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -6537,28 +6537,28 @@
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <v>7</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <v>187</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -6579,28 +6579,28 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>7</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="9">
-        <v>1</v>
-      </c>
-      <c r="N11" s="9" t="s">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6623,28 +6623,28 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>9</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6667,28 +6667,28 @@
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>9</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
         <v>64</v>
       </c>
     </row>
@@ -6711,28 +6711,28 @@
       <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <v>9</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6755,28 +6755,28 @@
       <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>9</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6799,28 +6799,28 @@
       <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>13</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6843,28 +6843,28 @@
       <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>13</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M17" s="9">
-        <v>1</v>
-      </c>
-      <c r="N17" s="9" t="s">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>290</v>
       </c>
     </row>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FCFA8A-6CDD-4B07-B013-A5A94BD2E193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CBF368-40E3-47EF-BC54-4D4613177956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1-spine101" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="293">
   <si>
     <t>dc1-spine101 Interface Selectors</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>asgard-leaf102-Eth1/50</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A4" sqref="A4:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4334,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4623,8 +4626,8 @@
       <c r="I8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="5">
-        <v>5</v>
+      <c r="J8" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>278</v>
@@ -6173,7 +6176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4:N17"/>
     </sheetView>
   </sheetViews>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CBF368-40E3-47EF-BC54-4D4613177956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221B05E-E3F6-4F97-B95E-1B502BBA9B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1-spine101" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="292">
   <si>
     <t>dc1-spine101 Interface Selectors</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Node_ID</t>
   </si>
   <si>
-    <t>Switch_Name</t>
-  </si>
-  <si>
     <t>Interface_Selector</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Port_Type</t>
   </si>
   <si>
-    <t>LACP</t>
-  </si>
-  <si>
     <t>Bundle_ID</t>
   </si>
   <si>
@@ -834,15 +828,9 @@
     <t>dc1-leaf202</t>
   </si>
   <si>
-    <t>auto_1500</t>
-  </si>
-  <si>
     <t>vpc</t>
   </si>
   <si>
-    <t>lacp_Active</t>
-  </si>
-  <si>
     <t>r143b-fp01-Eth1/1</t>
   </si>
   <si>
@@ -867,9 +855,6 @@
     <t>143c-lab-gw1-Te0/0/5</t>
   </si>
   <si>
-    <t>auto_jumbo</t>
-  </si>
-  <si>
     <t>r143c-netapp01-ct0-m0</t>
   </si>
   <si>
@@ -900,9 +885,6 @@
     <t>asgard-ucs-b-Eth1/98</t>
   </si>
   <si>
-    <t>auto_network</t>
-  </si>
-  <si>
     <t>asgard-leaf101-Eth1/49</t>
   </si>
   <si>
@@ -913,6 +895,21 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>trunkPort</t>
+  </si>
+  <si>
+    <t>accessPort</t>
+  </si>
+  <si>
+    <t>Interface_Profile</t>
+  </si>
+  <si>
+    <t>LACP_Policy</t>
+  </si>
+  <si>
+    <t>lacpActive</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1451,7 +1448,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -1469,7 +1466,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1480,61 +1477,61 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>101</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1552,17 +1549,17 @@
         <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1580,17 +1577,17 @@
         <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1599,7 +1596,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1608,17 +1605,17 @@
         <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1636,17 +1633,17 @@
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1664,17 +1661,17 @@
         <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1692,17 +1689,17 @@
         <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1720,17 +1717,17 @@
         <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1739,7 +1736,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1748,17 +1745,17 @@
         <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1776,17 +1773,17 @@
         <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1795,7 +1792,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1804,17 +1801,17 @@
         <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1832,17 +1829,17 @@
         <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1851,7 +1848,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1860,17 +1857,17 @@
         <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1879,7 +1876,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1888,17 +1885,17 @@
         <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1916,17 +1913,17 @@
         <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1944,17 +1941,17 @@
         <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1963,7 +1960,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1972,17 +1969,17 @@
         <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -2000,17 +1997,17 @@
         <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2019,7 +2016,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -2028,17 +2025,17 @@
         <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2056,17 +2053,17 @@
         <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -2084,17 +2081,17 @@
         <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2112,17 +2109,17 @@
         <v>101</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2131,7 +2128,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -2140,17 +2137,17 @@
         <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2168,17 +2165,17 @@
         <v>101</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -2196,17 +2193,17 @@
         <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -2224,17 +2221,17 @@
         <v>101</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -2252,17 +2249,17 @@
         <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2271,7 +2268,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -2280,17 +2277,17 @@
         <v>101</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2299,7 +2296,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -2308,17 +2305,17 @@
         <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2327,7 +2324,7 @@
     </row>
     <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2336,17 +2333,17 @@
         <v>101</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2364,17 +2361,17 @@
         <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2383,7 +2380,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -2392,17 +2389,17 @@
         <v>101</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -2420,17 +2417,17 @@
         <v>101</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -2448,17 +2445,17 @@
         <v>101</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -2476,17 +2473,17 @@
         <v>101</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2495,7 +2492,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -2504,17 +2501,17 @@
         <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2523,7 +2520,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -2532,17 +2529,17 @@
         <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2560,17 +2557,17 @@
         <v>101</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2579,7 +2576,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2588,17 +2585,17 @@
         <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -2616,17 +2613,17 @@
         <v>101</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -2644,17 +2641,17 @@
         <v>101</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2663,7 +2660,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -2672,17 +2669,17 @@
         <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2691,7 +2688,7 @@
     </row>
     <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -2700,17 +2697,17 @@
         <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -2719,7 +2716,7 @@
     </row>
     <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2728,17 +2725,17 @@
         <v>101</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -2756,17 +2753,17 @@
         <v>101</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -2775,7 +2772,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2784,17 +2781,17 @@
         <v>101</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -2812,17 +2809,17 @@
         <v>101</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2840,17 +2837,17 @@
         <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2859,7 +2856,7 @@
     </row>
     <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -2868,17 +2865,17 @@
         <v>101</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -2887,7 +2884,7 @@
     </row>
     <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2896,17 +2893,17 @@
         <v>101</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -2924,17 +2921,17 @@
         <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2943,7 +2940,7 @@
     </row>
     <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2952,17 +2949,17 @@
         <v>101</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2971,7 +2968,7 @@
     </row>
     <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -2980,17 +2977,17 @@
         <v>101</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -2999,7 +2996,7 @@
     </row>
     <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -3008,17 +3005,17 @@
         <v>101</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3027,7 +3024,7 @@
     </row>
     <row r="58" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -3036,17 +3033,17 @@
         <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="59" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -3064,17 +3061,17 @@
         <v>101</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3083,7 +3080,7 @@
     </row>
     <row r="60" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -3092,17 +3089,17 @@
         <v>101</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3111,7 +3108,7 @@
     </row>
     <row r="61" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3120,17 +3117,17 @@
         <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3139,7 +3136,7 @@
     </row>
     <row r="62" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -3148,17 +3145,17 @@
         <v>101</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3167,7 +3164,7 @@
     </row>
     <row r="63" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -3176,17 +3173,17 @@
         <v>101</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="6"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="64" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -3204,17 +3201,17 @@
         <v>101</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="I64" s="5"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="65" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -3232,17 +3229,17 @@
         <v>101</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="66" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -3260,17 +3257,17 @@
         <v>101</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3279,7 +3276,7 @@
     </row>
     <row r="67" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -3288,17 +3285,17 @@
         <v>101</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="6"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="68" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -3316,17 +3313,17 @@
         <v>101</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3335,7 +3332,7 @@
     </row>
     <row r="69" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3344,17 +3341,17 @@
         <v>101</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -3363,7 +3360,7 @@
     </row>
     <row r="70" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -3372,17 +3369,17 @@
         <v>101</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="71" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3400,17 +3397,17 @@
         <v>101</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3419,7 +3416,7 @@
     </row>
     <row r="72" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -3428,17 +3425,17 @@
         <v>101</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3447,7 +3444,7 @@
     </row>
     <row r="73" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3456,17 +3453,17 @@
         <v>101</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3475,7 +3472,7 @@
     </row>
     <row r="74" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -3484,17 +3481,17 @@
         <v>101</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="75" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3512,17 +3509,17 @@
         <v>101</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="76" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -3540,17 +3537,17 @@
         <v>101</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="I76" s="5"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -3559,7 +3556,7 @@
     </row>
     <row r="77" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3568,17 +3565,17 @@
         <v>101</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="I77" s="6"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="78" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -3596,17 +3593,17 @@
         <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="I78" s="5"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="79" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -3624,17 +3621,17 @@
         <v>101</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="80" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -3652,17 +3649,17 @@
         <v>101</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="I80" s="5"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="81" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -3680,17 +3677,17 @@
         <v>101</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="82" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -3708,17 +3705,17 @@
         <v>101</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -3727,7 +3724,7 @@
     </row>
     <row r="83" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -3736,17 +3733,17 @@
         <v>101</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3755,7 +3752,7 @@
     </row>
     <row r="84" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -3764,17 +3761,17 @@
         <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="85" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -3792,17 +3789,17 @@
         <v>101</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3811,7 +3808,7 @@
     </row>
     <row r="86" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -3820,17 +3817,17 @@
         <v>101</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -3839,7 +3836,7 @@
     </row>
     <row r="87" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -3848,17 +3845,17 @@
         <v>101</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -3867,7 +3864,7 @@
     </row>
     <row r="88" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -3876,17 +3873,17 @@
         <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="I88" s="5"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -3895,7 +3892,7 @@
     </row>
     <row r="89" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -3904,17 +3901,17 @@
         <v>101</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="90" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -3932,17 +3929,17 @@
         <v>101</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="I90" s="5"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="91" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -3960,17 +3957,17 @@
         <v>101</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="92" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -3988,17 +3985,17 @@
         <v>101</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="5"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="93" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
@@ -4016,17 +4013,17 @@
         <v>101</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="94" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -4044,17 +4041,17 @@
         <v>101</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="I94" s="5"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="95" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -4072,17 +4069,17 @@
         <v>101</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -4091,7 +4088,7 @@
     </row>
     <row r="96" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -4100,17 +4097,17 @@
         <v>101</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+      <c r="I96" s="5"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4119,7 +4116,7 @@
     </row>
     <row r="97" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -4128,17 +4125,17 @@
         <v>101</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="98" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
@@ -4156,17 +4153,17 @@
         <v>101</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="I98" s="5"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="99" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -4184,17 +4181,17 @@
         <v>101</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="I99" s="6"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -4203,7 +4200,7 @@
     </row>
     <row r="100" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -4212,17 +4209,17 @@
         <v>101</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
+      <c r="I100" s="5"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4231,7 +4228,7 @@
     </row>
     <row r="101" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -4240,17 +4237,17 @@
         <v>101</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="102" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -4268,17 +4265,17 @@
         <v>101</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+      <c r="I102" s="5"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="103" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -4296,17 +4293,17 @@
         <v>101</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -4318,18 +4315,16 @@
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:N2"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A103" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H103" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4337,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4356,7 +4351,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4401,42 +4396,42 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -4445,42 +4440,40 @@
         <v>201</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>271</v>
-      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -4489,42 +4482,40 @@
         <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>271</v>
-      </c>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -4533,27 +4524,27 @@
         <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M6" s="5">
         <v>995</v>
@@ -4562,7 +4553,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -4571,27 +4562,27 @@
         <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M7" s="6">
         <v>995</v>
@@ -4600,7 +4591,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -4609,31 +4600,31 @@
         <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -4642,7 +4633,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -4651,31 +4642,31 @@
         <v>201</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J9" s="6">
         <v>5</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -4684,7 +4675,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -4693,31 +4684,31 @@
         <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="5">
         <v>187</v>
@@ -4726,7 +4717,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -4735,42 +4726,40 @@
         <v>201</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J11" s="6">
         <v>7</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -4779,42 +4768,40 @@
         <v>201</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>282</v>
-      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -4823,42 +4810,40 @@
         <v>201</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J13" s="6">
         <v>9</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="6">
-        <v>64</v>
-      </c>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -4867,42 +4852,40 @@
         <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J14" s="5">
         <v>9</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>286</v>
-      </c>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -4911,42 +4894,40 @@
         <v>201</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J15" s="6">
         <v>9</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M15" s="6">
         <v>1</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>286</v>
-      </c>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -4955,42 +4936,40 @@
         <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J16" s="5">
         <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -4999,42 +4978,40 @@
         <v>201</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J17" s="6">
         <v>13</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M17" s="6">
         <v>1</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>290</v>
-      </c>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -5043,17 +5020,17 @@
         <v>201</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -5062,7 +5039,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -5071,17 +5048,17 @@
         <v>201</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -5090,7 +5067,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -5099,17 +5076,17 @@
         <v>201</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -5118,7 +5095,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -5127,17 +5104,17 @@
         <v>201</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -5146,7 +5123,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -5155,17 +5132,17 @@
         <v>201</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -5174,7 +5151,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -5183,17 +5160,17 @@
         <v>201</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -5202,7 +5179,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -5211,17 +5188,17 @@
         <v>201</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -5230,7 +5207,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -5239,17 +5216,17 @@
         <v>201</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -5258,7 +5235,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -5267,17 +5244,17 @@
         <v>201</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -5286,7 +5263,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -5295,17 +5272,17 @@
         <v>201</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -5314,7 +5291,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -5323,17 +5300,17 @@
         <v>201</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -5342,7 +5319,7 @@
     </row>
     <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -5351,17 +5328,17 @@
         <v>201</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -5370,7 +5347,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -5379,17 +5356,17 @@
         <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -5398,7 +5375,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -5407,17 +5384,17 @@
         <v>201</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5426,7 +5403,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -5435,17 +5412,17 @@
         <v>201</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -5454,7 +5431,7 @@
     </row>
     <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -5463,17 +5440,17 @@
         <v>201</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -5482,7 +5459,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -5491,17 +5468,17 @@
         <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -5510,7 +5487,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -5519,17 +5496,17 @@
         <v>201</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -5538,7 +5515,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -5547,17 +5524,17 @@
         <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -5566,7 +5543,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -5575,17 +5552,17 @@
         <v>201</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -5594,7 +5571,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -5603,17 +5580,17 @@
         <v>201</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -5622,7 +5599,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -5631,17 +5608,17 @@
         <v>201</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -5650,7 +5627,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -5659,17 +5636,17 @@
         <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -5678,7 +5655,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -5687,17 +5664,17 @@
         <v>201</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -5706,7 +5683,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -5715,17 +5692,17 @@
         <v>201</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -5734,7 +5711,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -5743,17 +5720,17 @@
         <v>201</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -5762,7 +5739,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -5771,17 +5748,17 @@
         <v>201</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -5790,7 +5767,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -5799,17 +5776,17 @@
         <v>201</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -5818,7 +5795,7 @@
     </row>
     <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -5827,17 +5804,17 @@
         <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -5846,7 +5823,7 @@
     </row>
     <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -5855,17 +5832,17 @@
         <v>201</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -5874,7 +5851,7 @@
     </row>
     <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -5883,17 +5860,17 @@
         <v>201</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -5902,7 +5879,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -5911,17 +5888,17 @@
         <v>201</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -5930,7 +5907,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -5939,17 +5916,17 @@
         <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -5958,7 +5935,7 @@
     </row>
     <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -5967,17 +5944,17 @@
         <v>201</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -5986,7 +5963,7 @@
     </row>
     <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -5995,17 +5972,17 @@
         <v>201</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -6014,7 +5991,7 @@
     </row>
     <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -6023,17 +6000,17 @@
         <v>201</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -6042,7 +6019,7 @@
     </row>
     <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -6051,17 +6028,17 @@
         <v>201</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -6070,7 +6047,7 @@
     </row>
     <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -6079,17 +6056,17 @@
         <v>201</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -6098,7 +6075,7 @@
     </row>
     <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -6107,17 +6084,17 @@
         <v>201</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -6126,7 +6103,7 @@
     </row>
     <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6135,17 +6112,17 @@
         <v>201</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -6157,15 +6134,12 @@
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:N2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H57" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I57" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6174,10 +6148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6190,12 +6164,12 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6211,7 +6185,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -6229,7 +6203,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6240,42 +6214,42 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -6284,42 +6258,43 @@
         <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -6328,42 +6303,43 @@
         <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -6372,36 +6348,37 @@
         <v>202</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M6" s="5">
         <v>995</v>
       </c>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -6410,36 +6387,37 @@
         <v>202</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M7" s="6">
         <v>995</v>
       </c>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -6448,40 +6426,41 @@
         <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J8" s="5">
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
       </c>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -6490,40 +6469,41 @@
         <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J9" s="6">
         <v>5</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
       </c>
       <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -6532,40 +6512,41 @@
         <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="5">
         <v>187</v>
       </c>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -6574,42 +6555,43 @@
         <v>202</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J11" s="6">
         <v>7</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -6618,42 +6600,43 @@
         <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -6662,42 +6645,43 @@
         <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J13" s="6">
         <v>9</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -6706,42 +6690,43 @@
         <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J14" s="5">
         <v>9</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6750,42 +6735,43 @@
         <v>202</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J15" s="6">
         <v>9</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M15" s="6">
         <v>1</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -6794,42 +6780,43 @@
         <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J16" s="5">
         <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -6838,42 +6825,43 @@
         <v>202</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="J17" s="6">
         <v>13</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M17" s="6">
         <v>1</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -6882,26 +6870,26 @@
         <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -6910,26 +6898,26 @@
         <v>202</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -6938,26 +6926,26 @@
         <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -6966,26 +6954,26 @@
         <v>202</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -6994,26 +6982,26 @@
         <v>202</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -7022,26 +7010,26 @@
         <v>202</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -7050,26 +7038,26 @@
         <v>202</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -7078,26 +7066,26 @@
         <v>202</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -7106,26 +7094,26 @@
         <v>202</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -7134,26 +7122,26 @@
         <v>202</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -7162,26 +7150,26 @@
         <v>202</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -7190,26 +7178,26 @@
         <v>202</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -7218,26 +7206,26 @@
         <v>202</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -7246,26 +7234,26 @@
         <v>202</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -7274,17 +7262,17 @@
         <v>202</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -7293,7 +7281,7 @@
     </row>
     <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -7302,17 +7290,17 @@
         <v>202</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -7321,7 +7309,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -7330,17 +7318,17 @@
         <v>202</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -7349,7 +7337,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -7358,17 +7346,17 @@
         <v>202</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -7377,7 +7365,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -7386,17 +7374,17 @@
         <v>202</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -7405,7 +7393,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -7414,17 +7402,17 @@
         <v>202</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -7433,7 +7421,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -7442,17 +7430,17 @@
         <v>202</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -7461,7 +7449,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -7470,17 +7458,17 @@
         <v>202</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -7489,7 +7477,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -7498,17 +7486,17 @@
         <v>202</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -7517,7 +7505,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -7526,17 +7514,17 @@
         <v>202</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -7545,7 +7533,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -7554,17 +7542,17 @@
         <v>202</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -7573,7 +7561,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -7582,17 +7570,17 @@
         <v>202</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -7601,7 +7589,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -7610,17 +7598,17 @@
         <v>202</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -7629,7 +7617,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -7638,17 +7626,17 @@
         <v>202</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -7657,7 +7645,7 @@
     </row>
     <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -7666,17 +7654,17 @@
         <v>202</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -7685,7 +7673,7 @@
     </row>
     <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -7694,17 +7682,17 @@
         <v>202</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -7713,7 +7701,7 @@
     </row>
     <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -7722,17 +7710,17 @@
         <v>202</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -7741,7 +7729,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -7750,17 +7738,17 @@
         <v>202</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -7769,7 +7757,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -7778,17 +7766,17 @@
         <v>202</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -7797,7 +7785,7 @@
     </row>
     <row r="51" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -7806,17 +7794,17 @@
         <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -7825,7 +7813,7 @@
     </row>
     <row r="52" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -7834,17 +7822,17 @@
         <v>202</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -7853,7 +7841,7 @@
     </row>
     <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -7862,17 +7850,17 @@
         <v>202</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -7881,7 +7869,7 @@
     </row>
     <row r="54" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -7890,17 +7878,17 @@
         <v>202</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -7909,7 +7897,7 @@
     </row>
     <row r="55" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -7918,17 +7906,17 @@
         <v>202</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -7937,7 +7925,7 @@
     </row>
     <row r="56" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -7946,17 +7934,17 @@
         <v>202</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -7965,7 +7953,7 @@
     </row>
     <row r="57" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -7974,17 +7962,17 @@
         <v>202</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -7996,21 +7984,15 @@
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:N2"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A57" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H57" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I57" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H17" xr:uid="{5126C79E-38F3-4749-953C-F6FAB4AB7360}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I17" xr:uid="{9CA0112F-F5CB-4C3B-814E-311F4A1ACEA0}">
-      <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221B05E-E3F6-4F97-B95E-1B502BBA9B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B51FB1-13B1-4378-8C5C-3F0AC5F62957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dc1-spine101" sheetId="1" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -4332,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DC1_intf_selectors.xlsx
+++ b/DC1_intf_selectors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B51FB1-13B1-4378-8C5C-3F0AC5F62957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{916133B3-89E6-4916-9EB3-0ED0D7827781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4333,7 +4333,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
